--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F76386-1A0C-B840-A215-E402508A40BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595953E-C871-C747-8B19-02CAAE19D9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6129,82 +6129,89 @@
         <v>70.571428571428569</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>92</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>79.714285714285708</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -6230,7 +6237,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11497,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D400" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D401" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11621,82 +11628,89 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>1</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -11721,8 +11735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16682,7 +16696,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D400" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D401" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16806,82 +16820,89 @@
         <v>50.285714285714285</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>109</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>49.714285714285715</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -16906,8 +16927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22062,82 +22083,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>100</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" ref="D401" si="30">AVERAGE(C395:C401)</f>
+        <v>99.428571428571431</v>
+      </c>
+      <c r="E401">
+        <f t="shared" ref="E401" si="31">C401-C400</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -22163,7 +22195,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:D400"/>
+      <selection activeCell="A401" sqref="A401:D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26862,7 +26894,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D400" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27250,82 +27282,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C401" s="2">
+        <v>15</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="5"/>
+        <v>13.571428571428571</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595953E-C871-C747-8B19-02CAAE19D9B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024E85E-5EA2-274B-A656-614922C98931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6144,6 +6144,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>93</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,7 +6244,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11504,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D401" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D402" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11643,6 +11650,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>1</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -11736,7 +11750,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16696,7 +16710,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D401" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D402" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16835,6 +16849,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>70</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -16927,8 +16948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22102,6 +22123,17 @@
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>102</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" ref="D402" si="32">AVERAGE(C396:C402)</f>
+        <v>99.857142857142861</v>
+      </c>
+      <c r="E402">
+        <f t="shared" ref="E402" si="33">C402-C401</f>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -22194,8 +22226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:D401"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:D402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26894,7 +26926,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D401" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27297,6 +27329,13 @@
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
+      </c>
+      <c r="C402" s="2">
+        <v>15</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024E85E-5EA2-274B-A656-614922C98931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E7D25-6715-9A4E-A663-96075F8A4569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6156,6 +6156,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>88</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>83.142857142857139</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -6244,7 +6251,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11511,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D402" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D403" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11662,6 +11669,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>0</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -11750,7 +11764,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16710,7 +16724,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D402" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D403" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16861,6 +16875,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>85</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -16949,7 +16970,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22139,6 +22160,17 @@
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>92</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" ref="D403" si="34">AVERAGE(C397:C403)</f>
+        <v>99.714285714285708</v>
+      </c>
+      <c r="E403">
+        <f t="shared" ref="E403" si="35">C403-C402</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -22227,7 +22259,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402:D402"/>
+      <selection activeCell="A403" sqref="A403:D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26926,7 +26958,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D402" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27341,6 +27373,13 @@
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
+      </c>
+      <c r="C403" s="2">
+        <v>18</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="5"/>
+        <v>14.714285714285714</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E7D25-6715-9A4E-A663-96075F8A4569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE17863-F600-A243-BEBE-972B359A3DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6168,6 +6168,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>58</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>75.857142857142861</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -6250,8 +6257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+    <sheetView topLeftCell="A375" workbookViewId="0">
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11518,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D403" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D404" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11681,6 +11688,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>0</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -11764,7 +11778,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16724,7 +16738,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D403" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D404" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16887,6 +16901,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>48</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>56.285714285714285</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -16970,7 +16991,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22176,6 +22197,17 @@
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>92</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" ref="D404" si="36">AVERAGE(C398:C404)</f>
+        <v>98.571428571428569</v>
+      </c>
+      <c r="E404">
+        <f t="shared" ref="E404" si="37">C404-C403</f>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -22259,7 +22291,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403:D403"/>
+      <selection activeCell="A404" sqref="A404:D404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26958,7 +26990,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D403" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27385,6 +27417,13 @@
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
+      </c>
+      <c r="C404" s="2">
+        <v>17</v>
+      </c>
+      <c r="D404" s="3">
+        <f t="shared" si="5"/>
+        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/Calabria/province/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE17863-F600-A243-BEBE-972B359A3DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED463F-943B-F04E-9CE6-84FB24413CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6180,6 +6180,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>96</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>70.571428571428569</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -6257,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11525,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D404" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D405" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11700,6 +11707,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>0</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -11778,7 +11792,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16738,7 +16752,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D404" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D405" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16913,6 +16927,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>0</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>56.285714285714285</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -16991,7 +17012,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22213,6 +22234,17 @@
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>88</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" ref="D405" si="38">AVERAGE(C399:C405)</f>
+        <v>96.714285714285708</v>
+      </c>
+      <c r="E405">
+        <f t="shared" ref="E405" si="39">C405-C404</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -22290,8 +22322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A404" sqref="A404:D404"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A405" sqref="A405:D405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26990,7 +27022,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D404" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27429,6 +27461,13 @@
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
+      </c>
+      <c r="C405" s="2">
+        <v>19</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="5"/>
+        <v>16.142857142857142</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAED463F-943B-F04E-9CE6-84FB24413CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7460BE8E-E974-7F45-875B-956C652446F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6192,6 +6192,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>50</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>70.285714285714292</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -6264,8 +6271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11532,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D405" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D406" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11719,6 +11726,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -11792,7 +11806,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16752,7 +16766,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D405" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D406" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16939,6 +16953,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>56.285714285714285</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -17011,8 +17032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22250,6 +22271,17 @@
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>85</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" ref="D406" si="40">AVERAGE(C400:C406)</f>
+        <v>94.428571428571431</v>
+      </c>
+      <c r="E406">
+        <f t="shared" ref="E406" si="41">C406-C405</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -22322,8 +22354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A405" sqref="A405:D405"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="A406" sqref="A406:D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27022,7 +27054,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D405" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27473,6 +27505,13 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
+      </c>
+      <c r="C406" s="2">
+        <v>18</v>
+      </c>
+      <c r="D406" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7460BE8E-E974-7F45-875B-956C652446F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688B272-C1A7-EA43-BF73-58E25DEF3847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6204,6 +6204,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>11</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>69.714285714285708</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -6272,7 +6279,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11539,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D406" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D407" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11738,6 +11745,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>1</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -11806,7 +11820,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16766,7 +16780,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D406" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D407" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16965,6 +16979,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>77</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>55.571428571428569</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -17033,7 +17054,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22287,6 +22308,17 @@
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>85</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" ref="D407" si="42">AVERAGE(C401:C407)</f>
+        <v>92</v>
+      </c>
+      <c r="E407">
+        <f t="shared" ref="E407" si="43">C407-C406</f>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -22355,7 +22387,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A406" sqref="A406:D406"/>
+      <selection activeCell="A407" sqref="A407:D407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27054,7 +27086,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D406" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27517,6 +27549,13 @@
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
+      </c>
+      <c r="C407" s="2">
+        <v>18</v>
+      </c>
+      <c r="D407" s="3">
+        <f t="shared" si="5"/>
+        <v>17.142857142857142</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688B272-C1A7-EA43-BF73-58E25DEF3847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB40848-5C98-5B4C-8C1A-AFAD532286DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6216,6 +6216,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>51</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>63.857142857142854</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -6278,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11546,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D407" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D408" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11757,6 +11764,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>1</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -11819,8 +11833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16780,7 +16794,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D407" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D408" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16991,6 +17005,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>128</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>58.285714285714285</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -17054,7 +17075,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22324,6 +22345,17 @@
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>86</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" ref="D408" si="44">AVERAGE(C402:C408)</f>
+        <v>90</v>
+      </c>
+      <c r="E408">
+        <f t="shared" ref="E408" si="45">C408-C407</f>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -22386,8 +22418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="A407" sqref="A407:D407"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27086,7 +27118,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D407" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27561,6 +27593,13 @@
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
+      </c>
+      <c r="C408" s="2">
+        <v>17</v>
+      </c>
+      <c r="D408" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB40848-5C98-5B4C-8C1A-AFAD532286DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2B2E2D-B7D9-F14A-95C6-718C2B360B37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6228,6 +6228,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>58</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>58.857142857142854</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,7 +6293,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11553,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D408" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D409" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11776,6 +11783,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>0</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -11833,8 +11847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16794,7 +16808,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D408" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D409" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17017,6 +17031,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>67</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>57.857142857142854</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -17075,7 +17096,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22361,6 +22382,17 @@
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>83</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" ref="D409" si="46">AVERAGE(C403:C409)</f>
+        <v>87.285714285714292</v>
+      </c>
+      <c r="E409">
+        <f t="shared" ref="E409" si="47">C409-C408</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -22418,8 +22450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:D408"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:D409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27118,7 +27150,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D408" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27605,6 +27637,13 @@
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
+      </c>
+      <c r="C409" s="2">
+        <v>17</v>
+      </c>
+      <c r="D409" s="3">
+        <f t="shared" si="5"/>
+        <v>17.714285714285715</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2B2E2D-B7D9-F14A-95C6-718C2B360B37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4C560-B694-FA49-B981-6773DEAEED77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5741,7 +5741,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6240,6 +6240,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>80</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>57.714285714285715</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,7 +6300,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11560,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D409" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D410" si="5">AVERAGE(C384:C390)</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11795,6 +11802,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>1</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -11847,8 +11861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16808,7 +16822,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D409" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D410" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17043,6 +17057,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>83</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>57.571428571428569</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -17096,7 +17117,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+      <selection activeCell="A410" sqref="A410:D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22398,6 +22419,17 @@
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>84</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" ref="D410" si="48">AVERAGE(C404:C410)</f>
+        <v>86.142857142857139</v>
+      </c>
+      <c r="E410">
+        <f t="shared" ref="E410" si="49">C410-C409</f>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -22450,8 +22482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409:D409"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="G409" sqref="G409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27150,7 +27182,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D409" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27649,6 +27681,13 @@
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
+      </c>
+      <c r="C410" s="2">
+        <v>16</v>
+      </c>
+      <c r="D410" s="3">
+        <f t="shared" si="5"/>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4C560-B694-FA49-B981-6773DEAEED77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9AF069-353C-B348-8FFF-8F3756A0B0E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>data</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Terapia intensiva</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -433,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="H400" sqref="H400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6300,7 +6294,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="A410" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6735,12 +6729,12 @@
         <v>43931</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
+      <c r="C33" s="2">
+        <v>0</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -6754,7 +6748,7 @@
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -6768,7 +6762,7 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -6782,7 +6776,7 @@
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -6796,7 +6790,7 @@
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -6810,7 +6804,7 @@
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -6824,7 +6818,7 @@
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -11551,12 +11545,12 @@
       <c r="A389" s="5">
         <v>44287</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>8</v>
+      <c r="C389" s="2">
+        <v>0</v>
       </c>
       <c r="D389" s="3">
         <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -11568,7 +11562,7 @@
       </c>
       <c r="D390" s="3">
         <f t="shared" ref="D390:D410" si="5">AVERAGE(C384:C390)</f>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -11580,7 +11574,7 @@
       </c>
       <c r="D391" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -11592,7 +11586,7 @@
       </c>
       <c r="D392" s="3">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -11604,7 +11598,7 @@
       </c>
       <c r="D393" s="3">
         <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -11616,7 +11610,7 @@
       </c>
       <c r="D394" s="3">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -11628,7 +11622,7 @@
       </c>
       <c r="D395" s="3">
         <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -11862,7 +11856,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="F396" sqref="F396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12724,12 +12718,12 @@
         <v>43966</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>7</v>
+      <c r="C68" s="2">
+        <v>0</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -12742,7 +12736,7 @@
       </c>
       <c r="D69" s="3">
         <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -12755,7 +12749,7 @@
       </c>
       <c r="D70" s="3">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -12768,7 +12762,7 @@
       </c>
       <c r="D71" s="3">
         <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -12781,7 +12775,7 @@
       </c>
       <c r="D72" s="3">
         <f t="shared" si="0"/>
-        <v>3.6666666666666665</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -12794,7 +12788,7 @@
       </c>
       <c r="D73" s="3">
         <f t="shared" ref="D73:D136" si="1">AVERAGE(C67:C73)</f>
-        <v>4.333333333333333</v>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -12807,7 +12801,7 @@
       </c>
       <c r="D74" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.4285714285714284</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -13582,12 +13576,12 @@
         <v>44032</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="2" t="s">
-        <v>7</v>
+      <c r="C134" s="2">
+        <v>0</v>
       </c>
       <c r="D134" s="3">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -13600,7 +13594,7 @@
       </c>
       <c r="D135" s="3">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -13613,7 +13607,7 @@
       </c>
       <c r="D136" s="3">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -13626,7 +13620,7 @@
       </c>
       <c r="D137" s="3">
         <f t="shared" ref="D137:D200" si="2">AVERAGE(C131:C137)</f>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -13639,7 +13633,7 @@
       </c>
       <c r="D138" s="3">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -13652,7 +13646,7 @@
       </c>
       <c r="D139" s="3">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -15597,12 +15591,12 @@
         <v>44187</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289" s="2" t="s">
-        <v>8</v>
+      <c r="C289" s="2">
+        <v>0</v>
       </c>
       <c r="D289" s="3">
         <f t="shared" si="4"/>
-        <v>48.333333333333336</v>
+        <v>41.428571428571431</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -15615,7 +15609,7 @@
       </c>
       <c r="D290" s="3">
         <f t="shared" si="4"/>
-        <v>38.166666666666664</v>
+        <v>32.714285714285715</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -15628,7 +15622,7 @@
       </c>
       <c r="D291" s="3">
         <f t="shared" si="4"/>
-        <v>41.666666666666664</v>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -15641,7 +15635,7 @@
       </c>
       <c r="D292" s="3">
         <f t="shared" si="4"/>
-        <v>19.666666666666668</v>
+        <v>16.857142857142858</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -15654,7 +15648,7 @@
       </c>
       <c r="D293" s="3">
         <f t="shared" si="4"/>
-        <v>20.333333333333332</v>
+        <v>17.428571428571427</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -15667,7 +15661,7 @@
       </c>
       <c r="D294" s="3">
         <f t="shared" si="4"/>
-        <v>21.333333333333332</v>
+        <v>18.285714285714285</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -15680,7 +15674,7 @@
       </c>
       <c r="D295" s="3">
         <f t="shared" si="4"/>
-        <v>14.833333333333334</v>
+        <v>12.714285714285714</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -17117,7 +17111,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410:D410"/>
+      <selection activeCell="H407" sqref="H407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22483,7 +22477,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="G409" sqref="G409"/>
+      <selection activeCell="G410" sqref="G410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9AF069-353C-B348-8FFF-8F3756A0B0E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A5868-42C3-BE48-8F1A-DB23B21F182F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView topLeftCell="A379" workbookViewId="0">
-      <selection activeCell="H400" sqref="H400"/>
+    <sheetView topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6246,6 +6246,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>52</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>56.857142857142854</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -6294,7 +6301,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A410" sqref="A1:XFD1048576"/>
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11561,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D410" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D411" si="5">AVERAGE(C384:C390)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11808,6 +11815,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>2</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -11855,8 +11869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="F396" sqref="F396"/>
+    <sheetView topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16816,7 +16830,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D410" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D411" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17063,6 +17077,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>84</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>62.714285714285715</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -17110,8 +17131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="H407" sqref="H407"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22429,6 +22450,17 @@
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>84</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" ref="D411" si="50">AVERAGE(C405:C411)</f>
+        <v>85</v>
+      </c>
+      <c r="E411">
+        <f t="shared" ref="E411" si="51">C411-C410</f>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -22476,8 +22508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="G410" sqref="G410"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A411" sqref="A411:D411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27176,7 +27208,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D410" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27687,6 +27719,13 @@
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
+      </c>
+      <c r="C411" s="2">
+        <v>14</v>
+      </c>
+      <c r="D411" s="3">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A5868-42C3-BE48-8F1A-DB23B21F182F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34CF513-2959-0F40-9CAC-68A49BE2D795}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,7 +5735,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>32.428571428571431</v>
       </c>
     </row>
@@ -6258,6 +6258,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>90</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,7 +6308,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11568,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D411" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D412" si="5">AVERAGE(C384:C390)</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
@@ -11827,6 +11834,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>1</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -11870,7 +11884,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16830,7 +16844,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D411" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D412" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17089,6 +17103,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>0</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>62.714285714285715</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -17131,8 +17152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="G415" sqref="G415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22466,6 +22487,17 @@
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>89</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" ref="D412" si="52">AVERAGE(C406:C412)</f>
+        <v>85.142857142857139</v>
+      </c>
+      <c r="E412">
+        <f t="shared" ref="E412" si="53">C412-C411</f>
+        <v>5</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -22509,7 +22541,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411:D411"/>
+      <selection activeCell="A412" sqref="A412:D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27208,7 +27240,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D411" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D412" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27731,6 +27763,13 @@
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
+      </c>
+      <c r="C412" s="2">
+        <v>15</v>
+      </c>
+      <c r="D412" s="3">
+        <f t="shared" si="5"/>
+        <v>16.428571428571427</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DE4095-D7AF-4643-862A-C2136CD514DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641DC2B-C548-8446-A850-8B666EA56572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="1040" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -5978,6 +5978,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>16</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -6011,7 +6018,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11278,7 +11285,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D413" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D414" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11561,6 +11568,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -11593,8 +11607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A377" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16554,7 +16568,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D413" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D414" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16837,6 +16851,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414">
+        <v>114</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>68</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -16870,7 +16891,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A413" sqref="A413:D413"/>
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22236,6 +22257,17 @@
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414" s="2">
+        <v>93</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" ref="D414" si="56">AVERAGE(C408:C414)</f>
+        <v>87.285714285714292</v>
+      </c>
+      <c r="E414">
+        <f t="shared" ref="E414" si="57">C414-C413</f>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -22268,8 +22300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A413" sqref="A413:D413"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A414" sqref="A414:D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26968,7 +27000,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D413" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27515,6 +27547,13 @@
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
+      </c>
+      <c r="C414" s="2">
+        <v>16</v>
+      </c>
+      <c r="D414" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7641DC2B-C548-8446-A850-8B666EA56572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04353F-BB66-604C-ABBD-4E9CDB7E353C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -5990,6 +5990,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>72</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -6017,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D414"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11285,7 +11292,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D414" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D415" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11580,6 +11587,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -11608,7 +11622,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16568,7 +16582,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D414" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D415" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16863,6 +16877,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415">
+        <v>143</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>70.142857142857139</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -16891,7 +16912,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22273,6 +22294,17 @@
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415" s="2">
+        <v>92</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" ref="D415" si="58">AVERAGE(C409:C415)</f>
+        <v>88.142857142857139</v>
+      </c>
+      <c r="E415">
+        <f t="shared" ref="E415" si="59">C415-C414</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -22301,7 +22333,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A414" sqref="A414:D414"/>
+      <selection activeCell="A415" sqref="A415:D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27000,7 +27032,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D414" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27559,6 +27591,13 @@
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
+      </c>
+      <c r="C415" s="2">
+        <v>15</v>
+      </c>
+      <c r="D415" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04353F-BB66-604C-ABBD-4E9CDB7E353C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D4179-6101-9741-A519-C201E9904557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6002,6 +6002,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>117</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>64.571428571428569</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -6025,7 +6032,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11292,7 +11299,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D415" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D416" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11599,6 +11606,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -11622,7 +11636,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16582,7 +16596,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D415" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D416" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16889,6 +16903,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416">
+        <v>57</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>68.714285714285708</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -16912,7 +16933,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="A416" sqref="A416:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22310,6 +22331,17 @@
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416" s="2">
+        <v>86</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" ref="D416" si="60">AVERAGE(C410:C416)</f>
+        <v>88.571428571428569</v>
+      </c>
+      <c r="E416">
+        <f t="shared" ref="E416" si="61">C416-C415</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
@@ -22333,7 +22365,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:D415"/>
+      <selection activeCell="D410" sqref="D410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27032,7 +27064,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D415" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27603,6 +27635,13 @@
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
+      </c>
+      <c r="C416" s="2">
+        <v>15</v>
+      </c>
+      <c r="D416" s="3">
+        <f t="shared" si="5"/>
+        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D4179-6101-9741-A519-C201E9904557}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC01C48-5B5C-124C-9AE9-A6D7DF5C5621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6011,12 +6011,19 @@
         <v>64.571428571428569</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>70</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>63.714285714285715</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -6032,7 +6039,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11299,7 +11306,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D416" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D417" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11615,12 +11622,19 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -11636,7 +11650,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16596,7 +16610,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D416" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D417" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16912,12 +16926,19 @@
         <v>68.714285714285708</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417">
+        <v>114</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>61.142857142857146</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -16932,8 +16953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A416" sqref="A416:D416"/>
+    <sheetView topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22344,12 +22365,23 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417" s="2">
+        <v>80</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" ref="D417" si="62">AVERAGE(C411:C417)</f>
+        <v>88</v>
+      </c>
+      <c r="E417">
+        <f t="shared" ref="E417" si="63">C417-C416</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -22365,7 +22397,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="D410" sqref="D410"/>
+      <selection activeCell="A417" sqref="A417:D417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27064,7 +27096,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D416" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27644,12 +27676,19 @@
         <v>15.285714285714286</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C417" s="2">
+        <v>16</v>
+      </c>
+      <c r="D417" s="3">
+        <f t="shared" si="5"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC01C48-5B5C-124C-9AE9-A6D7DF5C5621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDDFA5-17AA-D941-8CA7-BCAFB540BD5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J418"/>
   <sheetViews>
     <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6026,6 +6026,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>60</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>64.857142857142861</v>
       </c>
     </row>
   </sheetData>
@@ -6039,7 +6046,7 @@
   <dimension ref="A1:G418"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11306,7 +11313,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D417" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D418" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11637,6 +11644,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
   </sheetData>
@@ -11650,7 +11664,7 @@
   <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16610,7 +16624,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D417" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D418" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16941,6 +16955,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>61.142857142857146</v>
       </c>
     </row>
   </sheetData>
@@ -16953,8 +16974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22384,6 +22405,17 @@
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418" s="2">
+        <v>79</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" ref="D418" si="64">AVERAGE(C412:C418)</f>
+        <v>87.285714285714292</v>
+      </c>
+      <c r="E418">
+        <f t="shared" ref="E418" si="65">C418-C417</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -22396,8 +22428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A417" sqref="A417:D417"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418:D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27096,7 +27128,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D417" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27691,6 +27723,13 @@
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
+      </c>
+      <c r="C418" s="2">
+        <v>16</v>
+      </c>
+      <c r="D418" s="3">
+        <f t="shared" si="5"/>
+        <v>15.571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EDDFA5-17AA-D941-8CA7-BCAFB540BD5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F24549-8495-3F44-A64E-2805D5ECF1F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2660" yWindow="1020" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J418"/>
+  <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="C423" sqref="C423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6033,6 +6033,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>64.857142857142861</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>53</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>59.571428571428569</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>19</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>58.142857142857146</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>11</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>57.428571428571431</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -6043,10 +6219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G418"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="A419" sqref="A419:D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11313,7 +11489,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D418" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D421" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11651,6 +11827,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -11661,10 +12013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+      <selection activeCell="A419" sqref="A419:D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16624,7 +16976,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D418" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D421" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -16962,6 +17314,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>61.142857142857146</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>61.285714285714285</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>61.285714285714285</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421">
+        <v>125</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>62.857142857142854</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>
@@ -16972,10 +17500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419:D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22418,6 +22946,194 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419" s="2">
+        <v>70</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" ref="D419" si="66">AVERAGE(C413:C419)</f>
+        <v>84.571428571428569</v>
+      </c>
+      <c r="E419">
+        <f t="shared" ref="E419" si="67">C419-C418</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420" s="2">
+        <v>71</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" ref="D420" si="68">AVERAGE(C414:C420)</f>
+        <v>81.571428571428569</v>
+      </c>
+      <c r="E420">
+        <f t="shared" ref="E420" si="69">C420-C419</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421" s="2">
+        <v>73</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" ref="D421" si="70">AVERAGE(C415:C421)</f>
+        <v>78.714285714285708</v>
+      </c>
+      <c r="E421">
+        <f t="shared" ref="E421" si="71">C421-C420</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22426,10 +23142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418:D418"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419:D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27128,7 +27844,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D418" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -27730,6 +28446,182 @@
       <c r="D418" s="3">
         <f t="shared" si="5"/>
         <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44317</v>
+      </c>
+      <c r="C419" s="2">
+        <v>16</v>
+      </c>
+      <c r="D419" s="3">
+        <f t="shared" si="5"/>
+        <v>15.714285714285714</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44318</v>
+      </c>
+      <c r="C420" s="2">
+        <v>17</v>
+      </c>
+      <c r="D420" s="3">
+        <f t="shared" si="5"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44319</v>
+      </c>
+      <c r="C421" s="2">
+        <v>11</v>
+      </c>
+      <c r="D421" s="3">
+        <f t="shared" si="5"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44320</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44324</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44325</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44338</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44339</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44347</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F24549-8495-3F44-A64E-2805D5ECF1F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AA7A8-60D8-9D46-B9C3-5635385F0EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1020" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6074,6 +6074,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>41</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -6222,7 +6229,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419:D421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11489,7 +11496,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D421" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D422" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11868,6 +11875,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -12016,7 +12030,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419:D421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16976,7 +16990,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D421" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D422" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17355,6 +17369,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422">
+        <v>122</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>59.857142857142854</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -17503,7 +17524,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419:D421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22997,6 +23018,17 @@
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422" s="2">
+        <v>69</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" ref="D422" si="72">AVERAGE(C416:C422)</f>
+        <v>75.428571428571431</v>
+      </c>
+      <c r="E422">
+        <f t="shared" ref="E422" si="73">C422-C421</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -23145,7 +23177,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419:D421"/>
+      <selection activeCell="A422" sqref="A422:D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27844,7 +27876,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D421" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28487,6 +28519,13 @@
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
+      </c>
+      <c r="C422" s="2">
+        <v>10</v>
+      </c>
+      <c r="D422" s="3">
+        <f t="shared" si="5"/>
+        <v>14.428571428571429</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1AA7A8-60D8-9D46-B9C3-5635385F0EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE6C343-8781-8047-A362-E9965F5932A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7740" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6086,6 +6086,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>83</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>48.142857142857146</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,7 +6236,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11496,7 +11503,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D422" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D423" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11887,6 +11894,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>3</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -12030,7 +12044,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16990,7 +17004,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D422" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D423" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17381,6 +17395,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423">
+        <v>82</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>63.428571428571431</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -17523,8 +17544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23034,6 +23055,17 @@
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423" s="2">
+        <v>68</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" ref="D423" si="74">AVERAGE(C417:C423)</f>
+        <v>72.857142857142861</v>
+      </c>
+      <c r="E423">
+        <f t="shared" ref="E423" si="75">C423-C422</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -23176,8 +23208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422:D422"/>
+    <sheetView topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423:D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27876,7 +27908,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D422" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28531,6 +28563,13 @@
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
+      </c>
+      <c r="C423" s="2">
+        <v>11</v>
+      </c>
+      <c r="D423" s="3">
+        <f t="shared" si="5"/>
+        <v>13.857142857142858</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE6C343-8781-8047-A362-E9965F5932A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684FBDC-88C1-C840-9938-37FBC3659849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6098,6 +6098,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>62</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>47</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -6236,7 +6243,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11503,7 +11510,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D423" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D424" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11906,6 +11913,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -12044,7 +12058,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17004,7 +17018,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D423" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D424" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17407,6 +17421,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424">
+        <v>100</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>61.428571428571431</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -17544,8 +17565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23071,6 +23092,17 @@
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424" s="2">
+        <v>67</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" ref="D424" si="76">AVERAGE(C418:C424)</f>
+        <v>71</v>
+      </c>
+      <c r="E424">
+        <f t="shared" ref="E424" si="77">C424-C423</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -23208,8 +23240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423:D423"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27908,7 +27940,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D423" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28575,6 +28607,13 @@
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
+      </c>
+      <c r="C424" s="2">
+        <v>12</v>
+      </c>
+      <c r="D424" s="3">
+        <f t="shared" si="5"/>
+        <v>13.285714285714286</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684FBDC-88C1-C840-9938-37FBC3659849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A6CC6-BD0F-2F41-A84E-1A2EB5EB8120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6110,6 +6110,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>87</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>50.857142857142854</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -6242,8 +6249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11510,7 +11517,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D424" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D425" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11925,6 +11932,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -12058,7 +12072,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17018,7 +17032,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D424" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D425" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17433,6 +17447,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425">
+        <v>44</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>67.714285714285708</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -17565,8 +17586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23108,6 +23129,17 @@
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425" s="2">
+        <v>70</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" ref="D425" si="78">AVERAGE(C419:C425)</f>
+        <v>69.714285714285708</v>
+      </c>
+      <c r="E425">
+        <f t="shared" ref="E425" si="79">C425-C424</f>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -23240,8 +23272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424:D424"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:D425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27940,7 +27972,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D424" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28619,6 +28651,13 @@
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
+      </c>
+      <c r="C425" s="2">
+        <v>10</v>
+      </c>
+      <c r="D425" s="3">
+        <f t="shared" si="5"/>
+        <v>12.428571428571429</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A6CC6-BD0F-2F41-A84E-1A2EB5EB8120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D51B18-1324-B146-B937-76D6BDDECEAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6122,6 +6122,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>45</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>49.714285714285715</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -6249,8 +6256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+    <sheetView topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11517,7 +11524,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D425" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D426" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11944,6 +11951,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -12072,7 +12086,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17032,7 +17046,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D425" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D426" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17459,6 +17473,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>67.571428571428569</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -17587,7 +17608,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="D426" sqref="D426:E426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23145,6 +23166,17 @@
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426" s="2">
+        <v>61</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" ref="D426" si="80">AVERAGE(C420:C426)</f>
+        <v>68.428571428571431</v>
+      </c>
+      <c r="E426">
+        <f t="shared" ref="E426" si="81">C426-C425</f>
+        <v>-9</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -23273,7 +23305,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A425" sqref="A425:D425"/>
+      <selection activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27972,7 +28004,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D425" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28663,6 +28695,13 @@
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
+      </c>
+      <c r="C426" s="2">
+        <v>11</v>
+      </c>
+      <c r="D426" s="3">
+        <f t="shared" si="5"/>
+        <v>11.714285714285714</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D51B18-1324-B146-B937-76D6BDDECEAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4FBB3-F823-3746-9FDE-B4FA4351973D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5500" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+    <sheetView topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6134,6 +6134,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>36</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>52.142857142857146</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -6257,7 +6264,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11524,7 +11531,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D426" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D427" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11963,6 +11970,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -12086,7 +12100,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17046,7 +17060,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D426" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D427" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17485,6 +17499,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>67.571428571428569</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -17608,7 +17629,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426:E426"/>
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23182,6 +23203,17 @@
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427" s="2">
+        <v>69</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" ref="D427" si="82">AVERAGE(C421:C427)</f>
+        <v>68.142857142857139</v>
+      </c>
+      <c r="E427">
+        <f t="shared" ref="E427" si="83">C427-C426</f>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -23304,8 +23336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28004,7 +28036,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D426" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28707,6 +28739,13 @@
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
+      </c>
+      <c r="C427" s="2">
+        <v>10</v>
+      </c>
+      <c r="D427" s="3">
+        <f t="shared" si="5"/>
+        <v>10.714285714285714</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4FBB3-F823-3746-9FDE-B4FA4351973D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444B403-CBCB-5C4F-9248-0EAA167762FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6146,6 +6146,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>7</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>51.571428571428569</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -6264,7 +6271,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11531,7 +11538,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D427" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D428" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -11982,6 +11989,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -12100,7 +12114,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17060,7 +17074,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D427" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D428" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17511,6 +17525,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>49.714285714285715</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -17628,8 +17649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23220,10 +23241,32 @@
       <c r="A428" s="5">
         <v>44326</v>
       </c>
+      <c r="C428" s="2">
+        <v>69</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" ref="D428" si="84">AVERAGE(C422:C428)</f>
+        <v>67.571428571428569</v>
+      </c>
+      <c r="E428">
+        <f t="shared" ref="E428" si="85">C428-C427</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
+      </c>
+      <c r="C429" s="2">
+        <v>69</v>
+      </c>
+      <c r="D429" s="3">
+        <f t="shared" ref="D429" si="86">AVERAGE(C423:C429)</f>
+        <v>67.571428571428569</v>
+      </c>
+      <c r="E429">
+        <f t="shared" ref="E429" si="87">C429-C428</f>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -23337,7 +23380,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D427"/>
+      <selection activeCell="A428" sqref="A428:D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28036,7 +28079,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D427" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D428" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28751,6 +28794,13 @@
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
+      </c>
+      <c r="C428" s="2">
+        <v>8</v>
+      </c>
+      <c r="D428" s="3">
+        <f t="shared" si="5"/>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43431BC-8301-2B4F-A6AF-71EF92644343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5C5B7-92D9-234B-94F2-F72D52B6FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6170,6 +6170,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>58</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>46.571428571428569</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -6278,7 +6285,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11545,7 +11552,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D429" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D430" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12020,6 +12027,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -12128,7 +12142,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17088,7 +17102,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D429" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D430" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17563,6 +17577,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430">
+        <v>367</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>117.14285714285714</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -17671,7 +17692,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:D429"/>
+      <selection activeCell="A430" sqref="A430:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23294,8 +23315,17 @@
       <c r="A430" s="5">
         <v>44328</v>
       </c>
-      <c r="C430" s="2"/>
-      <c r="D430" s="3"/>
+      <c r="C430" s="2">
+        <v>59</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" ref="D430" si="86">AVERAGE(C424:C430)</f>
+        <v>65.571428571428569</v>
+      </c>
+      <c r="E430">
+        <f t="shared" ref="E430" si="87">C430-C429</f>
+        <v>-5</v>
+      </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
@@ -23403,7 +23433,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A429" sqref="A429:D429"/>
+      <selection activeCell="G423" sqref="G423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28102,7 +28132,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D429" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28841,6 +28871,13 @@
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
+      </c>
+      <c r="C430" s="2">
+        <v>6</v>
+      </c>
+      <c r="D430" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5C5B7-92D9-234B-94F2-F72D52B6FCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C80B2-AB97-0740-8E19-3B9EAD8B996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6182,6 +6182,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>46</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>44.285714285714285</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -6285,7 +6292,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11552,7 +11559,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D430" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D431" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12039,6 +12046,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -12141,8 +12155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17102,7 +17116,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D430" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D431" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17589,6 +17603,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431">
+        <v>397</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>159.57142857142858</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -17691,8 +17712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A430" sqref="A430:D430"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23330,6 +23351,17 @@
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431" s="2">
+        <v>60</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" ref="D431" si="88">AVERAGE(C425:C431)</f>
+        <v>64.571428571428569</v>
+      </c>
+      <c r="E431">
+        <f t="shared" ref="E431" si="89">C431-C430</f>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -23433,7 +23465,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="G423" sqref="G423"/>
+      <selection activeCell="A431" sqref="A431:D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28132,7 +28164,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D430" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28883,6 +28915,13 @@
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
+      </c>
+      <c r="C431" s="2">
+        <v>6</v>
+      </c>
+      <c r="D431" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7C80B2-AB97-0740-8E19-3B9EAD8B996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE3CD2B-2EC1-B14B-BEDB-80BBFFFDFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6194,6 +6194,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>27</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -6292,7 +6299,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11559,7 +11566,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D431" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D432" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12058,6 +12065,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -12156,7 +12170,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+      <selection activeCell="G427" sqref="G427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17116,7 +17130,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D431" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D432" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17615,6 +17629,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432">
+        <v>72</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>163.57142857142858</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -17712,8 +17733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C433" sqref="C433"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23367,6 +23388,17 @@
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432" s="2">
+        <v>55</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" ref="D432" si="90">AVERAGE(C426:C432)</f>
+        <v>62.428571428571431</v>
+      </c>
+      <c r="E432">
+        <f t="shared" ref="E432" si="91">C432-C431</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
@@ -23464,8 +23496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:D431"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432:D432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28164,7 +28196,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D431" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28927,6 +28959,13 @@
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
+      </c>
+      <c r="C432" s="2">
+        <v>8</v>
+      </c>
+      <c r="D432" s="3">
+        <f t="shared" si="5"/>
+        <v>7.8571428571428568</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE3CD2B-2EC1-B14B-BEDB-80BBFFFDFBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224027C-996D-FF4D-9166-35CCE617B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6203,82 +6203,89 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>42</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>35.285714285714285</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -6299,7 +6306,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11566,7 +11573,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D432" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D433" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12074,82 +12081,89 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -12169,8 +12183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="G427" sqref="G427"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17130,7 +17144,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D432" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D433" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17638,82 +17652,89 @@
         <v>163.57142857142858</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>26</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>167.28571428571428</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -17734,7 +17755,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23401,82 +23422,93 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433" s="2">
+        <v>56</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" ref="D433" si="92">AVERAGE(C427:C433)</f>
+        <v>61.714285714285715</v>
+      </c>
+      <c r="E433">
+        <f t="shared" ref="E433" si="93">C433-C432</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -23496,8 +23528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432:D432"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28196,7 +28228,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D432" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -28968,82 +29000,89 @@
         <v>7.8571428571428568</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C433" s="2">
+        <v>8</v>
+      </c>
+      <c r="D433" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4285714285714288</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1224027C-996D-FF4D-9166-35CCE617B48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0E0F0-5740-CF40-A223-F2923DFEABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2580" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6218,6 +6218,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>23</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>33.428571428571431</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -6305,8 +6312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11573,7 +11580,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D433" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D434" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12096,6 +12103,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -12183,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17144,7 +17158,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D433" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D434" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17667,6 +17681,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>167.71428571428572</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -17755,7 +17776,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23441,6 +23462,17 @@
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434" s="2">
+        <v>52</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" ref="D434" si="94">AVERAGE(C428:C434)</f>
+        <v>59.285714285714285</v>
+      </c>
+      <c r="E434">
+        <f t="shared" ref="E434" si="95">C434-C433</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -23529,7 +23561,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A433" sqref="A433:D433"/>
+      <selection activeCell="A434" sqref="A434:D434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28228,7 +28260,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D433" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29015,6 +29047,13 @@
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
+      </c>
+      <c r="C434" s="2">
+        <v>7</v>
+      </c>
+      <c r="D434" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0E0F0-5740-CF40-A223-F2923DFEABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD264C-3788-B24C-9A45-8A1523920191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="1" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5140" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6230,6 +6230,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>8</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>33.571428571428569</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -6312,8 +6319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11580,7 +11587,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D434" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D435" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12115,6 +12122,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -12198,7 +12212,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17158,7 +17172,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D434" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D435" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17693,6 +17707,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435">
+        <v>158</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>190.28571428571428</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -17775,8 +17796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23478,6 +23499,17 @@
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435" s="2">
+        <v>49</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" ref="D435" si="96">AVERAGE(C429:C435)</f>
+        <v>56.428571428571431</v>
+      </c>
+      <c r="E435">
+        <f t="shared" ref="E435" si="97">C435-C434</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -23560,8 +23592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:D434"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435:D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28260,7 +28292,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D434" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29059,6 +29091,13 @@
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
+      </c>
+      <c r="C435" s="2">
+        <v>7</v>
+      </c>
+      <c r="D435" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD264C-3788-B24C-9A45-8A1523920191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA6798-021D-9648-BDA3-596EBF935532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6242,6 +6242,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>22</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>32.285714285714285</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -6320,7 +6327,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11587,7 +11594,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D435" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D436" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12134,6 +12141,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -12212,7 +12226,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17172,7 +17186,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D435" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D436" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17719,6 +17733,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436">
+        <v>89</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>158.85714285714286</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -17796,8 +17817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23515,6 +23536,17 @@
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436" s="2">
+        <v>44</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" ref="D436" si="98">AVERAGE(C430:C436)</f>
+        <v>53.571428571428569</v>
+      </c>
+      <c r="E436">
+        <f t="shared" ref="E436" si="99">C436-C435</f>
+        <v>-5</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -23592,8 +23624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435:D435"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436:D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28292,7 +28324,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D435" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29103,6 +29135,13 @@
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
+      </c>
+      <c r="C436" s="2">
+        <v>8</v>
+      </c>
+      <c r="D436" s="3">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571432</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBA6798-021D-9648-BDA3-596EBF935532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80411D-0516-5641-8828-E6630692481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6254,6 +6254,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>70</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>34</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -6326,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11594,7 +11601,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D436" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D437" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12153,6 +12160,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -12226,7 +12240,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17186,7 +17200,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D436" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D437" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17745,6 +17759,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437">
+        <v>134</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>125.57142857142857</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -17817,8 +17838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23552,6 +23573,17 @@
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437" s="2">
+        <v>42</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" ref="D437" si="100">AVERAGE(C431:C437)</f>
+        <v>51.142857142857146</v>
+      </c>
+      <c r="E437">
+        <f t="shared" ref="E437" si="101">C437-C436</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -23624,8 +23656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436:D436"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437:D437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28324,7 +28356,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D436" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29147,6 +29179,13 @@
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
+      </c>
+      <c r="C437" s="2">
+        <v>8</v>
+      </c>
+      <c r="D437" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E80411D-0516-5641-8828-E6630692481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB187D-DA1F-9B40-BAF4-C699CC20DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6266,6 +6266,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>37</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>32.714285714285715</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -6334,7 +6341,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11601,7 +11608,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D437" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D438" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12172,6 +12179,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -12240,7 +12254,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17200,7 +17214,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D437" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D438" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17771,6 +17785,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438">
+        <v>107</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>84.142857142857139</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -17838,8 +17859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23589,6 +23610,17 @@
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438" s="2">
+        <v>38</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" ref="D438" si="102">AVERAGE(C432:C438)</f>
+        <v>48</v>
+      </c>
+      <c r="E438">
+        <f t="shared" ref="E438" si="103">C438-C437</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -23656,8 +23688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437:D437"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28356,7 +28388,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D437" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29191,6 +29223,13 @@
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
+      </c>
+      <c r="C438" s="2">
+        <v>7</v>
+      </c>
+      <c r="D438" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5714285714285712</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB187D-DA1F-9B40-BAF4-C699CC20DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E16DCC-3D85-0648-80C1-CAC2AC0F4CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6278,6 +6278,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>63</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>37.857142857142854</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -6341,7 +6348,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11608,7 +11615,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D438" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D439" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12191,6 +12198,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -12254,7 +12268,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17214,7 +17228,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D438" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D439" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17797,6 +17811,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439">
+        <v>55</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>81.714285714285708</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -17860,7 +17881,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23626,6 +23647,17 @@
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439" s="2">
+        <v>36</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" ref="D439" si="104">AVERAGE(C433:C439)</f>
+        <v>45.285714285714285</v>
+      </c>
+      <c r="E439">
+        <f t="shared" ref="E439" si="105">C439-C438</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -23689,7 +23721,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:D438"/>
+      <selection activeCell="A439" sqref="A439:D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28388,7 +28420,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D438" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29235,6 +29267,13 @@
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
+      </c>
+      <c r="C439" s="2">
+        <v>7</v>
+      </c>
+      <c r="D439" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E16DCC-3D85-0648-80C1-CAC2AC0F4CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A4E8C-AE9A-6A40-9F4B-082AAFAFF2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3120" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6290,6 +6290,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>33</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -6348,7 +6355,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11615,7 +11622,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D439" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D440" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12210,6 +12217,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -12268,7 +12282,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17228,7 +17242,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D439" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D440" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17823,6 +17837,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440">
+        <v>11</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>79.571428571428569</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -17880,8 +17901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440:E440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23663,6 +23684,17 @@
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440" s="2">
+        <v>34</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" ref="D440" si="106">AVERAGE(C434:C440)</f>
+        <v>42.142857142857146</v>
+      </c>
+      <c r="E440">
+        <f t="shared" ref="E440" si="107">C440-C439</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -23720,8 +23752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439:D439"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28420,7 +28452,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D439" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29279,6 +29311,13 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
+      </c>
+      <c r="C440" s="2">
+        <v>6</v>
+      </c>
+      <c r="D440" s="3">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571432</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A4E8C-AE9A-6A40-9F4B-082AAFAFF2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A270D05-4200-7C49-B60A-FF5796EF16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2240" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6302,6 +6302,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>31</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>37.714285714285715</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -6355,7 +6362,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11622,7 +11629,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D440" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D441" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12229,6 +12236,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -12281,8 +12295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17242,7 +17256,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D440" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D441" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17849,6 +17863,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>79.142857142857139</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -17901,8 +17922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440:E440"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23700,6 +23721,17 @@
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441" s="2">
+        <v>35</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" ref="D441" si="108">AVERAGE(C435:C441)</f>
+        <v>39.714285714285715</v>
+      </c>
+      <c r="E441">
+        <f t="shared" ref="E441" si="109">C441-C440</f>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -23753,7 +23785,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+      <selection activeCell="A441" sqref="A441:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28452,7 +28484,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D440" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29323,6 +29355,13 @@
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
+      </c>
+      <c r="C441" s="2">
+        <v>8</v>
+      </c>
+      <c r="D441" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A270D05-4200-7C49-B60A-FF5796EF16F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C288310-AFC7-E34E-AB6E-2EB5114D7127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6314,6 +6314,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>36.714285714285715</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,8 +6368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11629,7 +11636,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D441" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D442" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12248,6 +12255,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -12295,8 +12309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17256,7 +17270,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D441" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D442" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17875,6 +17889,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442">
+        <v>96</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>70.285714285714292</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -17922,8 +17943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23737,6 +23758,17 @@
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442" s="2">
+        <v>34</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" ref="D442" si="110">AVERAGE(C436:C442)</f>
+        <v>37.571428571428569</v>
+      </c>
+      <c r="E442">
+        <f t="shared" ref="E442" si="111">C442-C441</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -23784,8 +23816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A441" sqref="A441:D441"/>
+    <sheetView topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442:D442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28484,7 +28516,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D441" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29367,6 +29399,13 @@
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
+      </c>
+      <c r="C442" s="2">
+        <v>9</v>
+      </c>
+      <c r="D442" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5714285714285712</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C288310-AFC7-E34E-AB6E-2EB5114D7127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1072BC-9970-F741-A408-EF0F2C0935D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6326,6 +6326,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>24</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -6369,7 +6376,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11636,7 +11643,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D442" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D443" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12267,6 +12274,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -12309,8 +12323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17270,7 +17284,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D442" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D443" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17901,6 +17915,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443">
+        <v>54</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>65.285714285714292</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -17943,8 +17964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23774,6 +23795,17 @@
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443" s="2">
+        <v>37</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" ref="D443" si="112">AVERAGE(C437:C443)</f>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="E443">
+        <f t="shared" ref="E443" si="113">C443-C442</f>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -23817,7 +23849,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442:D442"/>
+      <selection activeCell="A443" sqref="A443:D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28516,7 +28548,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D442" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29411,6 +29443,13 @@
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
+      </c>
+      <c r="C443" s="2">
+        <v>6</v>
+      </c>
+      <c r="D443" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1072BC-9970-F741-A408-EF0F2C0935D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF3344-E0DB-814B-B124-83105DECAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6338,6 +6338,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>45</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>33.428571428571431</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -6376,7 +6383,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11643,7 +11650,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D443" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D444" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12286,6 +12293,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -12323,8 +12337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17284,7 +17298,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D443" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D444" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17927,6 +17941,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444">
+        <v>146</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -17965,7 +17986,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23811,6 +23832,17 @@
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444" s="2">
+        <v>33</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" ref="D444" si="114">AVERAGE(C438:C444)</f>
+        <v>35.285714285714285</v>
+      </c>
+      <c r="E444">
+        <f t="shared" ref="E444" si="115">C444-C443</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -23848,8 +23880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A443" sqref="A443:D443"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444:D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28548,7 +28580,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D443" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29455,6 +29487,13 @@
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
+      </c>
+      <c r="C444" s="2">
+        <v>6</v>
+      </c>
+      <c r="D444" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF3344-E0DB-814B-B124-83105DECAFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A7308-71CD-5545-8452-31C96F4E4542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6350,6 +6350,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>27</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -12338,7 +12345,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17298,7 +17305,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D444" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D445" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17953,6 +17960,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445">
+        <v>127</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>69.857142857142861</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -17986,7 +18000,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="D445" sqref="D445:E445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23848,6 +23862,17 @@
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445" s="2">
+        <v>37</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" ref="D445" si="116">AVERAGE(C439:C445)</f>
+        <v>35.142857142857146</v>
+      </c>
+      <c r="E445">
+        <f t="shared" ref="E445" si="117">C445-C444</f>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -23880,8 +23905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="D445" sqref="D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28580,7 +28605,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D444" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29499,6 +29524,13 @@
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
+      </c>
+      <c r="C445" s="2">
+        <v>6</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A7308-71CD-5545-8452-31C96F4E4542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB7D8C-382E-4346-A0FF-C53402B098D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6362,6 +6362,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>46</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>29.571428571428573</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -6390,7 +6397,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444:D444"/>
+      <selection activeCell="V438" sqref="V438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11657,7 +11664,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D444" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D446" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12313,10 +12320,24 @@
       <c r="A445" s="5">
         <v>44343</v>
       </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -12344,8 +12365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17305,7 +17326,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D445" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D446" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -17972,6 +17993,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446">
+        <v>72</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>72.285714285714292</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -18000,7 +18028,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445:E445"/>
+      <selection activeCell="A445" sqref="A445:D445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23905,8 +23933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A445" sqref="A445:D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28605,7 +28633,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D445" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29536,6 +29564,13 @@
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
+      </c>
+      <c r="C446" s="2">
+        <v>6</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7142857142857144</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB7D8C-382E-4346-A0FF-C53402B098D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CB4FA-1854-C443-BD5E-2C60E8CE8D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6375,10 +6375,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>27</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>28.714285714285715</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>27</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>28.142857142857142</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -6397,7 +6411,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="V438" sqref="V438"/>
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11664,7 +11678,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D446" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D448" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12344,10 +12358,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -12365,8 +12393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446:D446"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17326,7 +17354,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D446" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D448" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18006,10 +18034,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>70.714285714285708</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>70.714285714285708</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -18028,7 +18070,7 @@
   <dimension ref="A1:E449"/>
   <sheetViews>
     <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445:D445"/>
+      <selection activeCell="A447" sqref="A447:E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23907,15 +23949,48 @@
       <c r="A446" s="5">
         <v>44344</v>
       </c>
+      <c r="C446" s="2">
+        <v>34</v>
+      </c>
+      <c r="D446" s="3">
+        <f t="shared" ref="D446" si="118">AVERAGE(C440:C446)</f>
+        <v>34.857142857142854</v>
+      </c>
+      <c r="E446">
+        <f t="shared" ref="E446" si="119">C446-C445</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447" s="2">
+        <v>37</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" ref="D447" si="120">AVERAGE(C441:C447)</f>
+        <v>35.285714285714285</v>
+      </c>
+      <c r="E447">
+        <f t="shared" ref="E447" si="121">C447-C446</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448" s="2">
+        <v>38</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" ref="D448" si="122">AVERAGE(C442:C448)</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="E448">
+        <f t="shared" ref="E448" si="123">C448-C447</f>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
@@ -23933,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445:D446"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447:D448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28633,7 +28708,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D446" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29577,10 +29652,24 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
+      <c r="C447" s="2">
+        <v>5</v>
+      </c>
+      <c r="D447" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
+      </c>
+      <c r="C448" s="2">
+        <v>5</v>
+      </c>
+      <c r="D448" s="3">
+        <f t="shared" si="5"/>
+        <v>6.1428571428571432</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9CB4FA-1854-C443-BD5E-2C60E8CE8D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4F1606-BA66-0843-95B4-C566B28AB37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J449"/>
   <sheetViews>
     <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6395,9 +6395,16 @@
         <v>28.142857142857142</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6411,7 +6418,7 @@
   <dimension ref="A1:G449"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11678,7 +11685,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D448" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D449" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12378,9 +12385,16 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
   </sheetData>
@@ -12394,7 +12408,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17354,7 +17368,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D448" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D449" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18054,9 +18068,16 @@
         <v>70.714285714285708</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449">
+        <v>78</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>68.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -18069,8 +18090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E449"/>
   <sheetViews>
-    <sheetView topLeftCell="A419" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:E448"/>
+    <sheetView topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23993,9 +24014,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449" s="2">
+        <v>38</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" ref="D449" si="124">AVERAGE(C443:C449)</f>
+        <v>36.285714285714285</v>
+      </c>
+      <c r="E449">
+        <f t="shared" ref="E449" si="125">C449-C448</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24009,7 +24041,7 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:D448"/>
+      <selection activeCell="A449" sqref="A449:D449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28708,7 +28740,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D448" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29672,9 +29704,16 @@
         <v>6.1428571428571432</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
+      </c>
+      <c r="C449" s="2">
+        <v>4</v>
+      </c>
+      <c r="D449" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4285714285714288</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4F1606-BA66-0843-95B4-C566B28AB37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74557432-7B8A-2546-8D51-0A129006338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6405,6 +6405,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>28</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>21</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>27.571428571428573</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -6415,10 +6572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11685,7 +11842,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D449" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D450" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12395,6 +12552,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -12405,10 +12719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17368,7 +17682,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D449" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D450" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18078,6 +18392,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>68.142857142857139</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450">
+        <v>76</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>71.285714285714292</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>
@@ -18088,10 +18559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E449"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:D450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24030,6 +24501,167 @@
         <v>0</v>
       </c>
     </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450" s="2">
+        <v>38</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" ref="D450" si="126">AVERAGE(C444:C450)</f>
+        <v>36.428571428571431</v>
+      </c>
+      <c r="E450">
+        <f t="shared" ref="E450" si="127">C450-C449</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -24038,10 +24670,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449:D449"/>
+    <sheetView topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450:A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28740,7 +29372,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D449" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -29714,6 +30346,163 @@
       <c r="D449" s="3">
         <f t="shared" si="5"/>
         <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44348</v>
+      </c>
+      <c r="C450" s="2">
+        <v>4</v>
+      </c>
+      <c r="D450" s="3">
+        <f t="shared" si="5"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44350</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44352</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44366</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44374</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44377</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74557432-7B8A-2546-8D51-0A129006338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41EDB42-3C3B-6A49-9C0E-8E6AB69D6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6422,6 +6422,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>24</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>24.571428571428573</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6574,8 +6581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+    <sheetView topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11842,7 +11849,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D450" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D451" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12569,6 +12576,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -12722,7 +12736,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17682,7 +17696,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D450" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="C390:D451" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18409,6 +18423,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451">
+        <v>32</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -18562,7 +18583,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:D450"/>
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24520,6 +24541,17 @@
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451" s="2">
+        <v>35</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" ref="D451" si="128">AVERAGE(C445:C451)</f>
+        <v>36.714285714285715</v>
+      </c>
+      <c r="E451">
+        <f t="shared" ref="E451" si="129">C451-C450</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -24672,8 +24704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450:A479"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451:D451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29372,7 +29404,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D450" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30363,6 +30395,13 @@
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
+      </c>
+      <c r="C451" s="2">
+        <v>3</v>
+      </c>
+      <c r="D451" s="3">
+        <f t="shared" si="5"/>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41EDB42-3C3B-6A49-9C0E-8E6AB69D6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9608374E-9F85-F949-935E-FE2237E5566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="A452" sqref="A452:D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6434,6 +6434,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>5</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -6582,7 +6589,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="A452" sqref="A452:D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11849,7 +11856,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D451" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D452" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12588,6 +12595,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -12736,7 +12750,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="A452" sqref="A452:D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17696,7 +17710,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="C390:D451" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D452" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18435,6 +18449,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452">
+        <v>30</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>41.142857142857146</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -18583,7 +18604,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="A452" sqref="A452:D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24557,6 +24578,17 @@
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452" s="2">
+        <v>35</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" ref="D452" si="130">AVERAGE(C446:C452)</f>
+        <v>36.428571428571431</v>
+      </c>
+      <c r="E452">
+        <f t="shared" ref="E452" si="131">C452-C451</f>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -24705,7 +24737,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451:D451"/>
+      <selection activeCell="A452" sqref="A452:D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29404,7 +29436,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D451" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30407,6 +30439,13 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
+      </c>
+      <c r="C452" s="2">
+        <v>3</v>
+      </c>
+      <c r="D452" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9608374E-9F85-F949-935E-FE2237E5566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9058E-6AEB-BD47-893F-4796967C662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6446,6 +6446,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>33</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>19.571428571428573</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6589,7 +6596,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11856,7 +11863,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D452" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D453" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12607,6 +12614,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -12750,7 +12764,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:D452"/>
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17710,7 +17724,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D452" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D453" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18461,6 +18475,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453">
+        <v>23</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>34.142857142857146</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -18603,8 +18624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:D452"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24594,6 +24615,17 @@
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453" s="2">
+        <v>36</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" ref="D453" si="132">AVERAGE(C447:C453)</f>
+        <v>36.714285714285715</v>
+      </c>
+      <c r="E453">
+        <f t="shared" ref="E453" si="133">C453-C452</f>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -24736,8 +24768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A452" sqref="A452:D452"/>
+    <sheetView topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="A453" sqref="A453:D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29436,7 +29468,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D452" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30451,6 +30483,13 @@
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
+      </c>
+      <c r="C453" s="2">
+        <v>3</v>
+      </c>
+      <c r="D453" s="3">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9058E-6AEB-BD47-893F-4796967C662E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B853D-33B5-CA47-8064-5D1C66BBEB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6458,6 +6458,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>16</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6596,7 +6603,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11863,7 +11870,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D453" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D454" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12626,6 +12633,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -12763,8 +12777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17724,7 +17738,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D453" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D454" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18487,6 +18501,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454">
+        <v>13</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>36</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -18624,8 +18645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24631,6 +24652,17 @@
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454" s="2">
+        <v>35</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" ref="D454" si="134">AVERAGE(C448:C454)</f>
+        <v>36.428571428571431</v>
+      </c>
+      <c r="E454">
+        <f t="shared" ref="E454" si="135">C454-C453</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -24768,8 +24800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453:D453"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29468,7 +29500,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D453" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30495,6 +30527,13 @@
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
+      </c>
+      <c r="C454" s="2">
+        <v>3</v>
+      </c>
+      <c r="D454" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5714285714285716</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B853D-33B5-CA47-8064-5D1C66BBEB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFE211-42FD-2D4D-B381-9B842FFDC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6471,10 +6471,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>16</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>16.428571428571427</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6602,8 +6616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11870,7 +11884,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D454" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D456" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12646,10 +12660,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -12778,7 +12806,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="F445" sqref="F445"/>
+      <selection activeCell="A455" sqref="A455:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17738,7 +17766,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D454" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D456" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18514,10 +18542,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>36.142857142857146</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456">
+        <v>71</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>35.142857142857146</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -18645,7 +18687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+    <sheetView topLeftCell="A431" workbookViewId="0">
       <selection activeCell="A454" sqref="A454:D454"/>
     </sheetView>
   </sheetViews>
@@ -24669,10 +24711,32 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455" s="2">
+        <v>35</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" ref="D455" si="136">AVERAGE(C449:C455)</f>
+        <v>36</v>
+      </c>
+      <c r="E455">
+        <f t="shared" ref="E455" si="137">C455-C454</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456" s="2">
+        <v>34</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" ref="D456" si="138">AVERAGE(C450:C456)</f>
+        <v>35.428571428571431</v>
+      </c>
+      <c r="E456">
+        <f t="shared" ref="E456" si="139">C456-C455</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -24801,7 +24865,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="A454" sqref="A454:D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29500,7 +29564,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D454" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30540,10 +30604,24 @@
       <c r="A455" s="5">
         <v>44353</v>
       </c>
+      <c r="C455" s="2">
+        <v>3</v>
+      </c>
+      <c r="D455" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
+      </c>
+      <c r="C456" s="2">
+        <v>4</v>
+      </c>
+      <c r="D456" s="3">
+        <f t="shared" si="5"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAFE211-42FD-2D4D-B381-9B842FFDC9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE40F5C-D86F-A148-9FA2-5166A48E0A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1620" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+    <sheetView topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6494,6 +6494,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>14.142857142857142</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6617,7 +6624,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11884,7 +11891,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D456" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D457" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12683,6 +12690,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -12805,8 +12819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455:D456"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17766,7 +17780,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D456" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D457" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18565,6 +18579,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457">
+        <v>55</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>32.142857142857146</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -18688,7 +18709,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D454"/>
+      <selection activeCell="A457" sqref="A457:D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24742,6 +24763,17 @@
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457" s="2">
+        <v>34</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" ref="D457" si="140">AVERAGE(C451:C457)</f>
+        <v>34.857142857142854</v>
+      </c>
+      <c r="E457">
+        <f t="shared" ref="E457" si="141">C457-C456</f>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -24865,7 +24897,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A454" sqref="A454:D456"/>
+      <selection activeCell="D467" sqref="D467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29564,7 +29596,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D456" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30627,6 +30659,13 @@
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
+      </c>
+      <c r="C457" s="2">
+        <v>3</v>
+      </c>
+      <c r="D457" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE40F5C-D86F-A148-9FA2-5166A48E0A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A08D37-4E01-6249-843F-04B03A5BA99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="5340" yWindow="560" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6506,6 +6506,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>19</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>13.428571428571429</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6624,7 +6631,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11891,7 +11898,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D457" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D458" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12702,6 +12709,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -12820,7 +12834,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17780,7 +17794,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D457" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D458" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18591,6 +18605,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458">
+        <v>122</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -18709,7 +18730,7 @@
   <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A457" sqref="A457:D457"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24779,6 +24800,17 @@
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458" s="2">
+        <v>31</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" ref="D458" si="142">AVERAGE(C452:C458)</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="E458">
+        <f t="shared" ref="E458" si="143">C458-C457</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -24897,7 +24929,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D467" sqref="D467"/>
+      <selection activeCell="A458" sqref="A458:D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29596,7 +29628,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D457" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30671,6 +30703,13 @@
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
+      </c>
+      <c r="C458" s="2">
+        <v>3</v>
+      </c>
+      <c r="D458" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A08D37-4E01-6249-843F-04B03A5BA99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9991F-03CA-0844-A237-A7CB983DEE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="560" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="D459" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6518,6 +6518,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>7</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>13.714285714285714</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -6631,7 +6638,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="D459" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11898,7 +11905,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D458" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D459" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12721,6 +12728,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -12833,8 +12847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="D459" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17794,7 +17808,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D458" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D459" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18617,6 +18631,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459">
+        <v>86</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -18727,10 +18748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="H449" sqref="H449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23433,7 +23454,7 @@
         <v>27.571428571428573</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>44267</v>
       </c>
@@ -23445,7 +23466,7 @@
         <v>27.857142857142858</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>44268</v>
       </c>
@@ -23457,7 +23478,7 @@
         <v>28.285714285714285</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>44269</v>
       </c>
@@ -23469,7 +23490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>44270</v>
       </c>
@@ -23481,7 +23502,7 @@
         <v>30.142857142857142</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>44271</v>
       </c>
@@ -23493,7 +23514,7 @@
         <v>32.428571428571431</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>44272</v>
       </c>
@@ -23505,7 +23526,7 @@
         <v>34.571428571428569</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>44273</v>
       </c>
@@ -23517,7 +23538,7 @@
         <v>37.571428571428569</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>44274</v>
       </c>
@@ -23529,7 +23550,7 @@
         <v>40.285714285714285</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>44275</v>
       </c>
@@ -23541,7 +23562,7 @@
         <v>43.714285714285715</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>44276</v>
       </c>
@@ -23553,7 +23574,7 @@
         <v>47.714285714285715</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>44277</v>
       </c>
@@ -23565,7 +23586,7 @@
         <v>52.142857142857146</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>44278</v>
       </c>
@@ -23577,7 +23598,7 @@
         <v>55.571428571428569</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>44279</v>
       </c>
@@ -23589,7 +23610,7 @@
         <v>58.714285714285715</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>44280</v>
       </c>
@@ -23601,7 +23622,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>44281</v>
       </c>
@@ -23613,7 +23634,7 @@
         <v>63.571428571428569</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>44282</v>
       </c>
@@ -23624,12 +23645,8 @@
         <f t="shared" si="5"/>
         <v>67.142857142857139</v>
       </c>
-      <c r="E384">
-        <f>C384-C383</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>44283</v>
       </c>
@@ -23640,12 +23657,8 @@
         <f t="shared" ref="D385" si="6">AVERAGE(C379:C385)</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="E385">
-        <f>C385-C384</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>44284</v>
       </c>
@@ -23656,12 +23669,8 @@
         <f t="shared" ref="D386" si="7">AVERAGE(C380:C386)</f>
         <v>76.142857142857139</v>
       </c>
-      <c r="E386">
-        <f>C386-C385</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>44285</v>
       </c>
@@ -23672,12 +23681,8 @@
         <f t="shared" ref="D387" si="8">AVERAGE(C381:C387)</f>
         <v>80.285714285714292</v>
       </c>
-      <c r="E387">
-        <f>C387-C386</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>44286</v>
       </c>
@@ -23688,12 +23693,8 @@
         <f t="shared" ref="D388" si="9">AVERAGE(C382:C388)</f>
         <v>84.142857142857139</v>
       </c>
-      <c r="E388">
-        <f>C388-C387</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>44287</v>
       </c>
@@ -23704,12 +23705,8 @@
         <f t="shared" ref="D389:D391" si="10">AVERAGE(C383:C389)</f>
         <v>88.142857142857139</v>
       </c>
-      <c r="E389">
-        <f t="shared" ref="E389:E391" si="11">C389-C388</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>44288</v>
       </c>
@@ -23720,12 +23717,8 @@
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="E390">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>44289</v>
       </c>
@@ -23736,12 +23729,8 @@
         <f t="shared" si="10"/>
         <v>93.857142857142861</v>
       </c>
-      <c r="E391">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>44290</v>
       </c>
@@ -23749,15 +23738,11 @@
         <v>95</v>
       </c>
       <c r="D392" s="3">
-        <f t="shared" ref="D392" si="12">AVERAGE(C386:C392)</f>
+        <f t="shared" ref="D392" si="11">AVERAGE(C386:C392)</f>
         <v>94.285714285714292</v>
       </c>
-      <c r="E392">
-        <f t="shared" ref="E392" si="13">C392-C391</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>44291</v>
       </c>
@@ -23765,15 +23750,11 @@
         <v>95</v>
       </c>
       <c r="D393" s="3">
-        <f t="shared" ref="D393" si="14">AVERAGE(C387:C393)</f>
+        <f t="shared" ref="D393" si="12">AVERAGE(C387:C393)</f>
         <v>93.714285714285708</v>
       </c>
-      <c r="E393">
-        <f t="shared" ref="E393" si="15">C393-C392</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>44292</v>
       </c>
@@ -23781,15 +23762,11 @@
         <v>95</v>
       </c>
       <c r="D394" s="3">
-        <f t="shared" ref="D394" si="16">AVERAGE(C388:C394)</f>
+        <f t="shared" ref="D394" si="13">AVERAGE(C388:C394)</f>
         <v>93.714285714285708</v>
       </c>
-      <c r="E394">
-        <f t="shared" ref="E394" si="17">C394-C393</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>44293</v>
       </c>
@@ -23797,15 +23774,11 @@
         <v>99</v>
       </c>
       <c r="D395" s="3">
-        <f t="shared" ref="D395" si="18">AVERAGE(C389:C395)</f>
+        <f t="shared" ref="D395" si="14">AVERAGE(C389:C395)</f>
         <v>94.857142857142861</v>
       </c>
-      <c r="E395">
-        <f t="shared" ref="E395" si="19">C395-C394</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>44294</v>
       </c>
@@ -23813,15 +23786,11 @@
         <v>93</v>
       </c>
       <c r="D396" s="3">
-        <f t="shared" ref="D396" si="20">AVERAGE(C390:C396)</f>
+        <f t="shared" ref="D396" si="15">AVERAGE(C390:C396)</f>
         <v>95</v>
       </c>
-      <c r="E396">
-        <f t="shared" ref="E396" si="21">C396-C395</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>44295</v>
       </c>
@@ -23829,15 +23798,11 @@
         <v>100</v>
       </c>
       <c r="D397" s="3">
-        <f t="shared" ref="D397" si="22">AVERAGE(C391:C397)</f>
+        <f t="shared" ref="D397" si="16">AVERAGE(C391:C397)</f>
         <v>95.857142857142861</v>
       </c>
-      <c r="E397">
-        <f t="shared" ref="E397" si="23">C397-C396</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>44296</v>
       </c>
@@ -23845,15 +23810,11 @@
         <v>101</v>
       </c>
       <c r="D398" s="3">
-        <f t="shared" ref="D398" si="24">AVERAGE(C392:C398)</f>
+        <f t="shared" ref="D398" si="17">AVERAGE(C392:C398)</f>
         <v>96.857142857142861</v>
       </c>
-      <c r="E398">
-        <f t="shared" ref="E398" si="25">C398-C397</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>44297</v>
       </c>
@@ -23861,15 +23822,11 @@
         <v>101</v>
       </c>
       <c r="D399" s="3">
-        <f t="shared" ref="D399" si="26">AVERAGE(C393:C399)</f>
+        <f t="shared" ref="D399" si="18">AVERAGE(C393:C399)</f>
         <v>97.714285714285708</v>
       </c>
-      <c r="E399">
-        <f t="shared" ref="E399" si="27">C399-C398</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>44298</v>
       </c>
@@ -23877,15 +23834,11 @@
         <v>102</v>
       </c>
       <c r="D400" s="3">
-        <f t="shared" ref="D400" si="28">AVERAGE(C394:C400)</f>
+        <f t="shared" ref="D400" si="19">AVERAGE(C394:C400)</f>
         <v>98.714285714285708</v>
       </c>
-      <c r="E400">
-        <f t="shared" ref="E400" si="29">C400-C399</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>44299</v>
       </c>
@@ -23893,15 +23846,11 @@
         <v>100</v>
       </c>
       <c r="D401" s="3">
-        <f t="shared" ref="D401" si="30">AVERAGE(C395:C401)</f>
+        <f t="shared" ref="D401" si="20">AVERAGE(C395:C401)</f>
         <v>99.428571428571431</v>
       </c>
-      <c r="E401">
-        <f t="shared" ref="E401" si="31">C401-C400</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>44300</v>
       </c>
@@ -23909,15 +23858,11 @@
         <v>102</v>
       </c>
       <c r="D402" s="3">
-        <f t="shared" ref="D402" si="32">AVERAGE(C396:C402)</f>
+        <f t="shared" ref="D402" si="21">AVERAGE(C396:C402)</f>
         <v>99.857142857142861</v>
       </c>
-      <c r="E402">
-        <f t="shared" ref="E402" si="33">C402-C401</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>44301</v>
       </c>
@@ -23925,15 +23870,11 @@
         <v>92</v>
       </c>
       <c r="D403" s="3">
-        <f t="shared" ref="D403" si="34">AVERAGE(C397:C403)</f>
+        <f t="shared" ref="D403" si="22">AVERAGE(C397:C403)</f>
         <v>99.714285714285708</v>
       </c>
-      <c r="E403">
-        <f t="shared" ref="E403" si="35">C403-C402</f>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>44302</v>
       </c>
@@ -23941,15 +23882,11 @@
         <v>92</v>
       </c>
       <c r="D404" s="3">
-        <f t="shared" ref="D404" si="36">AVERAGE(C398:C404)</f>
+        <f t="shared" ref="D404" si="23">AVERAGE(C398:C404)</f>
         <v>98.571428571428569</v>
       </c>
-      <c r="E404">
-        <f t="shared" ref="E404" si="37">C404-C403</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>44303</v>
       </c>
@@ -23957,15 +23894,11 @@
         <v>88</v>
       </c>
       <c r="D405" s="3">
-        <f t="shared" ref="D405" si="38">AVERAGE(C399:C405)</f>
+        <f t="shared" ref="D405" si="24">AVERAGE(C399:C405)</f>
         <v>96.714285714285708</v>
       </c>
-      <c r="E405">
-        <f t="shared" ref="E405" si="39">C405-C404</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>44304</v>
       </c>
@@ -23973,15 +23906,11 @@
         <v>85</v>
       </c>
       <c r="D406" s="3">
-        <f t="shared" ref="D406" si="40">AVERAGE(C400:C406)</f>
+        <f t="shared" ref="D406" si="25">AVERAGE(C400:C406)</f>
         <v>94.428571428571431</v>
       </c>
-      <c r="E406">
-        <f t="shared" ref="E406" si="41">C406-C405</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>44305</v>
       </c>
@@ -23989,15 +23918,11 @@
         <v>85</v>
       </c>
       <c r="D407" s="3">
-        <f t="shared" ref="D407" si="42">AVERAGE(C401:C407)</f>
+        <f t="shared" ref="D407" si="26">AVERAGE(C401:C407)</f>
         <v>92</v>
       </c>
-      <c r="E407">
-        <f t="shared" ref="E407" si="43">C407-C406</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>44306</v>
       </c>
@@ -24005,15 +23930,11 @@
         <v>86</v>
       </c>
       <c r="D408" s="3">
-        <f t="shared" ref="D408" si="44">AVERAGE(C402:C408)</f>
+        <f t="shared" ref="D408" si="27">AVERAGE(C402:C408)</f>
         <v>90</v>
       </c>
-      <c r="E408">
-        <f t="shared" ref="E408" si="45">C408-C407</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>44307</v>
       </c>
@@ -24021,15 +23942,11 @@
         <v>83</v>
       </c>
       <c r="D409" s="3">
-        <f t="shared" ref="D409" si="46">AVERAGE(C403:C409)</f>
+        <f t="shared" ref="D409" si="28">AVERAGE(C403:C409)</f>
         <v>87.285714285714292</v>
       </c>
-      <c r="E409">
-        <f t="shared" ref="E409" si="47">C409-C408</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>44308</v>
       </c>
@@ -24037,15 +23954,11 @@
         <v>84</v>
       </c>
       <c r="D410" s="3">
-        <f t="shared" ref="D410" si="48">AVERAGE(C404:C410)</f>
+        <f t="shared" ref="D410" si="29">AVERAGE(C404:C410)</f>
         <v>86.142857142857139</v>
       </c>
-      <c r="E410">
-        <f t="shared" ref="E410" si="49">C410-C409</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>44309</v>
       </c>
@@ -24053,15 +23966,11 @@
         <v>84</v>
       </c>
       <c r="D411" s="3">
-        <f t="shared" ref="D411" si="50">AVERAGE(C405:C411)</f>
+        <f t="shared" ref="D411" si="30">AVERAGE(C405:C411)</f>
         <v>85</v>
       </c>
-      <c r="E411">
-        <f t="shared" ref="E411" si="51">C411-C410</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>44310</v>
       </c>
@@ -24069,15 +23978,11 @@
         <v>89</v>
       </c>
       <c r="D412" s="3">
-        <f t="shared" ref="D412" si="52">AVERAGE(C406:C412)</f>
+        <f t="shared" ref="D412" si="31">AVERAGE(C406:C412)</f>
         <v>85.142857142857139</v>
       </c>
-      <c r="E412">
-        <f t="shared" ref="E412" si="53">C412-C411</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>44311</v>
       </c>
@@ -24085,15 +23990,11 @@
         <v>92</v>
       </c>
       <c r="D413" s="3">
-        <f t="shared" ref="D413" si="54">AVERAGE(C407:C413)</f>
+        <f t="shared" ref="D413" si="32">AVERAGE(C407:C413)</f>
         <v>86.142857142857139</v>
       </c>
-      <c r="E413">
-        <f t="shared" ref="E413" si="55">C413-C412</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
@@ -24101,15 +24002,11 @@
         <v>93</v>
       </c>
       <c r="D414" s="3">
-        <f t="shared" ref="D414" si="56">AVERAGE(C408:C414)</f>
+        <f t="shared" ref="D414" si="33">AVERAGE(C408:C414)</f>
         <v>87.285714285714292</v>
       </c>
-      <c r="E414">
-        <f t="shared" ref="E414" si="57">C414-C413</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
@@ -24117,15 +24014,11 @@
         <v>92</v>
       </c>
       <c r="D415" s="3">
-        <f t="shared" ref="D415" si="58">AVERAGE(C409:C415)</f>
+        <f t="shared" ref="D415" si="34">AVERAGE(C409:C415)</f>
         <v>88.142857142857139</v>
       </c>
-      <c r="E415">
-        <f t="shared" ref="E415" si="59">C415-C414</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
@@ -24133,15 +24026,11 @@
         <v>86</v>
       </c>
       <c r="D416" s="3">
-        <f t="shared" ref="D416" si="60">AVERAGE(C410:C416)</f>
+        <f t="shared" ref="D416" si="35">AVERAGE(C410:C416)</f>
         <v>88.571428571428569</v>
       </c>
-      <c r="E416">
-        <f t="shared" ref="E416" si="61">C416-C415</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
@@ -24149,15 +24038,11 @@
         <v>80</v>
       </c>
       <c r="D417" s="3">
-        <f t="shared" ref="D417" si="62">AVERAGE(C411:C417)</f>
+        <f t="shared" ref="D417" si="36">AVERAGE(C411:C417)</f>
         <v>88</v>
       </c>
-      <c r="E417">
-        <f t="shared" ref="E417" si="63">C417-C416</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
@@ -24165,15 +24050,11 @@
         <v>79</v>
       </c>
       <c r="D418" s="3">
-        <f t="shared" ref="D418" si="64">AVERAGE(C412:C418)</f>
+        <f t="shared" ref="D418" si="37">AVERAGE(C412:C418)</f>
         <v>87.285714285714292</v>
       </c>
-      <c r="E418">
-        <f t="shared" ref="E418" si="65">C418-C417</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>44317</v>
       </c>
@@ -24181,15 +24062,11 @@
         <v>70</v>
       </c>
       <c r="D419" s="3">
-        <f t="shared" ref="D419" si="66">AVERAGE(C413:C419)</f>
+        <f t="shared" ref="D419" si="38">AVERAGE(C413:C419)</f>
         <v>84.571428571428569</v>
       </c>
-      <c r="E419">
-        <f t="shared" ref="E419" si="67">C419-C418</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>44318</v>
       </c>
@@ -24197,15 +24074,11 @@
         <v>71</v>
       </c>
       <c r="D420" s="3">
-        <f t="shared" ref="D420" si="68">AVERAGE(C414:C420)</f>
+        <f t="shared" ref="D420" si="39">AVERAGE(C414:C420)</f>
         <v>81.571428571428569</v>
       </c>
-      <c r="E420">
-        <f t="shared" ref="E420" si="69">C420-C419</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>44319</v>
       </c>
@@ -24213,15 +24086,11 @@
         <v>73</v>
       </c>
       <c r="D421" s="3">
-        <f t="shared" ref="D421" si="70">AVERAGE(C415:C421)</f>
+        <f t="shared" ref="D421" si="40">AVERAGE(C415:C421)</f>
         <v>78.714285714285708</v>
       </c>
-      <c r="E421">
-        <f t="shared" ref="E421" si="71">C421-C420</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
       </c>
@@ -24229,15 +24098,11 @@
         <v>69</v>
       </c>
       <c r="D422" s="3">
-        <f t="shared" ref="D422" si="72">AVERAGE(C416:C422)</f>
+        <f t="shared" ref="D422" si="41">AVERAGE(C416:C422)</f>
         <v>75.428571428571431</v>
       </c>
-      <c r="E422">
-        <f t="shared" ref="E422" si="73">C422-C421</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
       </c>
@@ -24245,15 +24110,11 @@
         <v>68</v>
       </c>
       <c r="D423" s="3">
-        <f t="shared" ref="D423" si="74">AVERAGE(C417:C423)</f>
+        <f t="shared" ref="D423" si="42">AVERAGE(C417:C423)</f>
         <v>72.857142857142861</v>
       </c>
-      <c r="E423">
-        <f t="shared" ref="E423" si="75">C423-C422</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
       </c>
@@ -24261,15 +24122,11 @@
         <v>67</v>
       </c>
       <c r="D424" s="3">
-        <f t="shared" ref="D424" si="76">AVERAGE(C418:C424)</f>
+        <f t="shared" ref="D424" si="43">AVERAGE(C418:C424)</f>
         <v>71</v>
       </c>
-      <c r="E424">
-        <f t="shared" ref="E424" si="77">C424-C423</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
       </c>
@@ -24277,15 +24134,11 @@
         <v>70</v>
       </c>
       <c r="D425" s="3">
-        <f t="shared" ref="D425" si="78">AVERAGE(C419:C425)</f>
+        <f t="shared" ref="D425" si="44">AVERAGE(C419:C425)</f>
         <v>69.714285714285708</v>
       </c>
-      <c r="E425">
-        <f t="shared" ref="E425" si="79">C425-C424</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
       </c>
@@ -24293,15 +24146,11 @@
         <v>61</v>
       </c>
       <c r="D426" s="3">
-        <f t="shared" ref="D426" si="80">AVERAGE(C420:C426)</f>
+        <f t="shared" ref="D426" si="45">AVERAGE(C420:C426)</f>
         <v>68.428571428571431</v>
       </c>
-      <c r="E426">
-        <f t="shared" ref="E426" si="81">C426-C425</f>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
       </c>
@@ -24309,15 +24158,11 @@
         <v>69</v>
       </c>
       <c r="D427" s="3">
-        <f t="shared" ref="D427" si="82">AVERAGE(C421:C427)</f>
+        <f t="shared" ref="D427" si="46">AVERAGE(C421:C427)</f>
         <v>68.142857142857139</v>
       </c>
-      <c r="E427">
-        <f t="shared" ref="E427" si="83">C427-C426</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
       </c>
@@ -24325,15 +24170,11 @@
         <v>69</v>
       </c>
       <c r="D428" s="3">
-        <f t="shared" ref="D428:D429" si="84">AVERAGE(C422:C428)</f>
+        <f t="shared" ref="D428:D429" si="47">AVERAGE(C422:C428)</f>
         <v>67.571428571428569</v>
       </c>
-      <c r="E428">
-        <f t="shared" ref="E428:E429" si="85">C428-C427</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
       </c>
@@ -24341,15 +24182,11 @@
         <v>64</v>
       </c>
       <c r="D429" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="47"/>
         <v>66.857142857142861</v>
       </c>
-      <c r="E429">
-        <f t="shared" si="85"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
       </c>
@@ -24357,15 +24194,11 @@
         <v>59</v>
       </c>
       <c r="D430" s="3">
-        <f t="shared" ref="D430" si="86">AVERAGE(C424:C430)</f>
+        <f t="shared" ref="D430" si="48">AVERAGE(C424:C430)</f>
         <v>65.571428571428569</v>
       </c>
-      <c r="E430">
-        <f t="shared" ref="E430" si="87">C430-C429</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
       </c>
@@ -24373,15 +24206,11 @@
         <v>60</v>
       </c>
       <c r="D431" s="3">
-        <f t="shared" ref="D431" si="88">AVERAGE(C425:C431)</f>
+        <f t="shared" ref="D431" si="49">AVERAGE(C425:C431)</f>
         <v>64.571428571428569</v>
       </c>
-      <c r="E431">
-        <f t="shared" ref="E431" si="89">C431-C430</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
       </c>
@@ -24389,15 +24218,11 @@
         <v>55</v>
       </c>
       <c r="D432" s="3">
-        <f t="shared" ref="D432" si="90">AVERAGE(C426:C432)</f>
+        <f t="shared" ref="D432" si="50">AVERAGE(C426:C432)</f>
         <v>62.428571428571431</v>
       </c>
-      <c r="E432">
-        <f t="shared" ref="E432" si="91">C432-C431</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
@@ -24405,15 +24230,11 @@
         <v>56</v>
       </c>
       <c r="D433" s="3">
-        <f t="shared" ref="D433" si="92">AVERAGE(C427:C433)</f>
+        <f t="shared" ref="D433" si="51">AVERAGE(C427:C433)</f>
         <v>61.714285714285715</v>
       </c>
-      <c r="E433">
-        <f t="shared" ref="E433" si="93">C433-C432</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
@@ -24421,15 +24242,11 @@
         <v>52</v>
       </c>
       <c r="D434" s="3">
-        <f t="shared" ref="D434" si="94">AVERAGE(C428:C434)</f>
+        <f t="shared" ref="D434" si="52">AVERAGE(C428:C434)</f>
         <v>59.285714285714285</v>
       </c>
-      <c r="E434">
-        <f t="shared" ref="E434" si="95">C434-C433</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
@@ -24437,15 +24254,11 @@
         <v>49</v>
       </c>
       <c r="D435" s="3">
-        <f t="shared" ref="D435" si="96">AVERAGE(C429:C435)</f>
+        <f t="shared" ref="D435" si="53">AVERAGE(C429:C435)</f>
         <v>56.428571428571431</v>
       </c>
-      <c r="E435">
-        <f t="shared" ref="E435" si="97">C435-C434</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
@@ -24453,15 +24266,11 @@
         <v>44</v>
       </c>
       <c r="D436" s="3">
-        <f t="shared" ref="D436" si="98">AVERAGE(C430:C436)</f>
+        <f t="shared" ref="D436" si="54">AVERAGE(C430:C436)</f>
         <v>53.571428571428569</v>
       </c>
-      <c r="E436">
-        <f t="shared" ref="E436" si="99">C436-C435</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
@@ -24469,15 +24278,11 @@
         <v>42</v>
       </c>
       <c r="D437" s="3">
-        <f t="shared" ref="D437" si="100">AVERAGE(C431:C437)</f>
+        <f t="shared" ref="D437" si="55">AVERAGE(C431:C437)</f>
         <v>51.142857142857146</v>
       </c>
-      <c r="E437">
-        <f t="shared" ref="E437" si="101">C437-C436</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
@@ -24485,15 +24290,11 @@
         <v>38</v>
       </c>
       <c r="D438" s="3">
-        <f t="shared" ref="D438" si="102">AVERAGE(C432:C438)</f>
+        <f t="shared" ref="D438" si="56">AVERAGE(C432:C438)</f>
         <v>48</v>
       </c>
-      <c r="E438">
-        <f t="shared" ref="E438" si="103">C438-C437</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
@@ -24501,15 +24302,11 @@
         <v>36</v>
       </c>
       <c r="D439" s="3">
-        <f t="shared" ref="D439" si="104">AVERAGE(C433:C439)</f>
+        <f t="shared" ref="D439" si="57">AVERAGE(C433:C439)</f>
         <v>45.285714285714285</v>
       </c>
-      <c r="E439">
-        <f t="shared" ref="E439" si="105">C439-C438</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
@@ -24517,15 +24314,11 @@
         <v>34</v>
       </c>
       <c r="D440" s="3">
-        <f t="shared" ref="D440" si="106">AVERAGE(C434:C440)</f>
+        <f t="shared" ref="D440" si="58">AVERAGE(C434:C440)</f>
         <v>42.142857142857146</v>
       </c>
-      <c r="E440">
-        <f t="shared" ref="E440" si="107">C440-C439</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
@@ -24533,15 +24326,11 @@
         <v>35</v>
       </c>
       <c r="D441" s="3">
-        <f t="shared" ref="D441" si="108">AVERAGE(C435:C441)</f>
+        <f t="shared" ref="D441" si="59">AVERAGE(C435:C441)</f>
         <v>39.714285714285715</v>
       </c>
-      <c r="E441">
-        <f t="shared" ref="E441" si="109">C441-C440</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
@@ -24549,15 +24338,11 @@
         <v>34</v>
       </c>
       <c r="D442" s="3">
-        <f t="shared" ref="D442" si="110">AVERAGE(C436:C442)</f>
+        <f t="shared" ref="D442" si="60">AVERAGE(C436:C442)</f>
         <v>37.571428571428569</v>
       </c>
-      <c r="E442">
-        <f t="shared" ref="E442" si="111">C442-C441</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
@@ -24565,15 +24350,11 @@
         <v>37</v>
       </c>
       <c r="D443" s="3">
-        <f t="shared" ref="D443" si="112">AVERAGE(C437:C443)</f>
+        <f t="shared" ref="D443" si="61">AVERAGE(C437:C443)</f>
         <v>36.571428571428569</v>
       </c>
-      <c r="E443">
-        <f t="shared" ref="E443" si="113">C443-C442</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
@@ -24581,15 +24362,11 @@
         <v>33</v>
       </c>
       <c r="D444" s="3">
-        <f t="shared" ref="D444" si="114">AVERAGE(C438:C444)</f>
+        <f t="shared" ref="D444" si="62">AVERAGE(C438:C444)</f>
         <v>35.285714285714285</v>
       </c>
-      <c r="E444">
-        <f t="shared" ref="E444" si="115">C444-C443</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
@@ -24597,15 +24374,11 @@
         <v>37</v>
       </c>
       <c r="D445" s="3">
-        <f t="shared" ref="D445" si="116">AVERAGE(C439:C445)</f>
+        <f t="shared" ref="D445" si="63">AVERAGE(C439:C445)</f>
         <v>35.142857142857146</v>
       </c>
-      <c r="E445">
-        <f t="shared" ref="E445" si="117">C445-C444</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
@@ -24613,15 +24386,11 @@
         <v>34</v>
       </c>
       <c r="D446" s="3">
-        <f t="shared" ref="D446" si="118">AVERAGE(C440:C446)</f>
+        <f t="shared" ref="D446" si="64">AVERAGE(C440:C446)</f>
         <v>34.857142857142854</v>
       </c>
-      <c r="E446">
-        <f t="shared" ref="E446" si="119">C446-C445</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>44345</v>
       </c>
@@ -24629,15 +24398,11 @@
         <v>37</v>
       </c>
       <c r="D447" s="3">
-        <f t="shared" ref="D447" si="120">AVERAGE(C441:C447)</f>
+        <f t="shared" ref="D447" si="65">AVERAGE(C441:C447)</f>
         <v>35.285714285714285</v>
       </c>
-      <c r="E447">
-        <f t="shared" ref="E447" si="121">C447-C446</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>44346</v>
       </c>
@@ -24645,15 +24410,11 @@
         <v>38</v>
       </c>
       <c r="D448" s="3">
-        <f t="shared" ref="D448" si="122">AVERAGE(C442:C448)</f>
+        <f t="shared" ref="D448" si="66">AVERAGE(C442:C448)</f>
         <v>35.714285714285715</v>
       </c>
-      <c r="E448">
-        <f t="shared" ref="E448" si="123">C448-C447</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>44347</v>
       </c>
@@ -24661,15 +24422,11 @@
         <v>38</v>
       </c>
       <c r="D449" s="3">
-        <f t="shared" ref="D449" si="124">AVERAGE(C443:C449)</f>
+        <f t="shared" ref="D449" si="67">AVERAGE(C443:C449)</f>
         <v>36.285714285714285</v>
       </c>
-      <c r="E449">
-        <f t="shared" ref="E449" si="125">C449-C448</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>44348</v>
       </c>
@@ -24677,15 +24434,11 @@
         <v>38</v>
       </c>
       <c r="D450" s="3">
-        <f t="shared" ref="D450" si="126">AVERAGE(C444:C450)</f>
+        <f t="shared" ref="D450" si="68">AVERAGE(C444:C450)</f>
         <v>36.428571428571431</v>
       </c>
-      <c r="E450">
-        <f t="shared" ref="E450" si="127">C450-C449</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>44349</v>
       </c>
@@ -24693,15 +24446,11 @@
         <v>35</v>
       </c>
       <c r="D451" s="3">
-        <f t="shared" ref="D451" si="128">AVERAGE(C445:C451)</f>
+        <f t="shared" ref="D451" si="69">AVERAGE(C445:C451)</f>
         <v>36.714285714285715</v>
       </c>
-      <c r="E451">
-        <f t="shared" ref="E451" si="129">C451-C450</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>44350</v>
       </c>
@@ -24709,15 +24458,11 @@
         <v>35</v>
       </c>
       <c r="D452" s="3">
-        <f t="shared" ref="D452" si="130">AVERAGE(C446:C452)</f>
+        <f t="shared" ref="D452" si="70">AVERAGE(C446:C452)</f>
         <v>36.428571428571431</v>
       </c>
-      <c r="E452">
-        <f t="shared" ref="E452" si="131">C452-C451</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>44351</v>
       </c>
@@ -24725,15 +24470,11 @@
         <v>36</v>
       </c>
       <c r="D453" s="3">
-        <f t="shared" ref="D453" si="132">AVERAGE(C447:C453)</f>
+        <f t="shared" ref="D453" si="71">AVERAGE(C447:C453)</f>
         <v>36.714285714285715</v>
       </c>
-      <c r="E453">
-        <f t="shared" ref="E453" si="133">C453-C452</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
       </c>
@@ -24741,15 +24482,11 @@
         <v>35</v>
       </c>
       <c r="D454" s="3">
-        <f t="shared" ref="D454" si="134">AVERAGE(C448:C454)</f>
+        <f t="shared" ref="D454" si="72">AVERAGE(C448:C454)</f>
         <v>36.428571428571431</v>
       </c>
-      <c r="E454">
-        <f t="shared" ref="E454" si="135">C454-C453</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>44353</v>
       </c>
@@ -24757,15 +24494,11 @@
         <v>35</v>
       </c>
       <c r="D455" s="3">
-        <f t="shared" ref="D455" si="136">AVERAGE(C449:C455)</f>
+        <f t="shared" ref="D455" si="73">AVERAGE(C449:C455)</f>
         <v>36</v>
       </c>
-      <c r="E455">
-        <f t="shared" ref="E455" si="137">C455-C454</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
       </c>
@@ -24773,15 +24506,11 @@
         <v>34</v>
       </c>
       <c r="D456" s="3">
-        <f t="shared" ref="D456" si="138">AVERAGE(C450:C456)</f>
+        <f t="shared" ref="D456" si="74">AVERAGE(C450:C456)</f>
         <v>35.428571428571431</v>
       </c>
-      <c r="E456">
-        <f t="shared" ref="E456" si="139">C456-C455</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
       </c>
@@ -24789,15 +24518,11 @@
         <v>34</v>
       </c>
       <c r="D457" s="3">
-        <f t="shared" ref="D457" si="140">AVERAGE(C451:C457)</f>
+        <f t="shared" ref="D457" si="75">AVERAGE(C451:C457)</f>
         <v>34.857142857142854</v>
       </c>
-      <c r="E457">
-        <f t="shared" ref="E457" si="141">C457-C456</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
       </c>
@@ -24805,40 +24530,43 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458" si="142">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D459" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="E458">
-        <f t="shared" ref="E458" si="143">C458-C457</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C459" s="2">
+        <v>31</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="76"/>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>44359</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
@@ -24929,7 +24657,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458:D458"/>
+      <selection activeCell="D459" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29628,7 +29356,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D458" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30715,6 +30443,13 @@
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
+      </c>
+      <c r="C459" s="2">
+        <v>2</v>
+      </c>
+      <c r="D459" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9991F-03CA-0844-A237-A7CB983DEE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBEBECC-DF21-194A-B21D-370E10CBABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="11740" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="D459" sqref="D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6530,6 +6530,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>67</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>18.571428571428573</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6638,7 +6645,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="D459" sqref="D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11905,7 +11912,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D459" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D460" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12740,6 +12747,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -12847,8 +12861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="D459" sqref="D459"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17808,7 +17822,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D459" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D460" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18643,6 +18657,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460">
+        <v>57</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>57.857142857142854</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -18750,8 +18771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="H449" sqref="H449"/>
+    <sheetView topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24530,7 +24551,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D459" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D460" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -24549,6 +24570,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460" s="2">
+        <v>26</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="76"/>
+        <v>32.285714285714285</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -24657,7 +24685,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="D459" sqref="D459"/>
+      <selection activeCell="A460" sqref="A460:D460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29356,7 +29384,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D459" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30455,6 +30483,13 @@
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
+      </c>
+      <c r="C460" s="2">
+        <v>2</v>
+      </c>
+      <c r="D460" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBEBECC-DF21-194A-B21D-370E10CBABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFE2307-5448-9F40-899A-8351394C630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+      <selection activeCell="A465" sqref="A465:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6543,93 +6543,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>7</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>17.285714285714285</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>7</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>15.714285714285714</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>10</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>19</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>5</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -6644,8 +6686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A464" sqref="A464:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11912,7 +11954,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D460" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D466" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12760,93 +12802,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -12861,8 +12945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="A464" sqref="A464:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17822,7 +17906,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D460" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D466" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18670,93 +18754,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>56.142857142857146</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463">
+        <v>127</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>108</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>71.571428571428569</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465">
+        <v>95</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>67.714285714285708</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>60</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -18771,8 +18897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="A464" sqref="A464:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24551,7 +24677,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D460" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D466" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -24583,93 +24709,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461" s="2">
+        <v>25</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="76"/>
+        <v>30.857142857142858</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462" s="2">
+        <v>26</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="76"/>
+        <v>29.571428571428573</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463" s="2">
+        <v>26</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="76"/>
+        <v>28.428571428571427</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464" s="2">
+        <v>29</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="76"/>
+        <v>27.714285714285715</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465" s="2">
+        <v>25</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="76"/>
+        <v>26.857142857142858</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466" s="2">
+        <v>25</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="76"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>
@@ -24684,8 +24852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A460" sqref="A460:D460"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A466" sqref="A466:D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29384,7 +29552,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D460" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30496,93 +30664,135 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
+      <c r="C461" s="2">
+        <v>2</v>
+      </c>
+      <c r="D461" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>44360</v>
       </c>
+      <c r="C462" s="2">
+        <v>2</v>
+      </c>
+      <c r="D462" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>44361</v>
       </c>
+      <c r="C463" s="2">
+        <v>2</v>
+      </c>
+      <c r="D463" s="3">
+        <f t="shared" si="5"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C464" s="2">
+        <v>2</v>
+      </c>
+      <c r="D464" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C465" s="2">
+        <v>2</v>
+      </c>
+      <c r="D465" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C466" s="2">
+        <v>2</v>
+      </c>
+      <c r="D466" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>44365</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>44367</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>44371</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>44374</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
       </c>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFE2307-5448-9F40-899A-8351394C630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129E676-EB69-2A4B-8514-C903F776792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="7160" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="A465" sqref="A465:D466"/>
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6615,10 +6615,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>13</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1428571428571423</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -6687,7 +6701,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:D466"/>
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11954,7 +11968,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D466" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D468" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12874,10 +12888,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -12945,8 +12973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:D466"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C467" sqref="C467:C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17906,7 +17934,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D466" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D468" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18826,10 +18854,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467">
+        <v>106</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468">
+        <v>3</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>71.285714285714292</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -18897,8 +18939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:D466"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24677,7 +24719,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D466" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D468" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -24781,10 +24823,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467" s="2">
+        <v>25</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="76"/>
+        <v>25.857142857142858</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468" s="2">
+        <v>21</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="76"/>
+        <v>25.285714285714285</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -24852,8 +24908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A466" sqref="A466:D466"/>
+    <sheetView topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A467" sqref="A467:D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29552,7 +29608,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D466" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30736,10 +30792,24 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
+      <c r="C467" s="2">
+        <v>2</v>
+      </c>
+      <c r="D467" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>44366</v>
+      </c>
+      <c r="C468" s="2">
+        <v>2</v>
+      </c>
+      <c r="D468" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129E676-EB69-2A4B-8514-C903F776792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391D982-3586-A344-8BA2-7B8F0AB471EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5431,7 +5431,7 @@
         <v>36</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
         <v>32.571428571428569</v>
       </c>
     </row>
@@ -6639,15 +6639,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>7.1428571428571432</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>6</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7142857142857144</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -6700,8 +6721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11968,7 +11989,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D468" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D471" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12912,15 +12933,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -12973,8 +13015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C467" sqref="C467:C468"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17934,7 +17976,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D468" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D471" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18878,15 +18920,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>71.285714285714292</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470">
+        <v>51</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>60.428571428571431</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471">
+        <v>60</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="5"/>
+        <v>53.571428571428569</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -18939,8 +19002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24719,7 +24782,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D468" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D471" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -24847,15 +24910,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469" s="2">
+        <v>21</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="76"/>
+        <v>24.571428571428573</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470" s="2">
+        <v>21</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="76"/>
+        <v>23.857142857142858</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471" s="2">
+        <v>20</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="76"/>
+        <v>22.571428571428573</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -24908,8 +24992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="A467" sqref="A467:D468"/>
+    <sheetView topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29608,7 +29692,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D468" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30816,15 +30900,36 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
+      <c r="C469" s="2">
+        <v>2</v>
+      </c>
+      <c r="D469" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>44368</v>
       </c>
+      <c r="C470" s="2">
+        <v>2</v>
+      </c>
+      <c r="D470" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>44369</v>
+      </c>
+      <c r="C471" s="2">
+        <v>2</v>
+      </c>
+      <c r="D471" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6391D982-3586-A344-8BA2-7B8F0AB471EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC40F4-7B8B-2B4F-814E-B3175DBBD0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3280" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="C472" sqref="C472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6674,6 +6674,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>5</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" ref="D472" si="6">AVERAGE(C466:C472)</f>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -6722,7 +6729,7 @@
   <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11989,7 +11996,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D471" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D472" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12968,6 +12975,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -13016,7 +13030,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17976,7 +17990,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D471" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D472" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18955,6 +18969,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472">
+        <v>17</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="5"/>
+        <v>42.428571428571431</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -19002,8 +19023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24782,7 +24803,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D471" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D472" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -24945,6 +24966,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472" s="2">
+        <v>20</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="76"/>
+        <v>21.857142857142858</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -24992,8 +25020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="D471" sqref="D471"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469:D472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29692,7 +29720,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D471" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D472" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30935,6 +30963,13 @@
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>44370</v>
+      </c>
+      <c r="C472" s="2">
+        <v>2</v>
+      </c>
+      <c r="D472" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC40F4-7B8B-2B4F-814E-B3175DBBD0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03799BEA-5F35-1740-A88F-72CA8D5DB8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="500" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4780" yWindow="580" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J479"/>
   <sheetViews>
     <sheetView topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="C472" sqref="C472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D475" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6687,15 +6687,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>9</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -6728,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G479"/>
   <sheetViews>
-    <sheetView topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11996,7 +12017,7 @@
         <v>6</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D472" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D473" si="5">AVERAGE(C384:C390)</f>
         <v>-0.14285714285714285</v>
       </c>
     </row>
@@ -12988,15 +13009,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -13030,7 +13072,7 @@
   <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17990,7 +18032,7 @@
         <v>42</v>
       </c>
       <c r="D390" s="3">
-        <f t="shared" ref="D390:D472" si="5">AVERAGE(C384:C390)</f>
+        <f t="shared" ref="D390:D473" si="5">AVERAGE(C384:C390)</f>
         <v>34</v>
       </c>
     </row>
@@ -18982,15 +19024,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473">
+        <v>7</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="5"/>
+        <v>34.857142857142854</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474">
+        <v>29</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <v>23.857142857142858</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>23.714285714285715</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -19023,8 +19086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24803,7 +24866,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D472" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D475" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -24979,15 +25042,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473" s="2">
+        <v>19</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="76"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474" s="2">
+        <v>18</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" si="76"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475" s="2">
+        <v>16</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="76"/>
+        <v>19.285714285714285</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -25020,8 +25104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D479"/>
   <sheetViews>
-    <sheetView topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="A469" sqref="A469:D472"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473:C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29720,7 +29804,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="3">
-        <f t="shared" ref="D368:D472" si="5">AVERAGE(C362:C368)</f>
+        <f t="shared" ref="D368:D473" si="5">AVERAGE(C362:C368)</f>
         <v>11.714285714285714</v>
       </c>
     </row>
@@ -30976,15 +31060,36 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
+      <c r="C473" s="2">
+        <v>3</v>
+      </c>
+      <c r="D473" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>44372</v>
       </c>
+      <c r="C474" s="2">
+        <v>2</v>
+      </c>
+      <c r="D474" s="3">
+        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>44373</v>
+      </c>
+      <c r="C475" s="2">
+        <v>2</v>
+      </c>
+      <c r="D475" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03799BEA-5F35-1740-A88F-72CA8D5DB8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE4513-DA33-F042-B619-C061C8B14960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="580" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J479"/>
+  <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D475" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D484" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6723,20 +6723,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>3.1428571428571428</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>4</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>6</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -6747,10 +6965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13025,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13045,20 +13263,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -13069,10 +13505,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19040,7 +19476,7 @@
         <v>29</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
         <v>23.857142857142858</v>
       </c>
     </row>
@@ -19060,20 +19496,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477">
+        <v>29</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>20.857142857142858</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478">
+        <v>11</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>13.857142857142858</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479">
+        <v>37</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480">
+        <v>11</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>17.285714285714285</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481">
+        <v>41</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484">
+        <v>25</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -19084,10 +19738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24866,7 +25520,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D475" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D484" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -25078,20 +25732,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476" s="2">
+        <v>14</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="76"/>
+        <v>18.285714285714285</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477" s="2">
+        <v>15</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="76"/>
+        <v>17.428571428571427</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478" s="2">
+        <v>16</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="76"/>
+        <v>16.857142857142858</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479" s="2">
+        <v>16</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="76"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480" s="2">
+        <v>14</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="76"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481" s="2">
+        <v>11</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="76"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482" s="2">
+        <v>12</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="76"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483" s="2">
+        <v>12</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="76"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484" s="2">
+        <v>10</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="76"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
@@ -25102,10 +25974,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473:C475"/>
+    <sheetView topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31076,7 +31948,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D475" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -31096,20 +31968,238 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
+      <c r="C476" s="2">
+        <v>2</v>
+      </c>
+      <c r="D476" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>44375</v>
       </c>
+      <c r="C477" s="2">
+        <v>2</v>
+      </c>
+      <c r="D477" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>44376</v>
       </c>
+      <c r="C478" s="2">
+        <v>2</v>
+      </c>
+      <c r="D478" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>44377</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1</v>
+      </c>
+      <c r="D479" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1</v>
+      </c>
+      <c r="D480" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C481" s="2">
+        <v>1</v>
+      </c>
+      <c r="D481" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44380</v>
+      </c>
+      <c r="C482" s="2">
+        <v>1</v>
+      </c>
+      <c r="D482" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44381</v>
+      </c>
+      <c r="C483" s="2">
+        <v>1</v>
+      </c>
+      <c r="D483" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44382</v>
+      </c>
+      <c r="C484" s="2">
+        <v>1</v>
+      </c>
+      <c r="D484" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="5">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="5">
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="5">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="5">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="5">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="5">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="5">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="5">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="5">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="5">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="5">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="5">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="5">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="5">
+        <v>44401</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="5">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="5">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="5">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="5">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="5">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="5">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="5">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE4513-DA33-F042-B619-C061C8B14960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEC0F5-C378-8B48-9611-910F5D7CCFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D484" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D485" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6830,6 +6830,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -6968,7 +6975,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13243,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13370,6 +13377,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -13507,8 +13521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+    <sheetView topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19476,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
         <v>23.857142857142858</v>
       </c>
     </row>
@@ -19603,6 +19617,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>16.285714285714285</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -19741,7 +19762,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25520,7 +25541,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D484" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D485" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -25839,6 +25860,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485" s="2">
+        <v>10</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="76"/>
+        <v>12.142857142857142</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -25977,7 +26005,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476:D484"/>
+      <selection activeCell="A485" sqref="A485:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31948,7 +31976,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D484" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -32075,6 +32103,13 @@
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>44383</v>
+      </c>
+      <c r="C485" s="2">
+        <v>1</v>
+      </c>
+      <c r="D485" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/COVIDA/covid19-opendata-calabria-main/dati/provincia/Catanzaro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EEC0F5-C378-8B48-9611-910F5D7CCFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AC337-1E2A-C640-9185-D497D958034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492:C493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D485" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D493" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6843,40 +6843,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>4</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7142857142857142</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>2</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2857142857142858</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8571428571428572</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="C493" sqref="C493:D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13250,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D488" si="6">AVERAGE(C468:C474)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -13390,40 +13446,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="7">AVERAGE(C483:C489)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490" si="8">AVERAGE(C484:C490)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" ref="D491" si="9">AVERAGE(C485:C491)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" ref="D492" si="10">AVERAGE(C486:C492)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="11">AVERAGE(C487:C493)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -13522,7 +13634,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="C492" sqref="C492:C493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19490,7 +19602,7 @@
         <v>29</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D492" si="6">AVERAGE(C468:C474)</f>
         <v>23.857142857142858</v>
       </c>
     </row>
@@ -19630,40 +19742,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>11.285714285714286</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487">
+        <v>9</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488">
+        <v>9</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>6.4285714285714288</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489">
+        <v>6</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" si="6"/>
+        <v>7.2857142857142856</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" si="6"/>
+        <v>7.2857142857142856</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="6"/>
+        <v>4.2857142857142856</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="7">AVERAGE(C487:C493)</f>
+        <v>4.4285714285714288</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -19762,7 +19930,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+      <selection activeCell="C492" sqref="C492:C493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25541,7 +25709,7 @@
         <v>31</v>
       </c>
       <c r="D458" s="3">
-        <f t="shared" ref="D458:D485" si="76">AVERAGE(C452:C458)</f>
+        <f t="shared" ref="D458:D486" si="76">AVERAGE(C452:C458)</f>
         <v>34.285714285714285</v>
       </c>
     </row>
@@ -25873,40 +26041,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486" s="2">
+        <v>9</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="76"/>
+        <v>11.142857142857142</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487" s="2">
+        <v>9</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" ref="D487:D488" si="77">AVERAGE(C481:C487)</f>
+        <v>10.428571428571429</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488" s="2">
+        <v>6</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="77"/>
+        <v>9.7142857142857135</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489" s="2">
+        <v>6</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="78">AVERAGE(C483:C489)</f>
+        <v>8.8571428571428577</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490" s="2">
+        <v>6</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490:D493" si="79">AVERAGE(C484:C490)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491" s="2">
+        <v>5</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="79"/>
+        <v>7.2857142857142856</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492" s="2">
+        <v>5</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="79"/>
+        <v>6.5714285714285712</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493" s="2">
+        <v>4</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" si="79"/>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -26004,8 +26228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:D485"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492:C493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31976,7 +32200,7 @@
         <v>2</v>
       </c>
       <c r="D474" s="3">
-        <f t="shared" ref="D474:D485" si="6">AVERAGE(C468:C474)</f>
+        <f t="shared" ref="D474:D488" si="6">AVERAGE(C468:C474)</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -32116,40 +32340,96 @@
       <c r="A486" s="5">
         <v>44384</v>
       </c>
+      <c r="C486" s="2">
+        <v>1</v>
+      </c>
+      <c r="D486" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
+      <c r="C487" s="2">
+        <v>1</v>
+      </c>
+      <c r="D487" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
+      <c r="C488" s="2">
+        <v>1</v>
+      </c>
+      <c r="D488" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
+      <c r="C489" s="2">
+        <v>1</v>
+      </c>
+      <c r="D489" s="3">
+        <f t="shared" ref="D489" si="7">AVERAGE(C483:C489)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
+      <c r="C490" s="2">
+        <v>1</v>
+      </c>
+      <c r="D490" s="3">
+        <f t="shared" ref="D490:D492" si="8">AVERAGE(C484:C490)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
+      <c r="C491" s="2">
+        <v>1</v>
+      </c>
+      <c r="D491" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
+      <c r="C492" s="2">
+        <v>1</v>
+      </c>
+      <c r="D492" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>44391</v>
+      </c>
+      <c r="C493" s="2">
+        <v>1</v>
+      </c>
+      <c r="D493" s="3">
+        <f t="shared" ref="D493" si="9">AVERAGE(C487:C493)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94AC337-1E2A-C640-9185-D497D958034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A57890-FF9A-0B4C-90CF-77C523A6E484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492:C493"/>
+      <selection activeCell="D494" sqref="D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D493" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D494" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6938,6 +6938,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -7031,7 +7038,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C493" sqref="C493:D493"/>
+      <selection activeCell="C494" sqref="C494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13541,6 +13548,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="12">AVERAGE(C488:C494)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -13634,7 +13648,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492:C493"/>
+      <selection activeCell="D494" sqref="D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19830,13 +19844,20 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D494" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" si="7"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -19930,7 +19951,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492:C493"/>
+      <selection activeCell="C494" sqref="C494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26136,6 +26157,13 @@
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>44392</v>
+      </c>
+      <c r="C494" s="2">
+        <v>4</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="80">AVERAGE(C488:C494)</f>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -26229,7 +26257,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492:C493"/>
+      <selection activeCell="C494" sqref="C494:D494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32436,6 +32464,13 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
+      <c r="C494" s="2">
+        <v>1</v>
+      </c>
+      <c r="D494" s="3">
+        <f t="shared" ref="D494" si="10">AVERAGE(C488:C494)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="5">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A57890-FF9A-0B4C-90CF-77C523A6E484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDCC299-78C7-9D48-B96E-27E222CB096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="9380" yWindow="700" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="D494" sqref="D494"/>
+    <sheetView topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="C496" sqref="C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D494" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D496" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6951,10 +6951,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>5</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>6</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -7037,8 +7051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494:D494"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13561,10 +13575,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" ref="D495:D496" si="13">AVERAGE(C489:C495)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -13648,7 +13676,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="D494" sqref="D494"/>
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19844,7 +19872,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D494" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D496" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -19864,10 +19892,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -19950,8 +19992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494:D494"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26162,7 +26204,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494" si="80">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D496" si="80">AVERAGE(C488:C494)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -26170,10 +26212,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495" s="2">
+        <v>4</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="80"/>
+        <v>4.8571428571428568</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496" s="2">
+        <v>5</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="80"/>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
@@ -26256,8 +26312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494:D494"/>
+    <sheetView topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A495" sqref="A495:D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32468,7 +32524,7 @@
         <v>1</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494" si="10">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D496" si="10">AVERAGE(C488:C494)</f>
         <v>1</v>
       </c>
     </row>
@@ -32476,10 +32532,24 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
+      <c r="C495" s="2">
+        <v>2</v>
+      </c>
+      <c r="D495" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>44394</v>
+      </c>
+      <c r="C496" s="2">
+        <v>2</v>
+      </c>
+      <c r="D496" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/covid19-opendata-calabria-main/Calabria/provincia/Catanzaro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDCC299-78C7-9D48-B96E-27E222CB096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79761D-7690-6440-ACB2-6D73561972FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="700" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="10140" yWindow="700" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="C496" sqref="C496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D496" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D499" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6971,72 +6971,93 @@
         <v>2.5714285714285716</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -7052,7 +7073,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13579,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="3">
-        <f t="shared" ref="D495:D496" si="13">AVERAGE(C489:C495)</f>
+        <f t="shared" ref="D495:D499" si="13">AVERAGE(C489:C495)</f>
         <v>0</v>
       </c>
     </row>
@@ -13595,72 +13616,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -13675,8 +13717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19872,7 +19914,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D496" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D499" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -19912,72 +19954,93 @@
         <v>1.5714285714285714</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>8</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -19993,7 +20056,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26204,7 +26267,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D496" si="80">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D499" si="80">AVERAGE(C488:C494)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -26232,72 +26295,93 @@
         <v>4.7142857142857144</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497" s="2">
+        <v>5</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="80"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498" s="2">
+        <v>5</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="80"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499" s="2">
+        <v>5</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="80"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>
@@ -26313,7 +26397,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:D496"/>
+      <selection activeCell="A497" sqref="A497:D499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32524,7 +32608,7 @@
         <v>1</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D496" si="10">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D499" si="10">AVERAGE(C488:C494)</f>
         <v>1</v>
       </c>
     </row>
@@ -32552,72 +32636,93 @@
         <v>1.2857142857142858</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C497" s="2">
+        <v>2</v>
+      </c>
+      <c r="D497" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C498" s="2">
+        <v>2</v>
+      </c>
+      <c r="D498" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C499" s="2">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>44399</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>44403</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>44407</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
       </c>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F79761D-7690-6440-ACB2-6D73561972FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF91895-F444-8647-A558-F4E7FE24E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="700" windowWidth="28800" windowHeight="15560" activeTab="3" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="4940" yWindow="840" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D499" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D500" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7010,6 +7010,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>8</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="6"/>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -7073,7 +7080,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13655,6 +13662,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" ref="D500" si="14">AVERAGE(C494:C500)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -13718,7 +13732,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19914,7 +19928,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D499" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D500" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -19993,6 +20007,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -20055,8 +20076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26267,7 +26288,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D499" si="80">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D500" si="80">AVERAGE(C488:C494)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -26334,6 +26355,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500" s="2">
+        <v>4</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="80"/>
+        <v>4.5714285714285712</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -26396,8 +26424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497:D499"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="A500" sqref="A500:D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32608,7 +32636,7 @@
         <v>1</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D499" si="10">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D500" si="10">AVERAGE(C488:C494)</f>
         <v>1</v>
       </c>
     </row>
@@ -32675,6 +32703,13 @@
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>44398</v>
+      </c>
+      <c r="C500" s="2">
+        <v>1</v>
+      </c>
+      <c r="D500" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF91895-F444-8647-A558-F4E7FE24E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317E5A0-9F3E-294D-B4EE-9A7ACE17CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="840" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3800" yWindow="840" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J510"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="C504" sqref="C504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D500" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D504" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7023,20 +7023,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>7</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="6"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>7</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>33</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -7079,8 +7107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C504" sqref="C504:D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13667,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="D500" s="3">
-        <f t="shared" ref="D500" si="14">AVERAGE(C494:C500)</f>
+        <f t="shared" ref="D500:D503" si="14">AVERAGE(C494:C500)</f>
         <v>0</v>
       </c>
     </row>
@@ -13675,20 +13703,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" ref="D504" si="15">AVERAGE(C498:C504)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -13731,8 +13787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="D504" sqref="D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19928,7 +19984,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D500" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D504" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20020,20 +20076,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="7"/>
+        <v>1.8571428571428572</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -20077,7 +20161,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+      <selection activeCell="J498" sqref="J498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26288,7 +26372,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D500" si="80">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D504" si="80">AVERAGE(C488:C494)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -26368,20 +26452,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501" s="2">
+        <v>3</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="80"/>
+        <v>4.4285714285714288</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502" s="2">
+        <v>2</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="80"/>
+        <v>4.1428571428571432</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503" s="2">
+        <v>1</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="80"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504" s="2">
+        <v>2</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" si="80"/>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -26424,8 +26536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A500" sqref="A500:D500"/>
+    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="J499" sqref="J499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32636,7 +32748,7 @@
         <v>1</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D500" si="10">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D503" si="10">AVERAGE(C488:C494)</f>
         <v>1</v>
       </c>
     </row>
@@ -32716,20 +32828,48 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
+      <c r="C501" s="2">
+        <v>1</v>
+      </c>
+      <c r="D501" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5714285714285714</v>
+      </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>44400</v>
       </c>
+      <c r="C502" s="2">
+        <v>1</v>
+      </c>
+      <c r="D502" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714286</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>44401</v>
       </c>
+      <c r="C503" s="2">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>44402</v>
+      </c>
+      <c r="C504" s="2">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <f t="shared" ref="D504" si="11">AVERAGE(C498:C504)</f>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3317E5A0-9F3E-294D-B4EE-9A7ACE17CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1081E43-991B-BF4E-A375-C556F984AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="840" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2740" yWindow="820" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="C504" sqref="C504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D504" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D506" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7071,10 +7071,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>11</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="6"/>
+        <v>9.5714285714285712</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>15</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="6"/>
+        <v>11.571428571428571</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -7107,8 +7121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G510"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C504" sqref="C504:D504"/>
+    <sheetView topLeftCell="A479" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13743,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="D504" s="3">
-        <f t="shared" ref="D504" si="15">AVERAGE(C498:C504)</f>
+        <f t="shared" ref="D504:D506" si="15">AVERAGE(C498:C504)</f>
         <v>0</v>
       </c>
     </row>
@@ -13751,10 +13765,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -13788,7 +13816,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="D504" sqref="D504"/>
+      <selection activeCell="A505" sqref="A505:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19984,7 +20012,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D504" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D506" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20124,10 +20152,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -20160,8 +20202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="J498" sqref="J498"/>
+    <sheetView topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26372,7 +26414,7 @@
         <v>4</v>
       </c>
       <c r="D494" s="3">
-        <f t="shared" ref="D494:D504" si="80">AVERAGE(C488:C494)</f>
+        <f t="shared" ref="D494:D506" si="80">AVERAGE(C488:C494)</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
@@ -26500,10 +26542,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505" s="2">
+        <v>2</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="80"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506" s="2">
+        <v>2</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="80"/>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -26536,8 +26592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="J499" sqref="J499"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="F506" sqref="F506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32868,7 +32924,7 @@
         <v>0</v>
       </c>
       <c r="D504" s="3">
-        <f t="shared" ref="D504" si="11">AVERAGE(C498:C504)</f>
+        <f t="shared" ref="D504:D506" si="11">AVERAGE(C498:C504)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -32876,10 +32932,24 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
+      <c r="C505" s="2">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <f t="shared" si="11"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>44404</v>
+      </c>
+      <c r="C506" s="2">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <f t="shared" si="11"/>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1081E43-991B-BF4E-A375-C556F984AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A018FAD-3DB2-6348-88A6-B8CC755D33D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="820" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="D507" sqref="D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D506" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D507" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7094,6 +7094,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>10</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="6"/>
+        <v>11.857142857142858</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -7122,7 +7129,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="C507" sqref="C507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13788,6 +13795,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="16">AVERAGE(C501:C507)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -13816,7 +13830,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:D506"/>
+      <selection activeCell="D507" sqref="D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20012,7 +20026,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D506" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D507" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20175,6 +20189,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507">
+        <v>4</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" si="7"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -20202,8 +20223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="C505" sqref="C505"/>
+    <sheetView topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="C507" sqref="C507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26565,6 +26586,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507" s="2">
+        <v>2</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="81">AVERAGE(C501:C507)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -26593,7 +26621,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="F506" sqref="F506"/>
+      <selection activeCell="C507" sqref="C507:D507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32924,7 +32952,7 @@
         <v>0</v>
       </c>
       <c r="D504" s="3">
-        <f t="shared" ref="D504:D506" si="11">AVERAGE(C498:C504)</f>
+        <f t="shared" ref="D504:D507" si="11">AVERAGE(C498:C504)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -32955,6 +32983,13 @@
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>44405</v>
+      </c>
+      <c r="C507" s="2">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <f t="shared" ref="D507" si="12">AVERAGE(C501:C507)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A018FAD-3DB2-6348-88A6-B8CC755D33D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2154C7-19CC-1649-B174-0CC3E772A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3080" yWindow="600" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J510"/>
   <sheetViews>
     <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="D507" sqref="D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D507" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D508" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7106,6 +7106,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>27</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="6"/>
+        <v>14.714285714285714</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -7129,7 +7136,7 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="C507" sqref="C507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13800,13 +13807,20 @@
         <v>0</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507" si="16">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D508" si="16">AVERAGE(C501:C507)</f>
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -13829,8 +13843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="D507" sqref="D507"/>
+    <sheetView topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20026,7 +20040,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D507" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D508" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20201,6 +20215,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508">
+        <v>5</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -20223,8 +20244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D510"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="C507" sqref="C507:D507"/>
+    <sheetView topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26591,13 +26612,20 @@
         <v>2</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507" si="81">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D508" si="81">AVERAGE(C501:C507)</f>
         <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508" s="2">
+        <v>4</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" si="81"/>
+        <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -26621,7 +26649,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C507" sqref="C507:D507"/>
+      <selection activeCell="A508" sqref="A508:D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32952,7 +32980,7 @@
         <v>0</v>
       </c>
       <c r="D504" s="3">
-        <f t="shared" ref="D504:D507" si="11">AVERAGE(C498:C504)</f>
+        <f t="shared" ref="D504:D506" si="11">AVERAGE(C498:C504)</f>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -32995,6 +33023,13 @@
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>44406</v>
+      </c>
+      <c r="C508" s="2">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <f t="shared" ref="D508" si="13">AVERAGE(C502:C508)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2154C7-19CC-1649-B174-0CC3E772A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42EA45C-AC77-1F4A-A60D-36237173E69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="600" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J510"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +453,7 @@
         <v>43900</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
@@ -463,7 +463,7 @@
         <v>43901</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>-1</v>
       </c>
       <c r="D3" s="2"/>
@@ -473,7 +473,7 @@
         <v>43902</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -483,7 +483,7 @@
         <v>43903</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
@@ -493,7 +493,7 @@
         <v>43904</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2"/>
@@ -503,7 +503,7 @@
         <v>43905</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2"/>
@@ -513,7 +513,7 @@
         <v>43906</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3">
@@ -527,7 +527,7 @@
         <v>43907</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
       <c r="D9" s="3">
@@ -541,7 +541,7 @@
         <v>43908</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="3">
@@ -555,7 +555,7 @@
         <v>43909</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
       <c r="D11" s="3">
@@ -569,7 +569,7 @@
         <v>43910</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
       <c r="D12" s="3">
@@ -583,7 +583,7 @@
         <v>43911</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="3">
@@ -597,7 +597,7 @@
         <v>43912</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>7</v>
       </c>
       <c r="D14" s="3">
@@ -611,7 +611,7 @@
         <v>43913</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="3">
@@ -625,7 +625,7 @@
         <v>43914</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="3">
@@ -639,7 +639,7 @@
         <v>43915</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="3">
@@ -653,7 +653,7 @@
         <v>43916</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="3">
@@ -667,7 +667,7 @@
         <v>43917</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>62</v>
       </c>
       <c r="D19" s="3">
@@ -681,7 +681,7 @@
         <v>43918</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="3">
@@ -695,7 +695,7 @@
         <v>43919</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>5</v>
       </c>
       <c r="D21" s="3">
@@ -709,7 +709,7 @@
         <v>43920</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>11</v>
       </c>
       <c r="D22" s="3">
@@ -723,7 +723,7 @@
         <v>43921</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="3">
@@ -737,7 +737,7 @@
         <v>43922</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="3">
@@ -751,7 +751,7 @@
         <v>43923</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>6</v>
       </c>
       <c r="D25" s="3">
@@ -765,7 +765,7 @@
         <v>43924</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>4</v>
       </c>
       <c r="D26" s="3">
@@ -779,7 +779,7 @@
         <v>43925</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="3">
@@ -793,7 +793,7 @@
         <v>43926</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>7</v>
       </c>
       <c r="D28" s="3">
@@ -807,7 +807,7 @@
         <v>43927</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="3">
@@ -821,7 +821,7 @@
         <v>43928</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="3">
@@ -835,7 +835,7 @@
         <v>43929</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>7</v>
       </c>
       <c r="D31" s="3">
@@ -849,7 +849,7 @@
         <v>43930</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>4</v>
       </c>
       <c r="D32" s="3">
@@ -863,7 +863,7 @@
         <v>43931</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="3">
@@ -877,7 +877,7 @@
         <v>43932</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>5</v>
       </c>
       <c r="D34" s="3">
@@ -891,7 +891,7 @@
         <v>43933</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="3">
@@ -905,7 +905,7 @@
         <v>43934</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="3">
@@ -919,7 +919,7 @@
         <v>43935</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="3">
@@ -933,7 +933,7 @@
         <v>43936</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>6</v>
       </c>
       <c r="D38" s="3">
@@ -947,7 +947,7 @@
         <v>43937</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>4</v>
       </c>
       <c r="D39" s="3">
@@ -961,7 +961,7 @@
         <v>43938</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="3">
@@ -975,7 +975,7 @@
         <v>43939</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="3">
@@ -989,7 +989,7 @@
         <v>43940</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="3">
@@ -1003,7 +1003,7 @@
         <v>43941</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="3">
@@ -1017,7 +1017,7 @@
         <v>43942</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0</v>
       </c>
       <c r="D44" s="3">
@@ -1031,7 +1031,7 @@
         <v>43943</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0</v>
       </c>
       <c r="D45" s="3">
@@ -1045,7 +1045,7 @@
         <v>43944</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>4</v>
       </c>
       <c r="D46" s="3">
@@ -1059,7 +1059,7 @@
         <v>43945</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="3">
@@ -1073,7 +1073,7 @@
         <v>43946</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="3">
@@ -1087,7 +1087,7 @@
         <v>43947</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="3">
@@ -1101,7 +1101,7 @@
         <v>43948</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>3</v>
       </c>
       <c r="D50" s="3">
@@ -1115,7 +1115,7 @@
         <v>43949</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0</v>
       </c>
       <c r="D51" s="3">
@@ -1129,7 +1129,7 @@
         <v>43950</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="3">
@@ -1143,7 +1143,7 @@
         <v>43951</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="3">
@@ -1157,7 +1157,7 @@
         <v>43952</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="3">
@@ -1171,7 +1171,7 @@
         <v>43953</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>0</v>
       </c>
       <c r="D55" s="3">
@@ -1185,7 +1185,7 @@
         <v>43954</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>0</v>
       </c>
       <c r="D56" s="3">
@@ -1199,7 +1199,7 @@
         <v>43955</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" s="3">
@@ -1213,7 +1213,7 @@
         <v>43956</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>0</v>
       </c>
       <c r="D58" s="3">
@@ -1227,7 +1227,7 @@
         <v>43957</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" s="3">
@@ -1241,7 +1241,7 @@
         <v>43958</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" s="3">
@@ -1255,7 +1255,7 @@
         <v>43959</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>0</v>
       </c>
       <c r="D61" s="3">
@@ -1269,7 +1269,7 @@
         <v>43960</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="3">
@@ -1283,7 +1283,7 @@
         <v>43961</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>0</v>
       </c>
       <c r="D63" s="3">
@@ -1297,7 +1297,7 @@
         <v>43962</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" s="3">
@@ -1311,7 +1311,7 @@
         <v>43963</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>0</v>
       </c>
       <c r="D65" s="3">
@@ -1325,7 +1325,7 @@
         <v>43964</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>0</v>
       </c>
       <c r="D66" s="3">
@@ -1339,7 +1339,7 @@
         <v>43965</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>0</v>
       </c>
       <c r="D67" s="3">
@@ -1353,7 +1353,7 @@
         <v>43966</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>0</v>
       </c>
       <c r="D68" s="3">
@@ -1367,7 +1367,7 @@
         <v>43967</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>0</v>
       </c>
       <c r="D69" s="3">
@@ -1381,7 +1381,7 @@
         <v>43968</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>0</v>
       </c>
       <c r="D70" s="3">
@@ -1395,7 +1395,7 @@
         <v>43969</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>0</v>
       </c>
       <c r="D71" s="3">
@@ -1409,7 +1409,7 @@
         <v>43970</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>1</v>
       </c>
       <c r="D72" s="3">
@@ -1423,7 +1423,7 @@
         <v>43971</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>1</v>
       </c>
       <c r="D73" s="3">
@@ -1437,7 +1437,7 @@
         <v>43972</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>0</v>
       </c>
       <c r="D74" s="3">
@@ -1451,7 +1451,7 @@
         <v>43973</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>1</v>
       </c>
       <c r="D75" s="3">
@@ -1465,7 +1465,7 @@
         <v>43974</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>0</v>
       </c>
       <c r="D76" s="3">
@@ -1479,7 +1479,7 @@
         <v>43975</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>0</v>
       </c>
       <c r="D77" s="3">
@@ -1493,7 +1493,7 @@
         <v>43976</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>0</v>
       </c>
       <c r="D78" s="3">
@@ -1507,7 +1507,7 @@
         <v>43977</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>0</v>
       </c>
       <c r="D79" s="3">
@@ -1521,7 +1521,7 @@
         <v>43978</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>0</v>
       </c>
       <c r="D80" s="3">
@@ -1535,7 +1535,7 @@
         <v>43979</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>0</v>
       </c>
       <c r="D81" s="3">
@@ -1549,7 +1549,7 @@
         <v>43980</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="3">
@@ -1563,7 +1563,7 @@
         <v>43981</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>0</v>
       </c>
       <c r="D83" s="3">
@@ -1577,7 +1577,7 @@
         <v>43982</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="3">
@@ -1591,7 +1591,7 @@
         <v>43983</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="3">
@@ -1605,7 +1605,7 @@
         <v>43984</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="3">
@@ -1619,7 +1619,7 @@
         <v>43985</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="3">
@@ -1633,7 +1633,7 @@
         <v>43986</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="3">
@@ -1647,7 +1647,7 @@
         <v>43987</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="3">
@@ -1661,7 +1661,7 @@
         <v>43988</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>0</v>
       </c>
       <c r="D90" s="3">
@@ -1675,7 +1675,7 @@
         <v>43989</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="3">
@@ -1689,7 +1689,7 @@
         <v>43990</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="3">
@@ -1703,7 +1703,7 @@
         <v>43991</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="3">
@@ -1717,7 +1717,7 @@
         <v>43992</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>0</v>
       </c>
       <c r="D94" s="3">
@@ -1731,7 +1731,7 @@
         <v>43993</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>0</v>
       </c>
       <c r="D95" s="3">
@@ -1745,7 +1745,7 @@
         <v>43994</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>0</v>
       </c>
       <c r="D96" s="3">
@@ -1759,7 +1759,7 @@
         <v>43995</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>0</v>
       </c>
       <c r="D97" s="3">
@@ -1773,7 +1773,7 @@
         <v>43996</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>0</v>
       </c>
       <c r="D98" s="3">
@@ -1787,7 +1787,7 @@
         <v>43997</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>0</v>
       </c>
       <c r="D99" s="3">
@@ -1801,7 +1801,7 @@
         <v>43998</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>0</v>
       </c>
       <c r="D100" s="3">
@@ -1815,7 +1815,7 @@
         <v>43999</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>0</v>
       </c>
       <c r="D101" s="3">
@@ -1829,7 +1829,7 @@
         <v>44000</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>0</v>
       </c>
       <c r="D102" s="3">
@@ -1843,7 +1843,7 @@
         <v>44001</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>0</v>
       </c>
       <c r="D103" s="3">
@@ -1857,7 +1857,7 @@
         <v>44002</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>0</v>
       </c>
       <c r="D104" s="3">
@@ -1871,7 +1871,7 @@
         <v>44003</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>0</v>
       </c>
       <c r="D105" s="3">
@@ -1885,7 +1885,7 @@
         <v>44004</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106">
+      <c r="C106" s="2">
         <v>0</v>
       </c>
       <c r="D106" s="3">
@@ -1899,7 +1899,7 @@
         <v>44005</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107">
+      <c r="C107" s="2">
         <v>0</v>
       </c>
       <c r="D107" s="3">
@@ -1913,7 +1913,7 @@
         <v>44006</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108">
+      <c r="C108" s="2">
         <v>0</v>
       </c>
       <c r="D108" s="3">
@@ -1927,7 +1927,7 @@
         <v>44007</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>0</v>
       </c>
       <c r="D109" s="3">
@@ -1941,7 +1941,7 @@
         <v>44008</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>0</v>
       </c>
       <c r="D110" s="3">
@@ -1955,7 +1955,7 @@
         <v>44009</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>0</v>
       </c>
       <c r="D111" s="3">
@@ -1969,7 +1969,7 @@
         <v>44010</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>0</v>
       </c>
       <c r="D112" s="3">
@@ -1983,7 +1983,7 @@
         <v>44011</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>0</v>
       </c>
       <c r="D113" s="3">
@@ -1997,7 +1997,7 @@
         <v>44012</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>0</v>
       </c>
       <c r="D114" s="3">
@@ -2011,7 +2011,7 @@
         <v>44013</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>0</v>
       </c>
       <c r="D115" s="3">
@@ -2025,7 +2025,7 @@
         <v>44014</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>0</v>
       </c>
       <c r="D116" s="3">
@@ -2039,7 +2039,7 @@
         <v>44015</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>0</v>
       </c>
       <c r="D117" s="3">
@@ -2053,7 +2053,7 @@
         <v>44016</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>0</v>
       </c>
       <c r="D118" s="3">
@@ -2067,7 +2067,7 @@
         <v>44017</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>0</v>
       </c>
       <c r="D119" s="3">
@@ -2081,7 +2081,7 @@
         <v>44018</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120">
+      <c r="C120" s="2">
         <v>0</v>
       </c>
       <c r="D120" s="3">
@@ -2095,7 +2095,7 @@
         <v>44019</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121">
+      <c r="C121" s="2">
         <v>0</v>
       </c>
       <c r="D121" s="3">
@@ -2109,7 +2109,7 @@
         <v>44020</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="C122">
+      <c r="C122" s="2">
         <v>0</v>
       </c>
       <c r="D122" s="3">
@@ -2123,7 +2123,7 @@
         <v>44021</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>0</v>
       </c>
       <c r="D123" s="3">
@@ -2137,7 +2137,7 @@
         <v>44022</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124">
+      <c r="C124" s="2">
         <v>0</v>
       </c>
       <c r="D124" s="3">
@@ -2151,7 +2151,7 @@
         <v>44023</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125">
+      <c r="C125" s="2">
         <v>0</v>
       </c>
       <c r="D125" s="3">
@@ -2165,7 +2165,7 @@
         <v>44024</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126">
+      <c r="C126" s="2">
         <v>1</v>
       </c>
       <c r="D126" s="3">
@@ -2179,7 +2179,7 @@
         <v>44025</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127">
+      <c r="C127" s="2">
         <v>0</v>
       </c>
       <c r="D127" s="3">
@@ -2193,7 +2193,7 @@
         <v>44026</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>0</v>
       </c>
       <c r="D128" s="3">
@@ -2207,7 +2207,7 @@
         <v>44027</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>0</v>
       </c>
       <c r="D129" s="3">
@@ -2221,7 +2221,7 @@
         <v>44028</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>0</v>
       </c>
       <c r="D130" s="3">
@@ -2235,7 +2235,7 @@
         <v>44029</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>1</v>
       </c>
       <c r="D131" s="3">
@@ -2249,7 +2249,7 @@
         <v>44030</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>1</v>
       </c>
       <c r="D132" s="3">
@@ -2263,7 +2263,7 @@
         <v>44031</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>0</v>
       </c>
       <c r="D133" s="3">
@@ -2277,7 +2277,7 @@
         <v>44032</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>0</v>
       </c>
       <c r="D134" s="3">
@@ -2291,7 +2291,7 @@
         <v>44033</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>0</v>
       </c>
       <c r="D135" s="3">
@@ -2305,7 +2305,7 @@
         <v>44034</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>0</v>
       </c>
       <c r="D136" s="3">
@@ -2319,7 +2319,7 @@
         <v>44035</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>0</v>
       </c>
       <c r="D137" s="3">
@@ -2333,7 +2333,7 @@
         <v>44036</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>0</v>
       </c>
       <c r="D138" s="3">
@@ -2347,7 +2347,7 @@
         <v>44037</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>0</v>
       </c>
       <c r="D139" s="3">
@@ -2361,7 +2361,7 @@
         <v>44038</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>0</v>
       </c>
       <c r="D140" s="3">
@@ -2375,7 +2375,7 @@
         <v>44039</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>0</v>
       </c>
       <c r="D141" s="3">
@@ -2389,7 +2389,7 @@
         <v>44040</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>0</v>
       </c>
       <c r="D142" s="3">
@@ -2403,7 +2403,7 @@
         <v>44041</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143">
+      <c r="C143" s="2">
         <v>0</v>
       </c>
       <c r="D143" s="3">
@@ -2417,7 +2417,7 @@
         <v>44042</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>0</v>
       </c>
       <c r="D144" s="3">
@@ -2431,7 +2431,7 @@
         <v>44043</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>0</v>
       </c>
       <c r="D145" s="3">
@@ -2445,7 +2445,7 @@
         <v>44044</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>0</v>
       </c>
       <c r="D146" s="3">
@@ -2459,7 +2459,7 @@
         <v>44045</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>0</v>
       </c>
       <c r="D147" s="3">
@@ -2473,7 +2473,7 @@
         <v>44046</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>0</v>
       </c>
       <c r="D148" s="3">
@@ -2487,7 +2487,7 @@
         <v>44047</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>0</v>
       </c>
       <c r="D149" s="3">
@@ -2501,7 +2501,7 @@
         <v>44048</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>1</v>
       </c>
       <c r="D150" s="3">
@@ -2515,7 +2515,7 @@
         <v>44049</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151">
+      <c r="C151" s="2">
         <v>0</v>
       </c>
       <c r="D151" s="3">
@@ -2529,7 +2529,7 @@
         <v>44050</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>0</v>
       </c>
       <c r="D152" s="3">
@@ -2543,7 +2543,7 @@
         <v>44051</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>0</v>
       </c>
       <c r="D153" s="3">
@@ -2557,7 +2557,7 @@
         <v>44052</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>0</v>
       </c>
       <c r="D154" s="3">
@@ -2571,7 +2571,7 @@
         <v>44053</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>0</v>
       </c>
       <c r="D155" s="3">
@@ -2585,7 +2585,7 @@
         <v>44054</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>0</v>
       </c>
       <c r="D156" s="3">
@@ -2599,7 +2599,7 @@
         <v>44055</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>0</v>
       </c>
       <c r="D157" s="3">
@@ -2613,7 +2613,7 @@
         <v>44056</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>2</v>
       </c>
       <c r="D158" s="3">
@@ -2627,7 +2627,7 @@
         <v>44057</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>2</v>
       </c>
       <c r="D159" s="3">
@@ -2641,7 +2641,7 @@
         <v>44058</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>2</v>
       </c>
       <c r="D160" s="3">
@@ -2655,7 +2655,7 @@
         <v>44059</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>0</v>
       </c>
       <c r="D161" s="3">
@@ -2669,7 +2669,7 @@
         <v>44060</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>0</v>
       </c>
       <c r="D162" s="3">
@@ -2683,7 +2683,7 @@
         <v>44061</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>0</v>
       </c>
       <c r="D163" s="3">
@@ -2697,7 +2697,7 @@
         <v>44062</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>1</v>
       </c>
       <c r="D164" s="3">
@@ -2711,7 +2711,7 @@
         <v>44063</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165">
+      <c r="C165" s="2">
         <v>0</v>
       </c>
       <c r="D165" s="3">
@@ -2725,7 +2725,7 @@
         <v>44064</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>0</v>
       </c>
       <c r="D166" s="3">
@@ -2739,7 +2739,7 @@
         <v>44065</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>1</v>
       </c>
       <c r="D167" s="3">
@@ -2753,7 +2753,7 @@
         <v>44066</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>0</v>
       </c>
       <c r="D168" s="3">
@@ -2767,7 +2767,7 @@
         <v>44067</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>0</v>
       </c>
       <c r="D169" s="3">
@@ -2781,7 +2781,7 @@
         <v>44068</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>0</v>
       </c>
       <c r="D170" s="3">
@@ -2795,7 +2795,7 @@
         <v>44069</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>1</v>
       </c>
       <c r="D171" s="3">
@@ -2809,7 +2809,7 @@
         <v>44070</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172">
+      <c r="C172" s="2">
         <v>0</v>
       </c>
       <c r="D172" s="3">
@@ -2823,7 +2823,7 @@
         <v>44071</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173">
+      <c r="C173" s="2">
         <v>0</v>
       </c>
       <c r="D173" s="3">
@@ -2837,7 +2837,7 @@
         <v>44072</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174">
+      <c r="C174" s="2">
         <v>0</v>
       </c>
       <c r="D174" s="3">
@@ -2851,7 +2851,7 @@
         <v>44073</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175">
+      <c r="C175" s="2">
         <v>0</v>
       </c>
       <c r="D175" s="3">
@@ -2865,7 +2865,7 @@
         <v>44074</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176">
+      <c r="C176" s="2">
         <v>0</v>
       </c>
       <c r="D176" s="3">
@@ -2879,7 +2879,7 @@
         <v>44075</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177">
+      <c r="C177" s="2">
         <v>1</v>
       </c>
       <c r="D177" s="3">
@@ -2893,7 +2893,7 @@
         <v>44076</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>0</v>
       </c>
       <c r="D178" s="3">
@@ -2907,7 +2907,7 @@
         <v>44077</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>0</v>
       </c>
       <c r="D179" s="3">
@@ -2921,7 +2921,7 @@
         <v>44078</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>1</v>
       </c>
       <c r="D180" s="3">
@@ -2935,7 +2935,7 @@
         <v>44079</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181">
+      <c r="C181" s="2">
         <v>2</v>
       </c>
       <c r="D181" s="3">
@@ -2949,7 +2949,7 @@
         <v>44080</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>9</v>
       </c>
       <c r="D182" s="3">
@@ -2963,7 +2963,7 @@
         <v>44081</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>5</v>
       </c>
       <c r="D183" s="3">
@@ -2977,7 +2977,7 @@
         <v>44082</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>3</v>
       </c>
       <c r="D184" s="3">
@@ -2991,7 +2991,7 @@
         <v>44083</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>1</v>
       </c>
       <c r="D185" s="3">
@@ -3005,7 +3005,7 @@
         <v>44084</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186">
+      <c r="C186" s="2">
         <v>0</v>
       </c>
       <c r="D186" s="3">
@@ -3019,7 +3019,7 @@
         <v>44085</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>2</v>
       </c>
       <c r="D187" s="3">
@@ -3033,7 +3033,7 @@
         <v>44086</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>2</v>
       </c>
       <c r="D188" s="3">
@@ -3047,7 +3047,7 @@
         <v>44087</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>0</v>
       </c>
       <c r="D189" s="3">
@@ -3061,7 +3061,7 @@
         <v>44088</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>0</v>
       </c>
       <c r="D190" s="3">
@@ -3075,7 +3075,7 @@
         <v>44089</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>2</v>
       </c>
       <c r="D191" s="3">
@@ -3089,7 +3089,7 @@
         <v>44090</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>2</v>
       </c>
       <c r="D192" s="3">
@@ -3103,7 +3103,7 @@
         <v>44091</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>2</v>
       </c>
       <c r="D193" s="3">
@@ -3117,7 +3117,7 @@
         <v>44092</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="C194">
+      <c r="C194" s="2">
         <v>7</v>
       </c>
       <c r="D194" s="3">
@@ -3131,7 +3131,7 @@
         <v>44093</v>
       </c>
       <c r="B195" s="2"/>
-      <c r="C195">
+      <c r="C195" s="2">
         <v>10</v>
       </c>
       <c r="D195" s="3">
@@ -3145,7 +3145,7 @@
         <v>44094</v>
       </c>
       <c r="B196" s="2"/>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>6</v>
       </c>
       <c r="D196" s="3">
@@ -3159,7 +3159,7 @@
         <v>44095</v>
       </c>
       <c r="B197" s="2"/>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>3</v>
       </c>
       <c r="D197" s="3">
@@ -3173,7 +3173,7 @@
         <v>44096</v>
       </c>
       <c r="B198" s="2"/>
-      <c r="C198">
+      <c r="C198" s="2">
         <v>4</v>
       </c>
       <c r="D198" s="3">
@@ -3187,7 +3187,7 @@
         <v>44097</v>
       </c>
       <c r="B199" s="2"/>
-      <c r="C199">
+      <c r="C199" s="2">
         <v>4</v>
       </c>
       <c r="D199" s="3">
@@ -3201,7 +3201,7 @@
         <v>44098</v>
       </c>
       <c r="B200" s="2"/>
-      <c r="C200">
+      <c r="C200" s="2">
         <v>1</v>
       </c>
       <c r="D200" s="3">
@@ -3215,7 +3215,7 @@
         <v>44099</v>
       </c>
       <c r="B201" s="2"/>
-      <c r="C201">
+      <c r="C201" s="2">
         <v>3</v>
       </c>
       <c r="D201" s="3">
@@ -3229,7 +3229,7 @@
         <v>44100</v>
       </c>
       <c r="B202" s="2"/>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>8</v>
       </c>
       <c r="D202" s="3">
@@ -3243,7 +3243,7 @@
         <v>44101</v>
       </c>
       <c r="B203" s="2"/>
-      <c r="C203">
+      <c r="C203" s="2">
         <v>1</v>
       </c>
       <c r="D203" s="3">
@@ -3257,7 +3257,7 @@
         <v>44102</v>
       </c>
       <c r="B204" s="2"/>
-      <c r="C204">
+      <c r="C204" s="2">
         <v>3</v>
       </c>
       <c r="D204" s="3">
@@ -3271,7 +3271,7 @@
         <v>44103</v>
       </c>
       <c r="B205" s="2"/>
-      <c r="C205">
+      <c r="C205" s="2">
         <v>5</v>
       </c>
       <c r="D205" s="3">
@@ -3285,7 +3285,7 @@
         <v>44104</v>
       </c>
       <c r="B206" s="2"/>
-      <c r="C206">
+      <c r="C206" s="2">
         <v>5</v>
       </c>
       <c r="D206" s="3">
@@ -3299,7 +3299,7 @@
         <v>44105</v>
       </c>
       <c r="B207" s="2"/>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>14</v>
       </c>
       <c r="D207" s="3">
@@ -3313,7 +3313,7 @@
         <v>44106</v>
       </c>
       <c r="B208" s="2"/>
-      <c r="C208">
+      <c r="C208" s="2">
         <v>7</v>
       </c>
       <c r="D208" s="3">
@@ -3327,7 +3327,7 @@
         <v>44107</v>
       </c>
       <c r="B209" s="2"/>
-      <c r="C209">
+      <c r="C209" s="2">
         <v>1</v>
       </c>
       <c r="D209" s="3">
@@ -3341,7 +3341,7 @@
         <v>44108</v>
       </c>
       <c r="B210" s="2"/>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>1</v>
       </c>
       <c r="D210" s="3">
@@ -3355,7 +3355,7 @@
         <v>44109</v>
       </c>
       <c r="B211" s="2"/>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>4</v>
       </c>
       <c r="D211" s="3">
@@ -3369,7 +3369,7 @@
         <v>44110</v>
       </c>
       <c r="B212" s="2"/>
-      <c r="C212">
+      <c r="C212" s="2">
         <v>0</v>
       </c>
       <c r="D212" s="3">
@@ -3383,7 +3383,7 @@
         <v>44111</v>
       </c>
       <c r="B213" s="2"/>
-      <c r="C213">
+      <c r="C213" s="2">
         <v>2</v>
       </c>
       <c r="D213" s="3">
@@ -3397,7 +3397,7 @@
         <v>44112</v>
       </c>
       <c r="B214" s="2"/>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>2</v>
       </c>
       <c r="D214" s="3">
@@ -3411,7 +3411,7 @@
         <v>44113</v>
       </c>
       <c r="B215" s="2"/>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>2</v>
       </c>
       <c r="D215" s="3">
@@ -3425,7 +3425,7 @@
         <v>44114</v>
       </c>
       <c r="B216" s="2"/>
-      <c r="C216">
+      <c r="C216" s="2">
         <v>5</v>
       </c>
       <c r="D216" s="3">
@@ -3439,7 +3439,7 @@
         <v>44115</v>
       </c>
       <c r="B217" s="2"/>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>5</v>
       </c>
       <c r="D217" s="3">
@@ -3453,7 +3453,7 @@
         <v>44116</v>
       </c>
       <c r="B218" s="2"/>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>1</v>
       </c>
       <c r="D218" s="3">
@@ -3467,7 +3467,7 @@
         <v>44117</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>13</v>
       </c>
       <c r="D219" s="3">
@@ -3481,7 +3481,7 @@
         <v>44118</v>
       </c>
       <c r="B220" s="2"/>
-      <c r="C220">
+      <c r="C220" s="2">
         <v>9</v>
       </c>
       <c r="D220" s="3">
@@ -3495,7 +3495,7 @@
         <v>44119</v>
       </c>
       <c r="B221" s="2"/>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" s="3">
@@ -3509,7 +3509,7 @@
         <v>44120</v>
       </c>
       <c r="B222" s="2"/>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>24</v>
       </c>
       <c r="D222" s="3">
@@ -3523,7 +3523,7 @@
         <v>44121</v>
       </c>
       <c r="B223" s="2"/>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>9</v>
       </c>
       <c r="D223" s="3">
@@ -3537,7 +3537,7 @@
         <v>44122</v>
       </c>
       <c r="B224" s="2"/>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>3</v>
       </c>
       <c r="D224" s="3">
@@ -3551,7 +3551,7 @@
         <v>44123</v>
       </c>
       <c r="B225" s="2"/>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>3</v>
       </c>
       <c r="D225" s="3">
@@ -3565,7 +3565,7 @@
         <v>44124</v>
       </c>
       <c r="B226" s="2"/>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>10</v>
       </c>
       <c r="D226" s="3">
@@ -3579,7 +3579,7 @@
         <v>44125</v>
       </c>
       <c r="B227" s="2"/>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>25</v>
       </c>
       <c r="D227" s="3">
@@ -3593,7 +3593,7 @@
         <v>44126</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228">
+      <c r="C228" s="2">
         <v>29</v>
       </c>
       <c r="D228" s="3">
@@ -3607,7 +3607,7 @@
         <v>44127</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229">
+      <c r="C229" s="2">
         <v>14</v>
       </c>
       <c r="D229" s="3">
@@ -3621,7 +3621,7 @@
         <v>44128</v>
       </c>
       <c r="B230" s="2"/>
-      <c r="C230">
+      <c r="C230" s="2">
         <v>10</v>
       </c>
       <c r="D230" s="3">
@@ -3635,7 +3635,7 @@
         <v>44129</v>
       </c>
       <c r="B231" s="2"/>
-      <c r="C231">
+      <c r="C231" s="2">
         <v>11</v>
       </c>
       <c r="D231" s="3">
@@ -3649,7 +3649,7 @@
         <v>44130</v>
       </c>
       <c r="B232" s="2"/>
-      <c r="C232">
+      <c r="C232" s="2">
         <v>18</v>
       </c>
       <c r="D232" s="3">
@@ -3663,7 +3663,7 @@
         <v>44131</v>
       </c>
       <c r="B233" s="2"/>
-      <c r="C233">
+      <c r="C233" s="2">
         <v>32</v>
       </c>
       <c r="D233" s="3">
@@ -3677,7 +3677,7 @@
         <v>44132</v>
       </c>
       <c r="B234" s="2"/>
-      <c r="C234">
+      <c r="C234" s="2">
         <v>57</v>
       </c>
       <c r="D234" s="3">
@@ -3691,7 +3691,7 @@
         <v>44133</v>
       </c>
       <c r="B235" s="2"/>
-      <c r="C235">
+      <c r="C235" s="2">
         <v>48</v>
       </c>
       <c r="D235" s="3">
@@ -3705,7 +3705,7 @@
         <v>44134</v>
       </c>
       <c r="B236" s="2"/>
-      <c r="C236">
+      <c r="C236" s="2">
         <v>63</v>
       </c>
       <c r="D236" s="3">
@@ -3719,7 +3719,7 @@
         <v>44135</v>
       </c>
       <c r="B237" s="2"/>
-      <c r="C237">
+      <c r="C237" s="2">
         <v>59</v>
       </c>
       <c r="D237" s="3">
@@ -3733,7 +3733,7 @@
         <v>44136</v>
       </c>
       <c r="B238" s="2"/>
-      <c r="C238">
+      <c r="C238" s="2">
         <v>27</v>
       </c>
       <c r="D238" s="3">
@@ -3747,7 +3747,7 @@
         <v>44137</v>
       </c>
       <c r="B239" s="2"/>
-      <c r="C239">
+      <c r="C239" s="2">
         <v>35</v>
       </c>
       <c r="D239" s="3">
@@ -3761,7 +3761,7 @@
         <v>44138</v>
       </c>
       <c r="B240" s="2"/>
-      <c r="C240">
+      <c r="C240" s="2">
         <v>40</v>
       </c>
       <c r="D240" s="3">
@@ -3775,7 +3775,7 @@
         <v>44139</v>
       </c>
       <c r="B241" s="2"/>
-      <c r="C241">
+      <c r="C241" s="2">
         <v>44</v>
       </c>
       <c r="D241" s="3">
@@ -3789,7 +3789,7 @@
         <v>44140</v>
       </c>
       <c r="B242" s="2"/>
-      <c r="C242">
+      <c r="C242" s="2">
         <v>77</v>
       </c>
       <c r="D242" s="3">
@@ -3803,7 +3803,7 @@
         <v>44141</v>
       </c>
       <c r="B243" s="2"/>
-      <c r="C243">
+      <c r="C243" s="2">
         <v>34</v>
       </c>
       <c r="D243" s="3">
@@ -3817,7 +3817,7 @@
         <v>44142</v>
       </c>
       <c r="B244" s="2"/>
-      <c r="C244">
+      <c r="C244" s="2">
         <v>62</v>
       </c>
       <c r="D244" s="3">
@@ -3831,7 +3831,7 @@
         <v>44143</v>
       </c>
       <c r="B245" s="2"/>
-      <c r="C245">
+      <c r="C245" s="2">
         <v>64</v>
       </c>
       <c r="D245" s="3">
@@ -3845,7 +3845,7 @@
         <v>44144</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246">
+      <c r="C246" s="2">
         <v>18</v>
       </c>
       <c r="D246" s="3">
@@ -3859,7 +3859,7 @@
         <v>44145</v>
       </c>
       <c r="B247" s="2"/>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>44</v>
       </c>
       <c r="D247" s="3">
@@ -3873,7 +3873,7 @@
         <v>44146</v>
       </c>
       <c r="B248" s="2"/>
-      <c r="C248">
+      <c r="C248" s="2">
         <v>84</v>
       </c>
       <c r="D248" s="3">
@@ -3887,7 +3887,7 @@
         <v>44147</v>
       </c>
       <c r="B249" s="2"/>
-      <c r="C249">
+      <c r="C249" s="2">
         <v>71</v>
       </c>
       <c r="D249" s="3">
@@ -3901,7 +3901,7 @@
         <v>44148</v>
       </c>
       <c r="B250" s="2"/>
-      <c r="C250">
+      <c r="C250" s="2">
         <v>61</v>
       </c>
       <c r="D250" s="3">
@@ -3915,7 +3915,7 @@
         <v>44149</v>
       </c>
       <c r="B251" s="2"/>
-      <c r="C251">
+      <c r="C251" s="2">
         <v>98</v>
       </c>
       <c r="D251" s="3">
@@ -3929,7 +3929,7 @@
         <v>44150</v>
       </c>
       <c r="B252" s="2"/>
-      <c r="C252">
+      <c r="C252" s="2">
         <v>36</v>
       </c>
       <c r="D252" s="3">
@@ -3943,7 +3943,7 @@
         <v>44151</v>
       </c>
       <c r="B253" s="2"/>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>38</v>
       </c>
       <c r="D253" s="3">
@@ -3957,7 +3957,7 @@
         <v>44152</v>
       </c>
       <c r="B254" s="2"/>
-      <c r="C254">
+      <c r="C254" s="2">
         <v>50</v>
       </c>
       <c r="D254" s="3">
@@ -3971,7 +3971,7 @@
         <v>44153</v>
       </c>
       <c r="B255" s="2"/>
-      <c r="C255">
+      <c r="C255" s="2">
         <v>200</v>
       </c>
       <c r="D255" s="3">
@@ -3985,7 +3985,7 @@
         <v>44154</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256">
+      <c r="C256" s="2">
         <v>77</v>
       </c>
       <c r="D256" s="3">
@@ -3999,7 +3999,7 @@
         <v>44155</v>
       </c>
       <c r="B257" s="2"/>
-      <c r="C257">
+      <c r="C257" s="2">
         <v>53</v>
       </c>
       <c r="D257" s="3">
@@ -4013,7 +4013,7 @@
         <v>44156</v>
       </c>
       <c r="B258" s="2"/>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>38</v>
       </c>
       <c r="D258" s="3">
@@ -4027,7 +4027,7 @@
         <v>44157</v>
       </c>
       <c r="B259" s="2"/>
-      <c r="C259">
+      <c r="C259" s="2">
         <v>59</v>
       </c>
       <c r="D259" s="3">
@@ -4041,7 +4041,7 @@
         <v>44158</v>
       </c>
       <c r="B260" s="2"/>
-      <c r="C260">
+      <c r="C260" s="2">
         <v>19</v>
       </c>
       <c r="D260" s="3">
@@ -4055,7 +4055,7 @@
         <v>44159</v>
       </c>
       <c r="B261" s="2"/>
-      <c r="C261">
+      <c r="C261" s="2">
         <v>36</v>
       </c>
       <c r="D261" s="3">
@@ -4069,7 +4069,7 @@
         <v>44160</v>
       </c>
       <c r="B262" s="2"/>
-      <c r="C262">
+      <c r="C262" s="2">
         <v>46</v>
       </c>
       <c r="D262" s="3">
@@ -4083,7 +4083,7 @@
         <v>44161</v>
       </c>
       <c r="B263" s="2"/>
-      <c r="C263">
+      <c r="C263" s="2">
         <v>61</v>
       </c>
       <c r="D263" s="3">
@@ -4097,7 +4097,7 @@
         <v>44162</v>
       </c>
       <c r="B264" s="2"/>
-      <c r="C264">
+      <c r="C264" s="2">
         <v>51</v>
       </c>
       <c r="D264" s="3">
@@ -4111,7 +4111,7 @@
         <v>44163</v>
       </c>
       <c r="B265" s="2"/>
-      <c r="C265">
+      <c r="C265" s="2">
         <v>49</v>
       </c>
       <c r="D265" s="3">
@@ -4125,7 +4125,7 @@
         <v>44164</v>
       </c>
       <c r="B266" s="2"/>
-      <c r="C266">
+      <c r="C266" s="2">
         <v>29</v>
       </c>
       <c r="D266" s="3">
@@ -4139,7 +4139,7 @@
         <v>44165</v>
       </c>
       <c r="B267" s="2"/>
-      <c r="C267">
+      <c r="C267" s="2">
         <v>13</v>
       </c>
       <c r="D267" s="3">
@@ -4153,7 +4153,7 @@
         <v>44166</v>
       </c>
       <c r="B268" s="2"/>
-      <c r="C268">
+      <c r="C268" s="2">
         <v>28</v>
       </c>
       <c r="D268" s="3">
@@ -4167,7 +4167,7 @@
         <v>44167</v>
       </c>
       <c r="B269" s="2"/>
-      <c r="C269">
+      <c r="C269" s="2">
         <v>42</v>
       </c>
       <c r="D269" s="3">
@@ -4181,7 +4181,7 @@
         <v>44168</v>
       </c>
       <c r="B270" s="2"/>
-      <c r="C270">
+      <c r="C270" s="2">
         <v>35</v>
       </c>
       <c r="D270" s="3">
@@ -4195,7 +4195,7 @@
         <v>44169</v>
       </c>
       <c r="B271" s="2"/>
-      <c r="C271">
+      <c r="C271" s="2">
         <v>32</v>
       </c>
       <c r="D271" s="3">
@@ -4209,7 +4209,7 @@
         <v>44170</v>
       </c>
       <c r="B272" s="2"/>
-      <c r="C272">
+      <c r="C272" s="2">
         <v>28</v>
       </c>
       <c r="D272" s="3">
@@ -4223,7 +4223,7 @@
         <v>44171</v>
       </c>
       <c r="B273" s="2"/>
-      <c r="C273">
+      <c r="C273" s="2">
         <v>27</v>
       </c>
       <c r="D273" s="3">
@@ -4237,7 +4237,7 @@
         <v>44172</v>
       </c>
       <c r="B274" s="2"/>
-      <c r="C274">
+      <c r="C274" s="2">
         <v>0</v>
       </c>
       <c r="D274" s="3">
@@ -4251,7 +4251,7 @@
         <v>44173</v>
       </c>
       <c r="B275" s="2"/>
-      <c r="C275">
+      <c r="C275" s="2">
         <v>30</v>
       </c>
       <c r="D275" s="3">
@@ -4265,7 +4265,7 @@
         <v>44174</v>
       </c>
       <c r="B276" s="2"/>
-      <c r="C276">
+      <c r="C276" s="2">
         <v>13</v>
       </c>
       <c r="D276" s="3">
@@ -4279,7 +4279,7 @@
         <v>44175</v>
       </c>
       <c r="B277" s="2"/>
-      <c r="C277">
+      <c r="C277" s="2">
         <v>22</v>
       </c>
       <c r="D277" s="3">
@@ -4293,7 +4293,7 @@
         <v>44176</v>
       </c>
       <c r="B278" s="2"/>
-      <c r="C278">
+      <c r="C278" s="2">
         <v>34</v>
       </c>
       <c r="D278" s="3">
@@ -4307,7 +4307,7 @@
         <v>44177</v>
       </c>
       <c r="B279" s="2"/>
-      <c r="C279">
+      <c r="C279" s="2">
         <v>30</v>
       </c>
       <c r="D279" s="3">
@@ -4321,7 +4321,7 @@
         <v>44178</v>
       </c>
       <c r="B280" s="2"/>
-      <c r="C280">
+      <c r="C280" s="2">
         <v>7</v>
       </c>
       <c r="D280" s="3">
@@ -4335,7 +4335,7 @@
         <v>44179</v>
       </c>
       <c r="B281" s="2"/>
-      <c r="C281">
+      <c r="C281" s="2">
         <v>17</v>
       </c>
       <c r="D281" s="3">
@@ -4349,7 +4349,7 @@
         <v>44180</v>
       </c>
       <c r="B282" s="2"/>
-      <c r="C282">
+      <c r="C282" s="2">
         <v>58</v>
       </c>
       <c r="D282" s="3">
@@ -4363,7 +4363,7 @@
         <v>44181</v>
       </c>
       <c r="B283" s="2"/>
-      <c r="C283">
+      <c r="C283" s="2">
         <v>64</v>
       </c>
       <c r="D283" s="3">
@@ -4377,7 +4377,7 @@
         <v>44182</v>
       </c>
       <c r="B284" s="2"/>
-      <c r="C284">
+      <c r="C284" s="2">
         <v>36</v>
       </c>
       <c r="D284" s="3">
@@ -4391,7 +4391,7 @@
         <v>44183</v>
       </c>
       <c r="B285" s="2"/>
-      <c r="C285">
+      <c r="C285" s="2">
         <v>23</v>
       </c>
       <c r="D285" s="3">
@@ -4405,7 +4405,7 @@
         <v>44184</v>
       </c>
       <c r="B286" s="2"/>
-      <c r="C286">
+      <c r="C286" s="2">
         <v>7</v>
       </c>
       <c r="D286" s="3">
@@ -4419,7 +4419,7 @@
         <v>44185</v>
       </c>
       <c r="B287" s="2"/>
-      <c r="C287">
+      <c r="C287" s="2">
         <v>33</v>
       </c>
       <c r="D287" s="3">
@@ -4433,7 +4433,7 @@
         <v>44186</v>
       </c>
       <c r="B288" s="2"/>
-      <c r="C288">
+      <c r="C288" s="2">
         <v>3</v>
       </c>
       <c r="D288" s="3">
@@ -4447,7 +4447,7 @@
         <v>44187</v>
       </c>
       <c r="B289" s="2"/>
-      <c r="C289">
+      <c r="C289" s="2">
         <v>28</v>
       </c>
       <c r="D289" s="3">
@@ -4461,7 +4461,7 @@
         <v>44188</v>
       </c>
       <c r="B290" s="2"/>
-      <c r="C290">
+      <c r="C290" s="2">
         <v>70</v>
       </c>
       <c r="D290" s="3">
@@ -4475,7 +4475,7 @@
         <v>44189</v>
       </c>
       <c r="B291" s="2"/>
-      <c r="C291">
+      <c r="C291" s="2">
         <v>46</v>
       </c>
       <c r="D291" s="3">
@@ -4489,7 +4489,7 @@
         <v>44190</v>
       </c>
       <c r="B292" s="2"/>
-      <c r="C292">
+      <c r="C292" s="2">
         <v>49</v>
       </c>
       <c r="D292" s="3">
@@ -4503,7 +4503,7 @@
         <v>44191</v>
       </c>
       <c r="B293" s="2"/>
-      <c r="C293">
+      <c r="C293" s="2">
         <v>24</v>
       </c>
       <c r="D293" s="3">
@@ -4517,7 +4517,7 @@
         <v>44192</v>
       </c>
       <c r="B294" s="2"/>
-      <c r="C294">
+      <c r="C294" s="2">
         <v>9</v>
       </c>
       <c r="D294" s="3">
@@ -4531,7 +4531,7 @@
         <v>44193</v>
       </c>
       <c r="B295" s="2"/>
-      <c r="C295">
+      <c r="C295" s="2">
         <v>15</v>
       </c>
       <c r="D295" s="3">
@@ -4545,7 +4545,7 @@
         <v>44194</v>
       </c>
       <c r="B296" s="2"/>
-      <c r="C296">
+      <c r="C296" s="2">
         <v>27</v>
       </c>
       <c r="D296" s="3">
@@ -4559,7 +4559,7 @@
         <v>44195</v>
       </c>
       <c r="B297" s="2"/>
-      <c r="C297">
+      <c r="C297" s="2">
         <v>56</v>
       </c>
       <c r="D297" s="3">
@@ -4573,7 +4573,7 @@
         <v>44196</v>
       </c>
       <c r="B298" s="2"/>
-      <c r="C298">
+      <c r="C298" s="2">
         <v>53</v>
       </c>
       <c r="D298" s="3">
@@ -4586,7 +4586,7 @@
       <c r="A299" s="4">
         <v>44197</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="2">
         <v>55</v>
       </c>
       <c r="D299" s="3">
@@ -4599,7 +4599,7 @@
       <c r="A300" s="4">
         <v>44198</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="2">
         <v>27</v>
       </c>
       <c r="D300" s="3">
@@ -4612,7 +4612,7 @@
       <c r="A301" s="4">
         <v>44199</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="2">
         <v>33</v>
       </c>
       <c r="D301" s="3">
@@ -4625,7 +4625,7 @@
       <c r="A302" s="4">
         <v>44200</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="2">
         <v>32</v>
       </c>
       <c r="D302" s="3">
@@ -4638,7 +4638,7 @@
       <c r="A303" s="4">
         <v>44201</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="2">
         <v>43</v>
       </c>
       <c r="D303" s="3">
@@ -4651,7 +4651,7 @@
       <c r="A304" s="4">
         <v>44202</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="2">
         <v>70</v>
       </c>
       <c r="D304" s="3">
@@ -4664,7 +4664,7 @@
       <c r="A305" s="4">
         <v>44203</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="2">
         <v>59</v>
       </c>
       <c r="D305" s="3">
@@ -4677,7 +4677,7 @@
       <c r="A306" s="4">
         <v>44204</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="2">
         <v>103</v>
       </c>
       <c r="D306" s="3">
@@ -4690,7 +4690,7 @@
       <c r="A307" s="4">
         <v>44205</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="2">
         <v>106</v>
       </c>
       <c r="D307" s="3">
@@ -4703,7 +4703,7 @@
       <c r="A308" s="4">
         <v>44206</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="2">
         <v>40</v>
       </c>
       <c r="D308" s="3">
@@ -4716,7 +4716,7 @@
       <c r="A309" s="4">
         <v>44207</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="2">
         <v>9</v>
       </c>
       <c r="D309" s="3">
@@ -4729,7 +4729,7 @@
       <c r="A310" s="4">
         <v>44208</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="2">
         <v>30</v>
       </c>
       <c r="D310" s="3">
@@ -4742,7 +4742,7 @@
       <c r="A311" s="4">
         <v>44209</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="2">
         <v>94</v>
       </c>
       <c r="D311" s="3">
@@ -4755,7 +4755,7 @@
       <c r="A312" s="5">
         <v>44210</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="2">
         <v>61</v>
       </c>
       <c r="D312" s="3">
@@ -4767,7 +4767,7 @@
       <c r="A313" s="5">
         <v>44211</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="2">
         <v>40</v>
       </c>
       <c r="D313" s="3">
@@ -4779,7 +4779,7 @@
       <c r="A314" s="5">
         <v>44212</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="2">
         <v>57</v>
       </c>
       <c r="D314" s="3">
@@ -4791,7 +4791,7 @@
       <c r="A315" s="5">
         <v>44213</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="2">
         <v>65</v>
       </c>
       <c r="D315" s="3">
@@ -4803,7 +4803,7 @@
       <c r="A316" s="5">
         <v>44214</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="2">
         <v>21</v>
       </c>
       <c r="D316" s="3">
@@ -4815,7 +4815,7 @@
       <c r="A317" s="5">
         <v>44215</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="2">
         <v>56</v>
       </c>
       <c r="D317" s="3">
@@ -4827,7 +4827,7 @@
       <c r="A318" s="5">
         <v>44216</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="2">
         <v>66</v>
       </c>
       <c r="D318" s="3">
@@ -4839,7 +4839,7 @@
       <c r="A319" s="5">
         <v>44217</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="2">
         <v>20</v>
       </c>
       <c r="D319" s="3">
@@ -4851,7 +4851,7 @@
       <c r="A320" s="5">
         <v>44218</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="2">
         <v>111</v>
       </c>
       <c r="D320" s="3">
@@ -4863,7 +4863,7 @@
       <c r="A321" s="5">
         <v>44219</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="2">
         <v>57</v>
       </c>
       <c r="D321" s="3">
@@ -4875,7 +4875,7 @@
       <c r="A322" s="5">
         <v>44220</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="2">
         <v>33</v>
       </c>
       <c r="D322" s="3">
@@ -4887,7 +4887,7 @@
       <c r="A323" s="5">
         <v>44221</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="2">
         <v>1</v>
       </c>
       <c r="D323" s="3">
@@ -4899,7 +4899,7 @@
       <c r="A324" s="5">
         <v>44222</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="2">
         <v>57</v>
       </c>
       <c r="D324" s="3">
@@ -4911,7 +4911,7 @@
       <c r="A325" s="5">
         <v>44223</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="2">
         <v>50</v>
       </c>
       <c r="D325" s="3">
@@ -4923,7 +4923,7 @@
       <c r="A326" s="5">
         <v>44224</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="2">
         <v>32</v>
       </c>
       <c r="D326" s="3">
@@ -4935,7 +4935,7 @@
       <c r="A327" s="5">
         <v>44225</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="2">
         <v>36</v>
       </c>
       <c r="D327" s="3">
@@ -4947,7 +4947,7 @@
       <c r="A328" s="5">
         <v>44226</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="2">
         <v>28</v>
       </c>
       <c r="D328" s="3">
@@ -4959,7 +4959,7 @@
       <c r="A329" s="5">
         <v>44227</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="2">
         <v>19</v>
       </c>
       <c r="D329" s="3">
@@ -4971,7 +4971,7 @@
       <c r="A330" s="5">
         <v>44228</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="2">
         <v>8</v>
       </c>
       <c r="D330" s="3">
@@ -4983,7 +4983,7 @@
       <c r="A331" s="5">
         <v>44229</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="2">
         <v>16</v>
       </c>
       <c r="D331" s="3">
@@ -4995,7 +4995,7 @@
       <c r="A332" s="5">
         <v>44230</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="2">
         <v>32</v>
       </c>
       <c r="D332" s="3">
@@ -5007,7 +5007,7 @@
       <c r="A333" s="5">
         <v>44231</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="2">
         <v>12</v>
       </c>
       <c r="D333" s="3">
@@ -5019,7 +5019,7 @@
       <c r="A334" s="5">
         <v>44232</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="2">
         <v>30</v>
       </c>
       <c r="D334" s="3">
@@ -5031,7 +5031,7 @@
       <c r="A335" s="5">
         <v>44233</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="2">
         <v>19</v>
       </c>
       <c r="D335" s="3">
@@ -5043,7 +5043,7 @@
       <c r="A336" s="5">
         <v>44234</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="2">
         <v>17</v>
       </c>
       <c r="D336" s="3">
@@ -5055,7 +5055,7 @@
       <c r="A337" s="5">
         <v>44235</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="2">
         <v>1</v>
       </c>
       <c r="D337" s="3">
@@ -5067,7 +5067,7 @@
       <c r="A338" s="5">
         <v>44236</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="2">
         <v>8</v>
       </c>
       <c r="D338" s="3">
@@ -5079,7 +5079,7 @@
       <c r="A339" s="5">
         <v>44237</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="2">
         <v>26</v>
       </c>
       <c r="D339" s="3">
@@ -5091,7 +5091,7 @@
       <c r="A340" s="5">
         <v>44238</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="2">
         <v>12</v>
       </c>
       <c r="D340" s="3">
@@ -5103,7 +5103,7 @@
       <c r="A341" s="5">
         <v>44239</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="2">
         <v>19</v>
       </c>
       <c r="D341" s="3">
@@ -5115,7 +5115,7 @@
       <c r="A342" s="5">
         <v>44240</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="2">
         <v>16</v>
       </c>
       <c r="D342" s="3">
@@ -5127,7 +5127,7 @@
       <c r="A343" s="5">
         <v>44241</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="2">
         <v>1</v>
       </c>
       <c r="D343" s="3">
@@ -5139,7 +5139,7 @@
       <c r="A344" s="5">
         <v>44242</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="2">
         <v>0</v>
       </c>
       <c r="D344" s="3">
@@ -5151,7 +5151,7 @@
       <c r="A345" s="5">
         <v>44243</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="2">
         <v>8</v>
       </c>
       <c r="D345" s="3">
@@ -5163,7 +5163,7 @@
       <c r="A346" s="5">
         <v>44244</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="2">
         <v>10</v>
       </c>
       <c r="D346" s="3">
@@ -5175,7 +5175,7 @@
       <c r="A347" s="5">
         <v>44245</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="2">
         <v>8</v>
       </c>
       <c r="D347" s="3">
@@ -5187,7 +5187,7 @@
       <c r="A348" s="5">
         <v>44246</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="2">
         <v>20</v>
       </c>
       <c r="D348" s="3">
@@ -5199,7 +5199,7 @@
       <c r="A349" s="5">
         <v>44247</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="2">
         <v>11</v>
       </c>
       <c r="D349" s="3">
@@ -5211,7 +5211,7 @@
       <c r="A350" s="5">
         <v>44248</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="2">
         <v>24</v>
       </c>
       <c r="D350" s="3">
@@ -5223,7 +5223,7 @@
       <c r="A351" s="5">
         <v>44249</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="2">
         <v>1</v>
       </c>
       <c r="D351" s="3">
@@ -5235,7 +5235,7 @@
       <c r="A352" s="5">
         <v>44250</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="2">
         <v>5</v>
       </c>
       <c r="D352" s="3">
@@ -5247,7 +5247,7 @@
       <c r="A353" s="5">
         <v>44251</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="2">
         <v>51</v>
       </c>
       <c r="D353" s="3">
@@ -5259,7 +5259,7 @@
       <c r="A354" s="5">
         <v>44252</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="2">
         <v>15</v>
       </c>
       <c r="D354" s="3">
@@ -5271,7 +5271,7 @@
       <c r="A355" s="5">
         <v>44253</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="2">
         <v>19</v>
       </c>
       <c r="D355" s="3">
@@ -5283,7 +5283,7 @@
       <c r="A356" s="5">
         <v>44254</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="2">
         <v>9</v>
       </c>
       <c r="D356" s="3">
@@ -5295,7 +5295,7 @@
       <c r="A357" s="5">
         <v>44255</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="2">
         <v>22</v>
       </c>
       <c r="D357" s="3">
@@ -5307,7 +5307,7 @@
       <c r="A358" s="5">
         <v>44256</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="2">
         <v>11</v>
       </c>
       <c r="D358" s="3">
@@ -5319,7 +5319,7 @@
       <c r="A359" s="5">
         <v>44257</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="2">
         <v>26</v>
       </c>
       <c r="D359" s="3">
@@ -5331,7 +5331,7 @@
       <c r="A360" s="5">
         <v>44258</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="2">
         <v>60</v>
       </c>
       <c r="D360" s="3">
@@ -5343,7 +5343,7 @@
       <c r="A361" s="5">
         <v>44259</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="2">
         <v>28</v>
       </c>
       <c r="D361" s="3">
@@ -5355,7 +5355,7 @@
       <c r="A362" s="5">
         <v>44260</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="2">
         <v>70</v>
       </c>
       <c r="D362" s="3">
@@ -5367,7 +5367,7 @@
       <c r="A363" s="5">
         <v>44261</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="2">
         <v>39</v>
       </c>
       <c r="D363" s="3">
@@ -5379,7 +5379,7 @@
       <c r="A364" s="5">
         <v>44262</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="2">
         <v>17</v>
       </c>
       <c r="D364" s="3">
@@ -5391,7 +5391,7 @@
       <c r="A365" s="5">
         <v>44263</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="2">
         <v>8</v>
       </c>
       <c r="D365" s="3">
@@ -5403,7 +5403,7 @@
       <c r="A366" s="5">
         <v>44264</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="2">
         <v>9</v>
       </c>
       <c r="D366" s="3">
@@ -5415,7 +5415,7 @@
       <c r="A367" s="5">
         <v>44265</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="2">
         <v>49</v>
       </c>
       <c r="D367" s="3">
@@ -5427,7 +5427,7 @@
       <c r="A368" s="5">
         <v>44266</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="2">
         <v>36</v>
       </c>
       <c r="D368" s="3">
@@ -5439,7 +5439,7 @@
       <c r="A369" s="5">
         <v>44267</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="2">
         <v>43</v>
       </c>
       <c r="D369" s="3">
@@ -5451,7 +5451,7 @@
       <c r="A370" s="5">
         <v>44268</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="2">
         <v>60</v>
       </c>
       <c r="D370" s="3">
@@ -5463,7 +5463,7 @@
       <c r="A371" s="5">
         <v>44269</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="2">
         <v>74</v>
       </c>
       <c r="D371" s="3">
@@ -5475,7 +5475,7 @@
       <c r="A372" s="5">
         <v>44270</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="2">
         <v>9</v>
       </c>
       <c r="D372" s="3">
@@ -5487,7 +5487,7 @@
       <c r="A373" s="5">
         <v>44271</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="2">
         <v>36</v>
       </c>
       <c r="D373" s="3">
@@ -5499,7 +5499,7 @@
       <c r="A374" s="5">
         <v>44272</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="2">
         <v>53</v>
       </c>
       <c r="D374" s="3">
@@ -5511,7 +5511,7 @@
       <c r="A375" s="5">
         <v>44273</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="2">
         <v>62</v>
       </c>
       <c r="D375" s="3">
@@ -5523,7 +5523,7 @@
       <c r="A376" s="5">
         <v>44274</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="2">
         <v>78</v>
       </c>
       <c r="D376" s="3">
@@ -5535,7 +5535,7 @@
       <c r="A377" s="5">
         <v>44275</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="2">
         <v>97</v>
       </c>
       <c r="D377" s="3">
@@ -5547,7 +5547,7 @@
       <c r="A378" s="5">
         <v>44276</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="2">
         <v>54</v>
       </c>
       <c r="D378" s="3">
@@ -5559,7 +5559,7 @@
       <c r="A379" s="5">
         <v>44277</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="2">
         <v>6</v>
       </c>
       <c r="D379" s="3">
@@ -5571,7 +5571,7 @@
       <c r="A380" s="5">
         <v>44278</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="2">
         <v>82</v>
       </c>
       <c r="D380" s="3">
@@ -5583,7 +5583,7 @@
       <c r="A381" s="5">
         <v>44279</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="2">
         <v>66</v>
       </c>
       <c r="D381" s="3">
@@ -5595,7 +5595,7 @@
       <c r="A382" s="5">
         <v>44280</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="2">
         <v>90</v>
       </c>
       <c r="D382" s="3">
@@ -5607,7 +5607,7 @@
       <c r="A383" s="5">
         <v>44281</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="2">
         <v>63</v>
       </c>
       <c r="D383" s="3">
@@ -5619,7 +5619,7 @@
       <c r="A384" s="5">
         <v>44282</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="2">
         <v>67</v>
       </c>
       <c r="D384" s="3">
@@ -5631,7 +5631,7 @@
       <c r="A385" s="5">
         <v>44283</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="2">
         <v>39</v>
       </c>
       <c r="D385" s="3">
@@ -5643,7 +5643,7 @@
       <c r="A386" s="5">
         <v>44284</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="2">
         <v>21</v>
       </c>
       <c r="D386" s="3">
@@ -5655,7 +5655,7 @@
       <c r="A387" s="5">
         <v>44285</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="2">
         <v>68</v>
       </c>
       <c r="D387" s="3">
@@ -5667,7 +5667,7 @@
       <c r="A388" s="5">
         <v>44286</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="2">
         <v>88</v>
       </c>
       <c r="D388" s="3">
@@ -5679,7 +5679,7 @@
       <c r="A389" s="5">
         <v>44287</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="2">
         <v>133</v>
       </c>
       <c r="D389" s="3">
@@ -5691,7 +5691,7 @@
       <c r="A390" s="5">
         <v>44288</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="2">
         <v>96</v>
       </c>
       <c r="D390" s="3">
@@ -5703,7 +5703,7 @@
       <c r="A391" s="5">
         <v>44289</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="2">
         <v>77</v>
       </c>
       <c r="D391" s="3">
@@ -5715,7 +5715,7 @@
       <c r="A392" s="5">
         <v>44290</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="2">
         <v>74</v>
       </c>
       <c r="D392" s="3">
@@ -5727,7 +5727,7 @@
       <c r="A393" s="5">
         <v>44291</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="2">
         <v>12</v>
       </c>
       <c r="D393" s="3">
@@ -5739,7 +5739,7 @@
       <c r="A394" s="5">
         <v>44292</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="2">
         <v>26</v>
       </c>
       <c r="D394" s="3">
@@ -5751,7 +5751,7 @@
       <c r="A395" s="5">
         <v>44293</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="2">
         <v>90</v>
       </c>
       <c r="D395" s="3">
@@ -5763,7 +5763,7 @@
       <c r="A396" s="5">
         <v>44294</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="2">
         <v>67</v>
       </c>
       <c r="D396" s="3">
@@ -5775,7 +5775,7 @@
       <c r="A397" s="5">
         <v>44295</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="2">
         <v>109</v>
       </c>
       <c r="D397" s="3">
@@ -5787,7 +5787,7 @@
       <c r="A398" s="5">
         <v>44296</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="2">
         <v>135</v>
       </c>
       <c r="D398" s="3">
@@ -5799,7 +5799,7 @@
       <c r="A399" s="5">
         <v>44297</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="2">
         <v>52</v>
       </c>
       <c r="D399" s="3">
@@ -5811,7 +5811,7 @@
       <c r="A400" s="5">
         <v>44298</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="2">
         <v>18</v>
       </c>
       <c r="D400" s="3">
@@ -5823,7 +5823,7 @@
       <c r="A401" s="5">
         <v>44299</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="2">
         <v>92</v>
       </c>
       <c r="D401" s="3">
@@ -5835,7 +5835,7 @@
       <c r="A402" s="5">
         <v>44300</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="2">
         <v>91</v>
       </c>
       <c r="D402" s="3">
@@ -5847,7 +5847,7 @@
       <c r="A403" s="5">
         <v>44301</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="2">
         <v>87</v>
       </c>
       <c r="D403" s="3">
@@ -5859,7 +5859,7 @@
       <c r="A404" s="5">
         <v>44302</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="2">
         <v>57</v>
       </c>
       <c r="D404" s="3">
@@ -5871,7 +5871,7 @@
       <c r="A405" s="5">
         <v>44303</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="2">
         <v>78</v>
       </c>
       <c r="D405" s="3">
@@ -5883,7 +5883,7 @@
       <c r="A406" s="5">
         <v>44304</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="2">
         <v>48</v>
       </c>
       <c r="D406" s="3">
@@ -5895,7 +5895,7 @@
       <c r="A407" s="5">
         <v>44305</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="2">
         <v>9</v>
       </c>
       <c r="D407" s="3">
@@ -5907,7 +5907,7 @@
       <c r="A408" s="5">
         <v>44306</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="2">
         <v>51</v>
       </c>
       <c r="D408" s="3">
@@ -5919,7 +5919,7 @@
       <c r="A409" s="5">
         <v>44307</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="2">
         <v>57</v>
       </c>
       <c r="D409" s="3">
@@ -5931,7 +5931,7 @@
       <c r="A410" s="5">
         <v>44308</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="2">
         <v>76</v>
       </c>
       <c r="D410" s="3">
@@ -5943,7 +5943,7 @@
       <c r="A411" s="5">
         <v>44309</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="2">
         <v>52</v>
       </c>
       <c r="D411" s="3">
@@ -5955,7 +5955,7 @@
       <c r="A412" s="5">
         <v>44310</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="2">
         <v>90</v>
       </c>
       <c r="D412" s="3">
@@ -5967,403 +5967,403 @@
       <c r="A413" s="5">
         <v>44311</v>
       </c>
-      <c r="C413">
-        <v>29</v>
+      <c r="C413" s="2">
+        <v>30</v>
       </c>
       <c r="D413" s="3">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>52.142857142857146</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>44312</v>
       </c>
-      <c r="C414">
-        <v>16</v>
+      <c r="C414" s="2">
+        <v>18</v>
       </c>
       <c r="D414" s="3">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>53.428571428571431</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>44313</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="2">
         <v>72</v>
       </c>
       <c r="D415" s="3">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>56.428571428571431</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>44314</v>
       </c>
-      <c r="C416">
-        <v>117</v>
+      <c r="C416" s="2">
+        <v>116</v>
       </c>
       <c r="D416" s="3">
         <f t="shared" si="5"/>
-        <v>64.571428571428569</v>
+        <v>64.857142857142861</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>44315</v>
       </c>
-      <c r="C417">
-        <v>70</v>
+      <c r="C417" s="2">
+        <v>72</v>
       </c>
       <c r="D417" s="3">
         <f t="shared" si="5"/>
-        <v>63.714285714285715</v>
+        <v>64.285714285714292</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>44316</v>
       </c>
-      <c r="C418">
-        <v>60</v>
+      <c r="C418" s="2">
+        <v>59</v>
       </c>
       <c r="D418" s="3">
         <f t="shared" si="5"/>
-        <v>64.857142857142861</v>
+        <v>65.285714285714292</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>44317</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="2">
         <v>53</v>
       </c>
       <c r="D419" s="3">
         <f t="shared" si="5"/>
-        <v>59.571428571428569</v>
+        <v>60</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>44318</v>
       </c>
-      <c r="C420">
-        <v>19</v>
+      <c r="C420" s="2">
+        <v>12</v>
       </c>
       <c r="D420" s="3">
         <f t="shared" si="5"/>
-        <v>58.142857142857146</v>
+        <v>57.428571428571431</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>44319</v>
       </c>
-      <c r="C421">
-        <v>11</v>
+      <c r="C421" s="2">
+        <v>16</v>
       </c>
       <c r="D421" s="3">
         <f t="shared" si="5"/>
-        <v>57.428571428571431</v>
+        <v>57.142857142857146</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>44320</v>
       </c>
-      <c r="C422">
-        <v>41</v>
+      <c r="C422" s="2">
+        <v>36</v>
       </c>
       <c r="D422" s="3">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>44321</v>
       </c>
-      <c r="C423">
-        <v>83</v>
+      <c r="C423" s="2">
+        <v>80</v>
       </c>
       <c r="D423" s="3">
         <f t="shared" si="5"/>
-        <v>48.142857142857146</v>
+        <v>46.857142857142854</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>44322</v>
       </c>
-      <c r="C424">
-        <v>62</v>
+      <c r="C424" s="2">
+        <v>61</v>
       </c>
       <c r="D424" s="3">
         <f t="shared" si="5"/>
-        <v>47</v>
+        <v>45.285714285714285</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>44323</v>
       </c>
-      <c r="C425">
-        <v>87</v>
+      <c r="C425" s="2">
+        <v>84</v>
       </c>
       <c r="D425" s="3">
         <f t="shared" si="5"/>
-        <v>50.857142857142854</v>
+        <v>48.857142857142854</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>44324</v>
       </c>
-      <c r="C426">
-        <v>45</v>
+      <c r="C426" s="2">
+        <v>48</v>
       </c>
       <c r="D426" s="3">
         <f t="shared" si="5"/>
-        <v>49.714285714285715</v>
+        <v>48.142857142857146</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>44325</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="2">
         <v>36</v>
       </c>
       <c r="D427" s="3">
         <f t="shared" si="5"/>
-        <v>52.142857142857146</v>
+        <v>51.571428571428569</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>44326</v>
       </c>
-      <c r="C428">
-        <v>7</v>
+      <c r="C428" s="2">
+        <v>1</v>
       </c>
       <c r="D428" s="3">
         <f t="shared" si="5"/>
-        <v>51.571428571428569</v>
+        <v>49.428571428571431</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>44327</v>
       </c>
-      <c r="C429">
-        <v>31</v>
+      <c r="C429" s="2">
+        <v>29</v>
       </c>
       <c r="D429" s="3">
         <f t="shared" si="5"/>
-        <v>50.142857142857146</v>
+        <v>48.428571428571431</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>44328</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="2">
         <v>58</v>
       </c>
       <c r="D430" s="3">
         <f t="shared" si="5"/>
-        <v>46.571428571428569</v>
+        <v>45.285714285714285</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>44329</v>
       </c>
-      <c r="C431">
-        <v>46</v>
+      <c r="C431" s="2">
+        <v>45</v>
       </c>
       <c r="D431" s="3">
         <f t="shared" si="5"/>
-        <v>44.285714285714285</v>
+        <v>43</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>44330</v>
       </c>
-      <c r="C432">
-        <v>27</v>
+      <c r="C432" s="2">
+        <v>23</v>
       </c>
       <c r="D432" s="3">
         <f t="shared" si="5"/>
-        <v>35.714285714285715</v>
+        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>44331</v>
       </c>
-      <c r="C433">
-        <v>42</v>
+      <c r="C433" s="2">
+        <v>38</v>
       </c>
       <c r="D433" s="3">
         <f t="shared" si="5"/>
-        <v>35.285714285714285</v>
+        <v>32.857142857142854</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>44332</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="2">
         <v>23</v>
       </c>
       <c r="D434" s="3">
         <f t="shared" si="5"/>
-        <v>33.428571428571431</v>
+        <v>31</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>44333</v>
       </c>
-      <c r="C435">
-        <v>8</v>
+      <c r="C435" s="2">
+        <v>6</v>
       </c>
       <c r="D435" s="3">
         <f t="shared" si="5"/>
-        <v>33.571428571428569</v>
+        <v>31.714285714285715</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>44334</v>
       </c>
-      <c r="C436">
-        <v>22</v>
+      <c r="C436" s="2">
+        <v>23</v>
       </c>
       <c r="D436" s="3">
         <f t="shared" si="5"/>
-        <v>32.285714285714285</v>
+        <v>30.857142857142858</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>44335</v>
       </c>
-      <c r="C437">
-        <v>70</v>
+      <c r="C437" s="2">
+        <v>69</v>
       </c>
       <c r="D437" s="3">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>32.428571428571431</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>44336</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="2">
         <v>37</v>
       </c>
       <c r="D438" s="3">
         <f t="shared" si="5"/>
-        <v>32.714285714285715</v>
+        <v>31.285714285714285</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>44337</v>
       </c>
-      <c r="C439">
-        <v>63</v>
+      <c r="C439" s="2">
+        <v>62</v>
       </c>
       <c r="D439" s="3">
         <f t="shared" si="5"/>
-        <v>37.857142857142854</v>
+        <v>36.857142857142854</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>44338</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="2">
         <v>33</v>
       </c>
       <c r="D440" s="3">
         <f t="shared" si="5"/>
-        <v>36.571428571428569</v>
+        <v>36.142857142857146</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>44339</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="2">
         <v>31</v>
       </c>
       <c r="D441" s="3">
         <f t="shared" si="5"/>
-        <v>37.714285714285715</v>
+        <v>37.285714285714285</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>44340</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="2">
         <v>1</v>
       </c>
       <c r="D442" s="3">
         <f t="shared" si="5"/>
-        <v>36.714285714285715</v>
+        <v>36.571428571428569</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>44341</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="2">
         <v>24</v>
       </c>
       <c r="D443" s="3">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>36.714285714285715</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>44342</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="2">
         <v>45</v>
       </c>
       <c r="D444" s="3">
         <f t="shared" si="5"/>
-        <v>33.428571428571431</v>
+        <v>33.285714285714285</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>44343</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="2">
         <v>27</v>
       </c>
       <c r="D445" s="3">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>31.857142857142858</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>44344</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="2">
         <v>46</v>
       </c>
       <c r="D446" s="3">
@@ -6375,7 +6375,7 @@
       <c r="A447" s="5">
         <v>44345</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="2">
         <v>27</v>
       </c>
       <c r="D447" s="3">
@@ -6387,7 +6387,7 @@
       <c r="A448" s="5">
         <v>44346</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="2">
         <v>27</v>
       </c>
       <c r="D448" s="3">
@@ -6399,7 +6399,7 @@
       <c r="A449" s="5">
         <v>44347</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="2">
         <v>0</v>
       </c>
       <c r="D449" s="3">
@@ -6411,7 +6411,7 @@
       <c r="A450" s="5">
         <v>44348</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="2">
         <v>21</v>
       </c>
       <c r="D450" s="3">
@@ -6423,7 +6423,7 @@
       <c r="A451" s="5">
         <v>44349</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="2">
         <v>24</v>
       </c>
       <c r="D451" s="3">
@@ -6435,7 +6435,7 @@
       <c r="A452" s="5">
         <v>44350</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="2">
         <v>5</v>
       </c>
       <c r="D452" s="3">
@@ -6447,91 +6447,91 @@
       <c r="A453" s="5">
         <v>44351</v>
       </c>
-      <c r="C453">
-        <v>33</v>
+      <c r="C453" s="2">
+        <v>32</v>
       </c>
       <c r="D453" s="3">
         <f t="shared" si="5"/>
-        <v>19.571428571428573</v>
+        <v>19.428571428571427</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>44352</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="2">
         <v>16</v>
       </c>
       <c r="D454" s="3">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>17.857142857142858</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>44353</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="2">
         <v>16</v>
       </c>
       <c r="D455" s="3">
         <f t="shared" si="5"/>
-        <v>16.428571428571427</v>
+        <v>16.285714285714285</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>44354</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="2">
         <v>2</v>
       </c>
       <c r="D456" s="3">
         <f t="shared" si="5"/>
-        <v>16.714285714285715</v>
+        <v>16.571428571428573</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>44355</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="2">
         <v>3</v>
       </c>
       <c r="D457" s="3">
         <f t="shared" si="5"/>
-        <v>14.142857142857142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>44356</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="2">
         <v>19</v>
       </c>
       <c r="D458" s="3">
         <f t="shared" si="5"/>
-        <v>13.428571428571429</v>
+        <v>13.285714285714286</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>44357</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="2">
         <v>7</v>
       </c>
       <c r="D459" s="3">
         <f t="shared" si="5"/>
-        <v>13.714285714285714</v>
+        <v>13.571428571428571</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>44358</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="2">
         <v>67</v>
       </c>
       <c r="D460" s="3">
@@ -6543,7 +6543,7 @@
       <c r="A461" s="5">
         <v>44359</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="2">
         <v>7</v>
       </c>
       <c r="D461" s="3">
@@ -6555,7 +6555,7 @@
       <c r="A462" s="5">
         <v>44360</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="2">
         <v>7</v>
       </c>
       <c r="D462" s="3">
@@ -6567,7 +6567,7 @@
       <c r="A463" s="5">
         <v>44361</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="2">
         <v>0</v>
       </c>
       <c r="D463" s="3">
@@ -6579,7 +6579,7 @@
       <c r="A464" s="5">
         <v>44362</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="2">
         <v>10</v>
       </c>
       <c r="D464" s="3">
@@ -6591,7 +6591,7 @@
       <c r="A465" s="5">
         <v>44363</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="2">
         <v>19</v>
       </c>
       <c r="D465" s="3">
@@ -6603,7 +6603,7 @@
       <c r="A466" s="5">
         <v>44364</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="2">
         <v>5</v>
       </c>
       <c r="D466" s="3">
@@ -6615,7 +6615,7 @@
       <c r="A467" s="5">
         <v>44365</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="2">
         <v>3</v>
       </c>
       <c r="D467" s="3">
@@ -6627,7 +6627,7 @@
       <c r="A468" s="5">
         <v>44366</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="2">
         <v>13</v>
       </c>
       <c r="D468" s="3">
@@ -6639,7 +6639,7 @@
       <c r="A469" s="5">
         <v>44367</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="2">
         <v>0</v>
       </c>
       <c r="D469" s="3">
@@ -6651,7 +6651,7 @@
       <c r="A470" s="5">
         <v>44368</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="2">
         <v>1</v>
       </c>
       <c r="D470" s="3">
@@ -6663,7 +6663,7 @@
       <c r="A471" s="5">
         <v>44369</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="2">
         <v>6</v>
       </c>
       <c r="D471" s="3">
@@ -6675,11 +6675,11 @@
       <c r="A472" s="5">
         <v>44370</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="2">
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D508" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D521" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       <c r="A473" s="5">
         <v>44371</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="2">
         <v>1</v>
       </c>
       <c r="D473" s="3">
@@ -6699,7 +6699,7 @@
       <c r="A474" s="5">
         <v>44372</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="2">
         <v>9</v>
       </c>
       <c r="D474" s="3">
@@ -6711,7 +6711,7 @@
       <c r="A475" s="5">
         <v>44373</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="2">
         <v>1</v>
       </c>
       <c r="D475" s="3">
@@ -6723,7 +6723,7 @@
       <c r="A476" s="5">
         <v>44374</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="2">
         <v>0</v>
       </c>
       <c r="D476" s="3">
@@ -6735,7 +6735,7 @@
       <c r="A477" s="5">
         <v>44375</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="2">
         <v>0</v>
       </c>
       <c r="D477" s="3">
@@ -6747,7 +6747,7 @@
       <c r="A478" s="5">
         <v>44376</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="2">
         <v>2</v>
       </c>
       <c r="D478" s="3">
@@ -6759,7 +6759,7 @@
       <c r="A479" s="5">
         <v>44377</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="2">
         <v>4</v>
       </c>
       <c r="D479" s="3">
@@ -6771,7 +6771,7 @@
       <c r="A480" s="5">
         <v>44378</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="2">
         <v>0</v>
       </c>
       <c r="D480" s="3">
@@ -6783,7 +6783,7 @@
       <c r="A481" s="5">
         <v>44379</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="2">
         <v>6</v>
       </c>
       <c r="D481" s="3">
@@ -6795,7 +6795,7 @@
       <c r="A482" s="5">
         <v>44380</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="2">
         <v>1</v>
       </c>
       <c r="D482" s="3">
@@ -6807,7 +6807,7 @@
       <c r="A483" s="5">
         <v>44381</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="2">
         <v>0</v>
       </c>
       <c r="D483" s="3">
@@ -6819,7 +6819,7 @@
       <c r="A484" s="5">
         <v>44382</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="2">
         <v>0</v>
       </c>
       <c r="D484" s="3">
@@ -6831,91 +6831,91 @@
       <c r="A485" s="5">
         <v>44383</v>
       </c>
-      <c r="C485">
-        <v>1</v>
+      <c r="C485" s="2">
+        <v>-14</v>
       </c>
       <c r="D485" s="3">
         <f t="shared" si="6"/>
-        <v>1.7142857142857142</v>
+        <v>-0.42857142857142855</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>44384</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="2">
         <v>4</v>
       </c>
       <c r="D486" s="3">
         <f t="shared" si="6"/>
-        <v>1.7142857142857142</v>
+        <v>-0.42857142857142855</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>44385</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="2">
         <v>2</v>
       </c>
       <c r="D487" s="3">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>-0.14285714285714285</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>44386</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="2">
         <v>1</v>
       </c>
       <c r="D488" s="3">
         <f t="shared" si="6"/>
-        <v>1.2857142857142858</v>
+        <v>-0.8571428571428571</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>44387</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="2">
         <v>3</v>
       </c>
       <c r="D489" s="3">
         <f t="shared" si="6"/>
-        <v>1.5714285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>44388</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="2">
         <v>0</v>
       </c>
       <c r="D490" s="3">
         <f t="shared" si="6"/>
-        <v>1.5714285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>44389</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="2">
         <v>0</v>
       </c>
       <c r="D491" s="3">
         <f t="shared" si="6"/>
-        <v>1.5714285714285714</v>
+        <v>-0.5714285714285714</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>44390</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="2">
         <v>3</v>
       </c>
       <c r="D492" s="3">
@@ -6927,7 +6927,7 @@
       <c r="A493" s="5">
         <v>44391</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="2">
         <v>1</v>
       </c>
       <c r="D493" s="3">
@@ -6939,7 +6939,7 @@
       <c r="A494" s="5">
         <v>44392</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="2">
         <v>3</v>
       </c>
       <c r="D494" s="3">
@@ -6951,7 +6951,7 @@
       <c r="A495" s="5">
         <v>44393</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="2">
         <v>5</v>
       </c>
       <c r="D495" s="3">
@@ -6963,7 +6963,7 @@
       <c r="A496" s="5">
         <v>44394</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="2">
         <v>6</v>
       </c>
       <c r="D496" s="3">
@@ -6975,7 +6975,7 @@
       <c r="A497" s="5">
         <v>44395</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="2">
         <v>0</v>
       </c>
       <c r="D497" s="3">
@@ -6987,7 +6987,7 @@
       <c r="A498" s="5">
         <v>44396</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="2">
         <v>0</v>
       </c>
       <c r="D498" s="3">
@@ -6999,7 +6999,7 @@
       <c r="A499" s="5">
         <v>44397</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="2">
         <v>1</v>
       </c>
       <c r="D499" s="3">
@@ -7011,7 +7011,7 @@
       <c r="A500" s="5">
         <v>44398</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="2">
         <v>8</v>
       </c>
       <c r="D500" s="3">
@@ -7023,7 +7023,7 @@
       <c r="A501" s="5">
         <v>44399</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="2">
         <v>7</v>
       </c>
       <c r="D501" s="3">
@@ -7035,7 +7035,7 @@
       <c r="A502" s="5">
         <v>44400</v>
       </c>
-      <c r="C502">
+      <c r="C502" s="2">
         <v>7</v>
       </c>
       <c r="D502" s="3">
@@ -7047,7 +7047,7 @@
       <c r="A503" s="5">
         <v>44401</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="2">
         <v>33</v>
       </c>
       <c r="D503" s="3">
@@ -7059,7 +7059,7 @@
       <c r="A504" s="5">
         <v>44402</v>
       </c>
-      <c r="C504">
+      <c r="C504" s="2">
         <v>0</v>
       </c>
       <c r="D504" s="3">
@@ -7071,7 +7071,7 @@
       <c r="A505" s="5">
         <v>44403</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="2">
         <v>11</v>
       </c>
       <c r="D505" s="3">
@@ -7083,7 +7083,7 @@
       <c r="A506" s="5">
         <v>44404</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="2">
         <v>15</v>
       </c>
       <c r="D506" s="3">
@@ -7095,7 +7095,7 @@
       <c r="A507" s="5">
         <v>44405</v>
       </c>
-      <c r="C507">
+      <c r="C507" s="2">
         <v>10</v>
       </c>
       <c r="D507" s="3">
@@ -7107,7 +7107,7 @@
       <c r="A508" s="5">
         <v>44406</v>
       </c>
-      <c r="C508">
+      <c r="C508" s="2">
         <v>27</v>
       </c>
       <c r="D508" s="3">
@@ -7119,10 +7119,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509" s="2">
+        <v>25</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="6"/>
+        <v>17.285714285714285</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510" s="2">
+        <v>11</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511" s="2">
+        <v>2</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="6"/>
+        <v>14.428571428571429</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512" s="2">
+        <v>6</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="6"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513" s="2">
+        <v>14</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="6"/>
+        <v>13.571428571428571</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514" s="2">
+        <v>24</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="6"/>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515" s="2">
+        <v>16</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516" s="2">
+        <v>20</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="6"/>
+        <v>13.285714285714286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517" s="2">
+        <v>28</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="6"/>
+        <v>15.714285714285714</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518" s="2">
+        <v>2</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="6"/>
+        <v>15.714285714285714</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519" s="2">
+        <v>4</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="6"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520" s="2">
+        <v>29</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="6"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521" s="2">
+        <v>19</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="6"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -7133,10 +7379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G510"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A479" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13807,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507:D508" si="16">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D511" si="16">AVERAGE(C501:C507)</f>
         <v>0</v>
       </c>
     </row>
@@ -13827,10 +14073,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512" si="17">AVERAGE(C506:C512)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513" si="18">AVERAGE(C507:C513)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514:D515" si="19">AVERAGE(C508:C514)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="19"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516" si="20">AVERAGE(C510:C516)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517" si="21">AVERAGE(C511:C517)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" ref="D518" si="22">AVERAGE(C512:C518)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519:D521" si="23">AVERAGE(C513:C519)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="23"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="23"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -13841,10 +14333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20040,7 +20532,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D508" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D521" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20228,10 +20720,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="7"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513">
+        <v>5</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" si="7"/>
+        <v>2.4285714285714284</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514">
+        <v>11</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" si="7"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515">
+        <v>13</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="7"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516">
+        <v>13</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" si="7"/>
+        <v>6.1428571428571432</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517">
+        <v>16</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="7"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="7"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519">
+        <v>4</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" si="7"/>
+        <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520">
+        <v>21</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="7"/>
+        <v>11.142857142857142</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521">
+        <v>8</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="7"/>
+        <v>10.714285714285714</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -20242,10 +20980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26612,7 +27350,7 @@
         <v>2</v>
       </c>
       <c r="D507" s="3">
-        <f t="shared" ref="D507:D508" si="81">AVERAGE(C501:C507)</f>
+        <f t="shared" ref="D507:D512" si="81">AVERAGE(C501:C507)</f>
         <v>2</v>
       </c>
     </row>
@@ -26632,10 +27370,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509" s="2">
+        <v>6</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="81"/>
+        <v>2.7142857142857144</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510" s="2">
+        <v>4</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" si="81"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511" s="2">
+        <v>4</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" si="81"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512" s="2">
+        <v>5</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" si="81"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513" s="2">
+        <v>5</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513" si="82">AVERAGE(C507:C513)</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514" s="2">
+        <v>5</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514:D515" si="83">AVERAGE(C508:C514)</f>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515" s="2">
+        <v>5</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" si="83"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516" s="2">
+        <v>5</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516:D518" si="84">AVERAGE(C510:C516)</f>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517" s="2">
+        <v>5</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" si="84"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518" s="2">
+        <v>6</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" si="84"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519" s="2">
+        <v>6</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519:D521" si="85">AVERAGE(C513:C519)</f>
+        <v>5.2857142857142856</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520" s="2">
+        <v>7</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="85"/>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521" s="2">
+        <v>10</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" si="85"/>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>
@@ -26646,10 +27630,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508:D508"/>
+    <sheetView topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="C521" sqref="C521:D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33028,7 +34012,7 @@
         <v>0</v>
       </c>
       <c r="D508" s="3">
-        <f t="shared" ref="D508" si="13">AVERAGE(C502:C508)</f>
+        <f t="shared" ref="D508:D509" si="13">AVERAGE(C502:C508)</f>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -33036,10 +34020,256 @@
       <c r="A509" s="5">
         <v>44407</v>
       </c>
+      <c r="C509" s="2">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>44408</v>
+      </c>
+      <c r="C510" s="2">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <f t="shared" ref="D510" si="14">AVERAGE(C504:C510)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="5">
+        <v>44409</v>
+      </c>
+      <c r="C511" s="2">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <f t="shared" ref="D511" si="15">AVERAGE(C505:C511)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="5">
+        <v>44410</v>
+      </c>
+      <c r="C512" s="2">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <f t="shared" ref="D512" si="16">AVERAGE(C506:C512)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="5">
+        <v>44411</v>
+      </c>
+      <c r="C513" s="2">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3">
+        <f t="shared" ref="D513" si="17">AVERAGE(C507:C513)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="5">
+        <v>44412</v>
+      </c>
+      <c r="C514" s="2">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3">
+        <f t="shared" ref="D514" si="18">AVERAGE(C508:C514)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="5">
+        <v>44413</v>
+      </c>
+      <c r="C515" s="2">
+        <v>0</v>
+      </c>
+      <c r="D515" s="3">
+        <f t="shared" ref="D515" si="19">AVERAGE(C509:C515)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="5">
+        <v>44414</v>
+      </c>
+      <c r="C516" s="2">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <f t="shared" ref="D516" si="20">AVERAGE(C510:C516)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="5">
+        <v>44415</v>
+      </c>
+      <c r="C517" s="2">
+        <v>0</v>
+      </c>
+      <c r="D517" s="3">
+        <f t="shared" ref="D517" si="21">AVERAGE(C511:C517)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="5">
+        <v>44416</v>
+      </c>
+      <c r="C518" s="2">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <f t="shared" ref="D518" si="22">AVERAGE(C512:C518)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="5">
+        <v>44417</v>
+      </c>
+      <c r="C519" s="2">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <f t="shared" ref="D519:D520" si="23">AVERAGE(C513:C519)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="5">
+        <v>44418</v>
+      </c>
+      <c r="C520" s="2">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="5">
+        <v>44419</v>
+      </c>
+      <c r="C521" s="2">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <f t="shared" ref="D521" si="24">AVERAGE(C515:C521)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="5">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="5">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="5">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="5">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44439</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42EA45C-AC77-1F4A-A60D-36237173E69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1A31B-F881-AD4C-A786-947E7196DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C521"/>
+    <sheetView topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D521" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D522" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7274,6 +7274,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522" s="2">
+        <v>31</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -7381,8 +7388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="C521" sqref="C521:D521"/>
+    <sheetView topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14197,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D521" si="23">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D522" si="23">AVERAGE(C513:C519)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -14228,6 +14235,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>0</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="23"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -14336,7 +14350,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20532,7 +20546,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D521" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D522" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20875,6 +20889,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="7"/>
+        <v>9.4285714285714288</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -20983,7 +21004,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="D521" sqref="D521"/>
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27494,7 +27515,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D521" si="85">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D522" si="85">AVERAGE(C513:C519)</f>
         <v>5.2857142857142856</v>
       </c>
     </row>
@@ -27525,6 +27546,13 @@
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522" s="2">
+        <v>10</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="85"/>
+        <v>7</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -27632,8 +27660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="C521" sqref="C521:D521"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522:D522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34168,13 +34196,20 @@
         <v>0</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521" si="24">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D522" si="24">AVERAGE(C515:C521)</f>
         <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>44420</v>
+      </c>
+      <c r="C522" s="2">
+        <v>1</v>
+      </c>
+      <c r="D522" s="3">
+        <f t="shared" si="24"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1A31B-F881-AD4C-A786-947E7196DC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93FDCA-5AB8-1C42-8DD1-7ECDCC511651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D522" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D523" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7286,6 +7286,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523" s="2">
+        <v>30</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="6"/>
+        <v>20.428571428571427</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -7389,7 +7396,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14247,6 +14254,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" ref="D523" si="24">AVERAGE(C517:C523)</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -14349,8 +14363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20546,7 +20560,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D522" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D523" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20901,6 +20915,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523">
+        <v>20</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="7"/>
+        <v>10.428571428571429</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -21003,8 +21024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27515,7 +27536,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D522" si="85">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D523" si="85">AVERAGE(C513:C519)</f>
         <v>5.2857142857142856</v>
       </c>
     </row>
@@ -27558,6 +27579,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523" s="2">
+        <v>14</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="85"/>
+        <v>8.2857142857142865</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -27660,8 +27688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:D522"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:D523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34196,7 +34224,7 @@
         <v>0</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D522" si="24">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D523" si="24">AVERAGE(C515:C521)</f>
         <v>0</v>
       </c>
     </row>
@@ -34215,6 +34243,13 @@
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>44421</v>
+      </c>
+      <c r="C523" s="2">
+        <v>1</v>
+      </c>
+      <c r="D523" s="3">
+        <f t="shared" si="24"/>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93FDCA-5AB8-1C42-8DD1-7ECDCC511651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5B97C-6489-DB49-93AC-83106F3CC8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D523" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D540" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7299,88 +7299,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524" s="2">
+        <v>23</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="6"/>
+        <v>19.714285714285715</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525" s="2">
+        <v>6</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="6"/>
+        <v>20.285714285714285</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526" s="2">
+        <v>2</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527" s="2">
+        <v>22</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528" s="2">
+        <v>59</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="6"/>
+        <v>24.714285714285715</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529" s="2">
+        <v>17</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="6"/>
+        <v>22.714285714285715</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530" s="2">
+        <v>19</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="6"/>
+        <v>21.142857142857142</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531" s="2">
+        <v>18</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="6"/>
+        <v>20.428571428571427</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532" s="2">
+        <v>6</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="6"/>
+        <v>20.428571428571427</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533" s="2">
+        <v>1</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="6"/>
+        <v>20.285714285714285</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534" s="2">
+        <v>20</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535" s="2">
+        <v>23</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="6"/>
+        <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536" s="2">
+        <v>21</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="6"/>
+        <v>15.428571428571429</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537" s="2">
+        <v>13</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="6"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538" s="2">
+        <v>37</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="6"/>
+        <v>17.285714285714285</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539" s="2">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="6"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540" s="2">
+        <v>5</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -7395,8 +7514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G541"/>
   <sheetViews>
-    <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="C540" sqref="C540:D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14259,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="D523" s="3">
-        <f t="shared" ref="D523" si="24">AVERAGE(C517:C523)</f>
+        <f t="shared" ref="D523:D525" si="24">AVERAGE(C517:C523)</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -14267,88 +14386,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="24"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="24"/>
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" ref="D526" si="25">AVERAGE(C520:C526)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" ref="D527" si="26">AVERAGE(C521:C527)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>0</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" ref="D528:D530" si="27">AVERAGE(C522:C528)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>0</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>0</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>0</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" ref="D531" si="28">AVERAGE(C525:C531)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" ref="D532" si="29">AVERAGE(C526:C532)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>0</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" ref="D533" si="30">AVERAGE(C527:C533)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>0</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" ref="D534:D535" si="31">AVERAGE(C528:C534)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" ref="D536" si="32">AVERAGE(C530:C536)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" ref="D537" si="33">AVERAGE(C531:C537)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538" si="34">AVERAGE(C532:C538)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" ref="D539" si="35">AVERAGE(C533:C539)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" ref="D540" si="36">AVERAGE(C534:C540)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -14361,10 +14599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20560,7 +20798,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D523" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D540" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -20928,88 +21166,208 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524">
+        <v>19</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="7"/>
+        <v>10.857142857142858</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="7"/>
+        <v>10.857142857142858</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526">
+        <v>18</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="7"/>
+        <v>12.857142857142858</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527">
+        <v>27</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="7"/>
+        <v>13.714285714285714</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528">
+        <v>18</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="7"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>17</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>24</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="7"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531">
+        <v>18</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" si="7"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="7"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>6</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" si="7"/>
+        <v>15.714285714285714</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534">
+        <v>24</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="7"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>14</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="7"/>
+        <v>14.714285714285714</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>20</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="7"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537">
+        <v>43</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="7"/>
+        <v>17.857142857142858</v>
+      </c>
+      <c r="E537" s="3"/>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>7</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="7"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>21</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="7"/>
+        <v>19.285714285714285</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540">
+        <v>11</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -21024,8 +21382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27536,7 +27894,7 @@
         <v>6</v>
       </c>
       <c r="D519" s="3">
-        <f t="shared" ref="D519:D523" si="85">AVERAGE(C513:C519)</f>
+        <f t="shared" ref="D519:D530" si="85">AVERAGE(C513:C519)</f>
         <v>5.2857142857142856</v>
       </c>
     </row>
@@ -27592,88 +27950,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524" s="2">
+        <v>16</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="85"/>
+        <v>9.8571428571428577</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525" s="2">
+        <v>15</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="85"/>
+        <v>11.142857142857142</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526" s="2">
+        <v>16</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="85"/>
+        <v>12.571428571428571</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527" s="2">
+        <v>17</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="85"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528" s="2">
+        <v>18</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="85"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529" s="2">
+        <v>21</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="85"/>
+        <v>16.714285714285715</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530" s="2">
+        <v>19</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="85"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531" s="2">
+        <v>19</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" ref="D531:D532" si="86">AVERAGE(C525:C531)</f>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532" s="2">
+        <v>17</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="86"/>
+        <v>18.142857142857142</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533" s="2">
+        <v>17</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" ref="D533" si="87">AVERAGE(C527:C533)</f>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534" s="2">
+        <v>17</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" ref="D534:D540" si="88">AVERAGE(C528:C534)</f>
+        <v>18.285714285714285</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535" s="2">
+        <v>15</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="88"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536" s="2">
+        <v>14</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="88"/>
+        <v>16.857142857142858</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537" s="2">
+        <v>16</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" si="88"/>
+        <v>16.428571428571427</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538" s="2">
+        <v>20</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" si="88"/>
+        <v>16.571428571428573</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539" s="2">
+        <v>24</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="88"/>
+        <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540" s="2">
+        <v>23</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="88"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>
@@ -27688,8 +28165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:D523"/>
+    <sheetView topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34224,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="D521" s="3">
-        <f t="shared" ref="D521:D523" si="24">AVERAGE(C515:C521)</f>
+        <f t="shared" ref="D521:D530" si="24">AVERAGE(C515:C521)</f>
         <v>0</v>
       </c>
     </row>
@@ -34256,88 +34733,207 @@
       <c r="A524" s="5">
         <v>44422</v>
       </c>
+      <c r="C524" s="2">
+        <v>1</v>
+      </c>
+      <c r="D524" s="3">
+        <f t="shared" si="24"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>44423</v>
       </c>
+      <c r="C525" s="2">
+        <v>1</v>
+      </c>
+      <c r="D525" s="3">
+        <f t="shared" si="24"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>44424</v>
       </c>
+      <c r="C526" s="2">
+        <v>1</v>
+      </c>
+      <c r="D526" s="3">
+        <f t="shared" si="24"/>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>44425</v>
       </c>
+      <c r="C527" s="2">
+        <v>2</v>
+      </c>
+      <c r="D527" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>44426</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C528" s="2">
+        <v>2</v>
+      </c>
+      <c r="D528" s="3">
+        <f t="shared" si="24"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>44427</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C529" s="2">
+        <v>2</v>
+      </c>
+      <c r="D529" s="3">
+        <f t="shared" si="24"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>44428</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C530" s="2">
+        <v>2</v>
+      </c>
+      <c r="D530" s="3">
+        <f t="shared" si="24"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>44429</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C531" s="2">
+        <v>2</v>
+      </c>
+      <c r="D531" s="3">
+        <f t="shared" ref="D531:D532" si="25">AVERAGE(C525:C531)</f>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>44430</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C532" s="2">
+        <v>4</v>
+      </c>
+      <c r="D532" s="3">
+        <f t="shared" si="25"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>44431</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C533" s="2">
+        <v>4</v>
+      </c>
+      <c r="D533" s="3">
+        <f t="shared" ref="D533:D536" si="26">AVERAGE(C527:C533)</f>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>44432</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C534" s="2">
+        <v>3</v>
+      </c>
+      <c r="D534" s="3">
+        <f t="shared" si="26"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>44433</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C535" s="2">
+        <v>3</v>
+      </c>
+      <c r="D535" s="3">
+        <f t="shared" si="26"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>44434</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C536" s="2">
+        <v>3</v>
+      </c>
+      <c r="D536" s="3">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>44435</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C537" s="2">
+        <v>3</v>
+      </c>
+      <c r="D537" s="3">
+        <f t="shared" ref="D537" si="27">AVERAGE(C531:C537)</f>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>44436</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C538" s="2">
+        <v>3</v>
+      </c>
+      <c r="D538" s="3">
+        <f t="shared" ref="D538:D540" si="28">AVERAGE(C532:C538)</f>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>44437</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C539" s="2">
+        <v>5</v>
+      </c>
+      <c r="D539" s="3">
+        <f t="shared" si="28"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>44438</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C540" s="2">
+        <v>5</v>
+      </c>
+      <c r="D540" s="3">
+        <f t="shared" si="28"/>
+        <v>3.5714285714285716</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
       </c>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5B97C-6489-DB49-93AC-83106F3CC8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42033F89-3369-964C-BBF9-13D6AE009035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15560" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
   <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540"/>
+    <sheetView topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D540" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D541" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7502,6 +7502,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541" s="2">
+        <v>24</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="6"/>
+        <v>17.571428571428573</v>
       </c>
     </row>
   </sheetData>
@@ -7515,7 +7522,7 @@
   <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="C540" sqref="C540:D540"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14582,13 +14589,20 @@
         <v>0</v>
       </c>
       <c r="D540" s="3">
-        <f t="shared" ref="D540" si="36">AVERAGE(C534:C540)</f>
+        <f t="shared" ref="D540:D541" si="36">AVERAGE(C534:C540)</f>
         <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14601,8 +14615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540"/>
+    <sheetView topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20798,7 +20812,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D540" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D541" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -21370,6 +21384,13 @@
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541">
+        <v>31</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -21383,7 +21404,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540"/>
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28074,7 +28095,7 @@
         <v>17</v>
       </c>
       <c r="D534" s="3">
-        <f t="shared" ref="D534:D540" si="88">AVERAGE(C528:C534)</f>
+        <f t="shared" ref="D534:D541" si="88">AVERAGE(C528:C534)</f>
         <v>18.285714285714285</v>
       </c>
     </row>
@@ -28153,6 +28174,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541" s="2">
+        <v>23</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="88"/>
+        <v>19.285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -28165,8 +28193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="A541" sqref="A541:D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34905,7 +34933,7 @@
         <v>3</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D540" si="28">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D541" si="28">AVERAGE(C532:C538)</f>
         <v>3.2857142857142856</v>
       </c>
     </row>
@@ -34936,6 +34964,13 @@
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>44439</v>
+      </c>
+      <c r="C541" s="2">
+        <v>5</v>
+      </c>
+      <c r="D541" s="3">
+        <f t="shared" si="28"/>
+        <v>3.8571428571428572</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42033F89-3369-964C-BBF9-13D6AE009035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC79FD4-692E-D546-845C-83193D786711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="3720" yWindow="540" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
     <sheetView topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D541" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D542" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7509,6 +7509,18 @@
       <c r="D541" s="3">
         <f t="shared" si="6"/>
         <v>17.571428571428573</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542" s="2">
+        <v>26</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7519,10 +7531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14589,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="D540" s="3">
-        <f t="shared" ref="D540:D541" si="36">AVERAGE(C534:C540)</f>
+        <f t="shared" ref="D540:D542" si="36">AVERAGE(C534:C540)</f>
         <v>0</v>
       </c>
     </row>
@@ -14601,6 +14613,18 @@
         <v>0</v>
       </c>
       <c r="D541" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
+      <c r="D542" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14613,10 +14637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:E541"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
     <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20812,7 +20836,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D541" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D542" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -21391,6 +21415,18 @@
       <c r="D541" s="3">
         <f t="shared" si="7"/>
         <v>21</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542">
+        <v>26</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="7"/>
+        <v>22.714285714285715</v>
       </c>
     </row>
   </sheetData>
@@ -21401,10 +21437,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28095,7 +28131,7 @@
         <v>17</v>
       </c>
       <c r="D534" s="3">
-        <f t="shared" ref="D534:D541" si="88">AVERAGE(C528:C534)</f>
+        <f t="shared" ref="D534:D542" si="88">AVERAGE(C528:C534)</f>
         <v>18.285714285714285</v>
       </c>
     </row>
@@ -28181,6 +28217,18 @@
       <c r="D541" s="3">
         <f t="shared" si="88"/>
         <v>19.285714285714285</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542" s="2">
+        <v>21</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="88"/>
+        <v>20.142857142857142</v>
       </c>
     </row>
   </sheetData>
@@ -28191,10 +28239,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:D541"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="A542" sqref="A542:D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34933,7 +34981,7 @@
         <v>3</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D541" si="28">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D542" si="28">AVERAGE(C532:C538)</f>
         <v>3.2857142857142856</v>
       </c>
     </row>
@@ -34971,6 +35019,18 @@
       <c r="D541" s="3">
         <f t="shared" si="28"/>
         <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44440</v>
+      </c>
+      <c r="C542" s="2">
+        <v>6</v>
+      </c>
+      <c r="D542" s="3">
+        <f t="shared" si="28"/>
+        <v>4.2857142857142856</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC79FD4-692E-D546-845C-83193D786711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0E73F-4E54-EF45-95DE-42A7B57D5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="540" windowWidth="28800" windowHeight="15560" activeTab="4" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="2400" yWindow="540" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE1FBF-B9F2-674F-9C2A-4E5EBBEE8571}">
-  <dimension ref="A1:J542"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D542" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D543" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7521,6 +7521,158 @@
       <c r="D542" s="3">
         <f t="shared" si="6"/>
         <v>18</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543" s="2">
+        <v>6</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="6"/>
+        <v>15.857142857142858</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -7531,10 +7683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14601,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="D540" s="3">
-        <f t="shared" ref="D540:D542" si="36">AVERAGE(C534:C540)</f>
+        <f t="shared" ref="D540:D543" si="36">AVERAGE(C534:C540)</f>
         <v>0</v>
       </c>
     </row>
@@ -14627,6 +14779,158 @@
       <c r="D542" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="36"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -14637,10 +14941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7718A8-8FF6-8647-9AB6-5AC4A7C33949}">
-  <dimension ref="A1:E542"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
-    <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20836,7 +21140,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D542" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D543" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -21427,6 +21731,158 @@
       <c r="D542" s="3">
         <f t="shared" si="7"/>
         <v>22.714285714285715</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543">
+        <v>14</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="7"/>
+        <v>21.857142857142858</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -21437,10 +21893,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28131,7 +28587,7 @@
         <v>17</v>
       </c>
       <c r="D534" s="3">
-        <f t="shared" ref="D534:D542" si="88">AVERAGE(C528:C534)</f>
+        <f t="shared" ref="D534:D543" si="88">AVERAGE(C528:C534)</f>
         <v>18.285714285714285</v>
       </c>
     </row>
@@ -28229,6 +28685,158 @@
       <c r="D542" s="3">
         <f t="shared" si="88"/>
         <v>20.142857142857142</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543" s="2">
+        <v>21</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="88"/>
+        <v>21.142857142857142</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -28239,10 +28847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D74B569-4405-9845-85F1-7287FDF1A8E9}">
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A542" sqref="A542:D542"/>
+    <sheetView topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543:D543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34981,7 +35589,7 @@
         <v>3</v>
       </c>
       <c r="D538" s="3">
-        <f t="shared" ref="D538:D542" si="28">AVERAGE(C532:C538)</f>
+        <f t="shared" ref="D538:D543" si="28">AVERAGE(C532:C538)</f>
         <v>3.2857142857142856</v>
       </c>
     </row>
@@ -35031,6 +35639,158 @@
       <c r="D542" s="3">
         <f t="shared" si="28"/>
         <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44441</v>
+      </c>
+      <c r="C543" s="2">
+        <v>5</v>
+      </c>
+      <c r="D543" s="3">
+        <f t="shared" si="28"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0E73F-4E54-EF45-95DE-42A7B57D5009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF98373-F1C0-D842-AE42-5331B6FBE7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="540" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuovi casi" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D543" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D544" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7538,6 +7538,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544" s="2">
+        <v>13</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="6"/>
+        <v>15.857142857142858</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -7686,7 +7693,7 @@
   <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14753,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="D540" s="3">
-        <f t="shared" ref="D540:D543" si="36">AVERAGE(C534:C540)</f>
+        <f t="shared" ref="D540:D544" si="36">AVERAGE(C534:C540)</f>
         <v>0</v>
       </c>
     </row>
@@ -14796,6 +14803,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="36"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -14944,7 +14958,7 @@
   <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21140,7 +21154,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D543" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D544" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -21748,6 +21762,13 @@
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544">
+        <v>17</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="7"/>
+        <v>18.142857142857142</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -21895,8 +21916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716BFCC6-1660-2A45-B40F-224FB2A3C8D7}">
   <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+    <sheetView topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28587,7 +28608,7 @@
         <v>17</v>
       </c>
       <c r="D534" s="3">
-        <f t="shared" ref="D534:D543" si="88">AVERAGE(C528:C534)</f>
+        <f t="shared" ref="D534:D544" si="88">AVERAGE(C528:C534)</f>
         <v>18.285714285714285</v>
       </c>
     </row>
@@ -28702,6 +28723,13 @@
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>44442</v>
+      </c>
+      <c r="C544" s="2">
+        <v>23</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" si="88"/>
+        <v>22.142857142857142</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
@@ -28850,7 +28878,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A543" sqref="A543:D543"/>
+      <selection activeCell="A544" sqref="A544:D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35657,6 +35685,13 @@
       <c r="A544" s="5">
         <v>44442</v>
       </c>
+      <c r="C544" s="2">
+        <v>5</v>
+      </c>
+      <c r="D544" s="3">
+        <f t="shared" ref="D544" si="29">AVERAGE(C538:C544)</f>
+        <v>4.8571428571428568</v>
+      </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="5">

--- a/dati/provincia/Catanzaro/Catanzaro.xlsx
+++ b/dati/provincia/Catanzaro/Catanzaro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/COVID-19/Dati/Calabria/dati/provincia/Catanzaro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF98373-F1C0-D842-AE42-5331B6FBE7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0166BB9C-432A-924E-BE70-C9CB50B5B04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="15560" activeTab="2" xr2:uid="{7169D64E-3806-6D4A-8176-2878E6BB2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:J571"/>
   <sheetViews>
     <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
       <c r="D472" s="3">
-        <f t="shared" ref="D472:D544" si="6">AVERAGE(C466:C472)</f>
+        <f t="shared" ref="D472:D545" si="6">AVERAGE(C466:C472)</f>
         <v>4.7142857142857144</v>
       </c>
     </row>
@@ -7547,82 +7547,89 @@
         <v>15.857142857142858</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545" s="2">
+        <v>25</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="6"/>
+        <v>14.142857142857142</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -7692,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85921AE-E3F0-8E40-A54E-80DBA6595CFC}">
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+    <sheetView topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14760,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="D540" s="3">
-        <f t="shared" ref="D540:D544" si="36">AVERAGE(C534:C540)</f>
+        <f t="shared" ref="D540:D545" si="36">AVERAGE(C534:C540)</f>
         <v>0</v>
       </c>
     </row>
@@ -14812,82 +14819,89 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="36"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -14958,7 +14972,7 @@
   <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21154,7 +21168,7 @@
         <v>3</v>
       </c>
       <c r="D493" s="3">
-        <f t="shared" ref="D493:D544" si="7">AVERAGE(C487:C493)</f>
+        <f t="shared" ref="D493:D545" si="7">AVERAGE(C487:C493)</f>
         <v>4.4285714285714288</v>
       </c>
     </row>
@@ -21771,82 +21785,89 @@
         <v>18.142857142857142</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545">
+        <v>14</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="7"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -21917,7 +21938,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28732,82 +28753,89 @@
         <v>22.142857142857142</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545" s="2">
+        <v>23</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" ref="D545" si="89">AVERAGE(C539:C545)</f>
+        <v>22.571428571428573</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
@@ -28878,7 +28906,7 @@
   <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544:D544"/>
+      <selection activeCell="A545" sqref="A545:D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35689,86 +35717,93 @@
         <v>5</v>
       </c>
       <c r="D544" s="3">
-        <f t="shared" ref="D544" si="29">AVERAGE(C538:C544)</f>
+        <f t="shared" ref="D544:D545" si="29">AVERAGE(C538:C544)</f>
         <v>4.8571428571428568</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>44443</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C545" s="2">
+        <v>4</v>
+      </c>
+      <c r="D545" s="3">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>44444</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>44445</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>44446</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>44447</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>44448</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>44449</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>44451</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>44452</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>44453</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>44454</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>44455</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>44456</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>44457</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>44458</v>
       </c>
